--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T10:00:26+00:00</t>
+    <t>2025-09-10T13:51:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6619" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6619" uniqueCount="827">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-11T09:46:41+00:00</t>
+    <t>2025-09-15T07:08:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -670,25 +670,28 @@
     <t>Ressources utilisées lors de l’évènement.</t>
   </si>
   <si>
+    <t>RessourceUtilisee</t>
+  </si>
+  <si>
+    <t>Encounter.extension:TDDUIRessourcesUsed.id</t>
+  </si>
+  <si>
+    <t>Encounter.extension.id</t>
+  </si>
+  <si>
+    <t>Encounter.extension:TDDUIRessourcesUsed.extension</t>
+  </si>
+  <si>
+    <t>Encounter.extension.extension</t>
+  </si>
+  <si>
+    <t>Encounter.extension:TDDUIRessourcesUsed.extension:TDDUIRessourceType</t>
+  </si>
+  <si>
+    <t>TDDUIRessourceType</t>
+  </si>
+  <si>
     <t>typeRessourceUtilisee</t>
-  </si>
-  <si>
-    <t>Encounter.extension:TDDUIRessourcesUsed.id</t>
-  </si>
-  <si>
-    <t>Encounter.extension.id</t>
-  </si>
-  <si>
-    <t>Encounter.extension:TDDUIRessourcesUsed.extension</t>
-  </si>
-  <si>
-    <t>Encounter.extension.extension</t>
-  </si>
-  <si>
-    <t>Encounter.extension:TDDUIRessourcesUsed.extension:TDDUIRessourceType</t>
-  </si>
-  <si>
-    <t>TDDUIRessourceType</t>
   </si>
   <si>
     <t>Encounter.extension:TDDUIRessourcesUsed.extension:TDDUIRessourceType.id</t>
@@ -5592,7 +5595,7 @@
         <v>119</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>81</v>
@@ -5609,10 +5612,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5724,10 +5727,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5839,10 +5842,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5868,13 +5871,13 @@
         <v>133</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5924,7 +5927,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>90</v>
@@ -5956,10 +5959,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5982,13 +5985,13 @@
         <v>81</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -6015,11 +6018,11 @@
         <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>81</v>
@@ -6037,7 +6040,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -6069,13 +6072,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>214</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>81</v>
@@ -6169,7 +6172,7 @@
         <v>119</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>81</v>
@@ -6186,10 +6189,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -6301,10 +6304,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6416,10 +6419,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6445,13 +6448,13 @@
         <v>133</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6459,7 +6462,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>81</v>
@@ -6501,7 +6504,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>90</v>
@@ -6533,10 +6536,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6559,13 +6562,13 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -6592,11 +6595,11 @@
         <v>81</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>81</v>
@@ -6614,7 +6617,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -6646,13 +6649,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>214</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>81</v>
@@ -6746,7 +6749,7 @@
         <v>119</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>81</v>
@@ -6763,10 +6766,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6878,10 +6881,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6993,10 +6996,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -7022,13 +7025,13 @@
         <v>133</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -7036,7 +7039,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>81</v>
@@ -7078,7 +7081,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>90</v>
@@ -7110,10 +7113,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -7136,13 +7139,13 @@
         <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -7169,11 +7172,11 @@
         <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>81</v>
@@ -7191,7 +7194,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -7223,10 +7226,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7252,13 +7255,13 @@
         <v>133</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -7266,7 +7269,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>81</v>
@@ -7308,7 +7311,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>90</v>
@@ -7340,10 +7343,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7366,13 +7369,13 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -7423,7 +7426,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -7455,13 +7458,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>81</v>
@@ -7483,13 +7486,13 @@
         <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -7555,7 +7558,7 @@
         <v>119</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>81</v>
@@ -7572,13 +7575,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>81</v>
@@ -7600,13 +7603,13 @@
         <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7672,7 +7675,7 @@
         <v>119</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>81</v>
@@ -7689,13 +7692,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>81</v>
@@ -7717,13 +7720,13 @@
         <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7789,7 +7792,7 @@
         <v>119</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>81</v>
@@ -7806,13 +7809,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>81</v>
@@ -7834,13 +7837,13 @@
         <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7906,7 +7909,7 @@
         <v>119</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>81</v>
@@ -7923,13 +7926,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>81</v>
@@ -7951,13 +7954,13 @@
         <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -8023,7 +8026,7 @@
         <v>119</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>81</v>
@@ -8040,13 +8043,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>81</v>
@@ -8068,13 +8071,13 @@
         <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -8140,7 +8143,7 @@
         <v>119</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>81</v>
@@ -8157,13 +8160,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>81</v>
@@ -8185,13 +8188,13 @@
         <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -8257,7 +8260,7 @@
         <v>119</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>81</v>
@@ -8274,13 +8277,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>81</v>
@@ -8302,13 +8305,13 @@
         <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -8374,7 +8377,7 @@
         <v>119</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>81</v>
@@ -8391,10 +8394,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8420,16 +8423,16 @@
         <v>111</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>114</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>81</v>
@@ -8478,7 +8481,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -8510,10 +8513,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8536,13 +8539,13 @@
         <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -8593,7 +8596,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -8608,27 +8611,27 @@
         <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8740,10 +8743,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8857,10 +8860,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8886,16 +8889,16 @@
         <v>172</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -8920,13 +8923,13 @@
         <v>81</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>81</v>
@@ -8944,7 +8947,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8965,7 +8968,7 @@
         <v>81</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
@@ -8976,10 +8979,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -9002,19 +9005,19 @@
         <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>81</v>
@@ -9043,7 +9046,7 @@
       </c>
       <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>81</v>
@@ -9061,7 +9064,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -9082,21 +9085,21 @@
         <v>81</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9122,16 +9125,16 @@
         <v>133</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>81</v>
@@ -9144,7 +9147,7 @@
         <v>81</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>81</v>
@@ -9180,7 +9183,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -9201,21 +9204,21 @@
         <v>81</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9241,13 +9244,13 @@
         <v>104</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -9261,7 +9264,7 @@
         <v>81</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="U55" t="s" s="2">
         <v>81</v>
@@ -9297,7 +9300,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -9318,21 +9321,21 @@
         <v>81</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9355,13 +9358,13 @@
         <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -9412,7 +9415,7 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -9433,21 +9436,21 @@
         <v>81</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9470,16 +9473,16 @@
         <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9529,7 +9532,7 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -9550,21 +9553,21 @@
         <v>81</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9590,13 +9593,13 @@
         <v>172</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9622,13 +9625,13 @@
         <v>81</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>81</v>
@@ -9646,7 +9649,7 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>90</v>
@@ -9661,27 +9664,27 @@
         <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9707,10 +9710,10 @@
         <v>104</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9793,10 +9796,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9906,13 +9909,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B61" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="B61" t="s" s="2">
-        <v>376</v>
-      </c>
       <c r="C61" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>81</v>
@@ -9934,13 +9937,13 @@
         <v>81</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -10006,7 +10009,7 @@
         <v>119</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>81</v>
@@ -10023,10 +10026,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10052,10 +10055,10 @@
         <v>104</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -10106,7 +10109,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -10138,10 +10141,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10164,16 +10167,16 @@
         <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -10223,7 +10226,7 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -10255,10 +10258,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10370,10 +10373,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10487,14 +10490,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -10516,16 +10519,16 @@
         <v>111</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>114</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>81</v>
@@ -10574,7 +10577,7 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -10606,10 +10609,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10635,10 +10638,10 @@
         <v>172</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10665,13 +10668,13 @@
         <v>81</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>81</v>
@@ -10689,7 +10692,7 @@
         <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>90</v>
@@ -10721,10 +10724,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10747,13 +10750,13 @@
         <v>81</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10804,7 +10807,7 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>90</v>
@@ -10836,10 +10839,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10865,10 +10868,10 @@
         <v>150</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10898,10 +10901,10 @@
         <v>154</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>81</v>
@@ -10919,7 +10922,7 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>90</v>
@@ -10940,21 +10943,21 @@
         <v>81</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11066,10 +11069,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11183,10 +11186,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11212,16 +11215,16 @@
         <v>133</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>81</v>
@@ -11270,7 +11273,7 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -11291,21 +11294,21 @@
         <v>81</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11331,13 +11334,13 @@
         <v>104</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11387,7 +11390,7 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -11408,21 +11411,21 @@
         <v>81</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11448,14 +11451,14 @@
         <v>172</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>81</v>
@@ -11504,7 +11507,7 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -11525,21 +11528,21 @@
         <v>81</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11565,14 +11568,14 @@
         <v>104</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>81</v>
@@ -11621,7 +11624,7 @@
         <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -11642,21 +11645,21 @@
         <v>81</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11679,19 +11682,19 @@
         <v>91</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>81</v>
@@ -11740,7 +11743,7 @@
         <v>81</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -11761,21 +11764,21 @@
         <v>81</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11798,13 +11801,13 @@
         <v>81</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11855,7 +11858,7 @@
         <v>81</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -11887,10 +11890,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12002,10 +12005,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12119,14 +12122,14 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -12148,16 +12151,16 @@
         <v>111</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N80" t="s" s="2">
         <v>114</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>81</v>
@@ -12206,7 +12209,7 @@
         <v>81</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -12238,10 +12241,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12267,10 +12270,10 @@
         <v>150</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -12300,10 +12303,10 @@
         <v>154</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>81</v>
@@ -12321,7 +12324,7 @@
         <v>81</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>90</v>
@@ -12353,10 +12356,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12379,13 +12382,13 @@
         <v>81</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -12436,7 +12439,7 @@
         <v>81</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>90</v>
@@ -12468,10 +12471,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12494,16 +12497,16 @@
         <v>91</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12533,13 +12536,13 @@
       </c>
       <c r="Y83" s="2"/>
       <c r="Z83" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AC83" s="2"/>
       <c r="AD83" t="s" s="2">
@@ -12549,7 +12552,7 @@
         <v>117</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -12564,30 +12567,30 @@
         <v>102</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D84" t="s" s="2">
         <v>81</v>
@@ -12609,16 +12612,16 @@
         <v>91</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12647,10 +12650,10 @@
         <v>162</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>81</v>
@@ -12668,7 +12671,7 @@
         <v>81</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
@@ -12686,24 +12689,24 @@
         <v>81</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12815,10 +12818,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12932,10 +12935,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12961,16 +12964,16 @@
         <v>150</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>81</v>
@@ -13019,7 +13022,7 @@
         <v>81</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
@@ -13040,21 +13043,21 @@
         <v>81</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13166,10 +13169,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13283,10 +13286,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13312,16 +13315,16 @@
         <v>133</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>81</v>
@@ -13331,7 +13334,7 @@
         <v>81</v>
       </c>
       <c r="S90" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="T90" t="s" s="2">
         <v>81</v>
@@ -13370,7 +13373,7 @@
         <v>81</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -13391,21 +13394,21 @@
         <v>81</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13431,13 +13434,13 @@
         <v>104</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -13487,7 +13490,7 @@
         <v>81</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
@@ -13508,21 +13511,21 @@
         <v>81</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13548,14 +13551,14 @@
         <v>172</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>81</v>
@@ -13580,11 +13583,11 @@
         <v>81</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Y92" s="2"/>
       <c r="Z92" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>81</v>
@@ -13602,7 +13605,7 @@
         <v>81</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
@@ -13623,21 +13626,21 @@
         <v>81</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13663,14 +13666,14 @@
         <v>104</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>81</v>
@@ -13719,7 +13722,7 @@
         <v>81</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>79</v>
@@ -13740,21 +13743,21 @@
         <v>81</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13777,19 +13780,19 @@
         <v>91</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>81</v>
@@ -13838,7 +13841,7 @@
         <v>81</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>79</v>
@@ -13859,21 +13862,21 @@
         <v>81</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13899,16 +13902,16 @@
         <v>104</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>81</v>
@@ -13957,7 +13960,7 @@
         <v>81</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
@@ -13978,24 +13981,24 @@
         <v>81</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>81</v>
@@ -14017,16 +14020,16 @@
         <v>91</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -14055,10 +14058,10 @@
         <v>162</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>81</v>
@@ -14076,7 +14079,7 @@
         <v>81</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
@@ -14094,24 +14097,24 @@
         <v>81</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14223,10 +14226,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14340,10 +14343,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14369,16 +14372,16 @@
         <v>150</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>81</v>
@@ -14427,7 +14430,7 @@
         <v>81</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
@@ -14448,21 +14451,21 @@
         <v>81</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14574,10 +14577,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14691,10 +14694,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14720,16 +14723,16 @@
         <v>133</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>81</v>
@@ -14739,7 +14742,7 @@
         <v>81</v>
       </c>
       <c r="S102" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="T102" t="s" s="2">
         <v>81</v>
@@ -14778,7 +14781,7 @@
         <v>81</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>79</v>
@@ -14799,21 +14802,21 @@
         <v>81</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14839,13 +14842,13 @@
         <v>104</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14895,7 +14898,7 @@
         <v>81</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>79</v>
@@ -14916,21 +14919,21 @@
         <v>81</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14956,14 +14959,14 @@
         <v>172</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>81</v>
@@ -14988,11 +14991,11 @@
         <v>81</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Y104" s="2"/>
       <c r="Z104" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>81</v>
@@ -15010,7 +15013,7 @@
         <v>81</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>79</v>
@@ -15031,21 +15034,21 @@
         <v>81</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15071,14 +15074,14 @@
         <v>104</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>81</v>
@@ -15127,7 +15130,7 @@
         <v>81</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>79</v>
@@ -15148,21 +15151,21 @@
         <v>81</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO105" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15185,19 +15188,19 @@
         <v>91</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>81</v>
@@ -15246,7 +15249,7 @@
         <v>81</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>79</v>
@@ -15267,21 +15270,21 @@
         <v>81</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO106" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15307,16 +15310,16 @@
         <v>104</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>81</v>
@@ -15365,7 +15368,7 @@
         <v>81</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>79</v>
@@ -15386,24 +15389,24 @@
         <v>81</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO107" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>81</v>
@@ -15425,16 +15428,16 @@
         <v>91</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -15463,10 +15466,10 @@
         <v>162</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Z108" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>81</v>
@@ -15484,7 +15487,7 @@
         <v>81</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>79</v>
@@ -15502,24 +15505,24 @@
         <v>81</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AO108" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15631,10 +15634,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15748,10 +15751,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15777,16 +15780,16 @@
         <v>150</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>81</v>
@@ -15835,7 +15838,7 @@
         <v>81</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>79</v>
@@ -15856,21 +15859,21 @@
         <v>81</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO111" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15982,10 +15985,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16099,10 +16102,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16128,16 +16131,16 @@
         <v>133</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>81</v>
@@ -16147,7 +16150,7 @@
         <v>81</v>
       </c>
       <c r="S114" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="T114" t="s" s="2">
         <v>81</v>
@@ -16186,7 +16189,7 @@
         <v>81</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>79</v>
@@ -16207,21 +16210,21 @@
         <v>81</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16247,13 +16250,13 @@
         <v>104</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
@@ -16303,7 +16306,7 @@
         <v>81</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>79</v>
@@ -16324,21 +16327,21 @@
         <v>81</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16364,14 +16367,14 @@
         <v>172</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>81</v>
@@ -16381,7 +16384,7 @@
         <v>81</v>
       </c>
       <c r="S116" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="T116" t="s" s="2">
         <v>81</v>
@@ -16420,7 +16423,7 @@
         <v>81</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>79</v>
@@ -16441,21 +16444,21 @@
         <v>81</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO116" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16481,14 +16484,14 @@
         <v>104</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>81</v>
@@ -16498,7 +16501,7 @@
         <v>81</v>
       </c>
       <c r="S117" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="T117" t="s" s="2">
         <v>81</v>
@@ -16537,7 +16540,7 @@
         <v>81</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>79</v>
@@ -16558,21 +16561,21 @@
         <v>81</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO117" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16595,19 +16598,19 @@
         <v>91</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>81</v>
@@ -16656,7 +16659,7 @@
         <v>81</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>79</v>
@@ -16677,21 +16680,21 @@
         <v>81</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO118" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16717,16 +16720,16 @@
         <v>104</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O119" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>81</v>
@@ -16775,7 +16778,7 @@
         <v>81</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>79</v>
@@ -16796,21 +16799,21 @@
         <v>81</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO119" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16833,13 +16836,13 @@
         <v>91</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -16869,10 +16872,10 @@
         <v>162</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>81</v>
@@ -16890,7 +16893,7 @@
         <v>81</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>79</v>
@@ -16908,7 +16911,7 @@
         <v>81</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>108</v>
@@ -16917,15 +16920,15 @@
         <v>81</v>
       </c>
       <c r="AO120" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16948,13 +16951,13 @@
         <v>81</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
@@ -16984,10 +16987,10 @@
         <v>162</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>81</v>
@@ -17005,7 +17008,7 @@
         <v>81</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>79</v>
@@ -17026,25 +17029,25 @@
         <v>81</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AO121" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
@@ -17063,16 +17066,16 @@
         <v>91</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
@@ -17122,7 +17125,7 @@
         <v>81</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>79</v>
@@ -17137,27 +17140,27 @@
         <v>102</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AO122" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17180,13 +17183,13 @@
         <v>91</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -17237,7 +17240,7 @@
         <v>81</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>79</v>
@@ -17255,28 +17258,28 @@
         <v>81</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>108</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AO123" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
@@ -17295,13 +17298,13 @@
         <v>81</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -17352,7 +17355,7 @@
         <v>81</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>79</v>
@@ -17370,10 +17373,10 @@
         <v>81</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>81</v>
@@ -17384,10 +17387,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17410,13 +17413,13 @@
         <v>91</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -17467,7 +17470,7 @@
         <v>81</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>79</v>
@@ -17485,24 +17488,24 @@
         <v>81</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO125" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17614,10 +17617,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17731,14 +17734,14 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" t="s" s="2">
@@ -17760,16 +17763,16 @@
         <v>111</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N128" t="s" s="2">
         <v>114</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>81</v>
@@ -17818,7 +17821,7 @@
         <v>81</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>79</v>
@@ -17850,10 +17853,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17876,16 +17879,16 @@
         <v>91</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="O129" s="2"/>
       <c r="P129" t="s" s="2">
@@ -17914,10 +17917,10 @@
         <v>154</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="Z129" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AA129" t="s" s="2">
         <v>81</v>
@@ -17935,7 +17938,7 @@
         <v>81</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>79</v>
@@ -17950,27 +17953,27 @@
         <v>102</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO129" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17993,13 +17996,13 @@
         <v>81</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -18050,7 +18053,7 @@
         <v>81</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>79</v>
@@ -18071,21 +18074,21 @@
         <v>81</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AN130" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO130" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18108,13 +18111,13 @@
         <v>91</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -18165,7 +18168,7 @@
         <v>81</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>79</v>
@@ -18180,27 +18183,27 @@
         <v>102</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AO131" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18223,13 +18226,13 @@
         <v>91</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
@@ -18280,7 +18283,7 @@
         <v>81</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>79</v>
@@ -18298,24 +18301,24 @@
         <v>81</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AN132" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO132" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18338,16 +18341,16 @@
         <v>81</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="O133" s="2"/>
       <c r="P133" t="s" s="2">
@@ -18397,7 +18400,7 @@
         <v>81</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>79</v>
@@ -18415,24 +18418,24 @@
         <v>81</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AO133" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18544,10 +18547,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18661,10 +18664,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18672,7 +18675,7 @@
       </c>
       <c r="E136" s="2"/>
       <c r="F136" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>90</v>
@@ -18687,16 +18690,16 @@
         <v>91</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="O136" s="2"/>
       <c r="P136" t="s" s="2">
@@ -18746,7 +18749,7 @@
         <v>81</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>79</v>
@@ -18755,33 +18758,33 @@
         <v>90</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AL136" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AN136" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO136" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18789,7 +18792,7 @@
       </c>
       <c r="E137" s="2"/>
       <c r="F137" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>90</v>
@@ -18804,23 +18807,23 @@
         <v>91</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="O137" s="2"/>
       <c r="P137" t="s" s="2">
         <v>81</v>
       </c>
       <c r="Q137" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="R137" t="s" s="2">
         <v>81</v>
@@ -18865,7 +18868,7 @@
         <v>81</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>79</v>
@@ -18874,33 +18877,33 @@
         <v>90</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AL137" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO137" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -18923,16 +18926,16 @@
         <v>81</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="O138" s="2"/>
       <c r="P138" t="s" s="2">
@@ -18982,7 +18985,7 @@
         <v>81</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>79</v>
@@ -19000,28 +19003,28 @@
         <v>81</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AN138" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" t="s" s="2">
@@ -19040,16 +19043,16 @@
         <v>91</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="O139" s="2"/>
       <c r="P139" t="s" s="2">
@@ -19078,10 +19081,10 @@
         <v>176</v>
       </c>
       <c r="Y139" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="Z139" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AA139" t="s" s="2">
         <v>81</v>
@@ -19099,7 +19102,7 @@
         <v>81</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>79</v>
@@ -19117,28 +19120,28 @@
         <v>81</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" t="s" s="2">
@@ -19157,16 +19160,16 @@
         <v>91</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
@@ -19216,7 +19219,7 @@
         <v>81</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>79</v>
@@ -19234,24 +19237,24 @@
         <v>81</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AO140" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19274,13 +19277,13 @@
         <v>91</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" s="2"/>
@@ -19331,7 +19334,7 @@
         <v>81</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>79</v>
@@ -19352,7 +19355,7 @@
         <v>81</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AN141" t="s" s="2">
         <v>81</v>
@@ -19363,10 +19366,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19478,10 +19481,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -19595,14 +19598,14 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" t="s" s="2">
@@ -19624,16 +19627,16 @@
         <v>111</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N144" t="s" s="2">
         <v>114</v>
       </c>
       <c r="O144" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>81</v>
@@ -19682,7 +19685,7 @@
         <v>81</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>79</v>
@@ -19714,14 +19717,14 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" t="s" s="2">
@@ -19740,16 +19743,16 @@
         <v>91</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="O145" s="2"/>
       <c r="P145" t="s" s="2">
@@ -19799,7 +19802,7 @@
         <v>81</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>90</v>
@@ -19817,24 +19820,24 @@
         <v>81</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AM145" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AN145" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AO145" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -19857,13 +19860,13 @@
         <v>81</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
@@ -19893,10 +19896,10 @@
         <v>176</v>
       </c>
       <c r="Y146" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="Z146" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AA146" t="s" s="2">
         <v>81</v>
@@ -19914,7 +19917,7 @@
         <v>81</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>79</v>
@@ -19946,10 +19949,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -19972,13 +19975,13 @@
         <v>81</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
@@ -20029,7 +20032,7 @@
         <v>81</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>79</v>
@@ -20050,7 +20053,7 @@
         <v>81</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AN147" t="s" s="2">
         <v>81</v>
@@ -20061,10 +20064,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20087,16 +20090,16 @@
         <v>81</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O148" s="2"/>
       <c r="P148" t="s" s="2">
@@ -20146,7 +20149,7 @@
         <v>81</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>79</v>
@@ -20167,7 +20170,7 @@
         <v>81</v>
       </c>
       <c r="AM148" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AN148" t="s" s="2">
         <v>81</v>
@@ -20178,10 +20181,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20204,16 +20207,16 @@
         <v>81</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="O149" s="2"/>
       <c r="P149" t="s" s="2">
@@ -20263,7 +20266,7 @@
         <v>81</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>79</v>
@@ -20284,7 +20287,7 @@
         <v>81</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AN149" t="s" s="2">
         <v>81</v>
@@ -20295,10 +20298,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20410,10 +20413,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -20527,14 +20530,14 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" t="s" s="2">
@@ -20556,16 +20559,16 @@
         <v>111</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N152" t="s" s="2">
         <v>114</v>
       </c>
       <c r="O152" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P152" t="s" s="2">
         <v>81</v>
@@ -20614,7 +20617,7 @@
         <v>81</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>79</v>
@@ -20646,10 +20649,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -20672,13 +20675,13 @@
         <v>81</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
@@ -20729,7 +20732,7 @@
         <v>81</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>79</v>
@@ -20750,21 +20753,21 @@
         <v>81</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN153" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO153" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -20876,10 +20879,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -20993,10 +20996,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21022,16 +21025,16 @@
         <v>172</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O156" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>81</v>
@@ -21056,13 +21059,13 @@
         <v>81</v>
       </c>
       <c r="X156" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Y156" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Z156" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AA156" t="s" s="2">
         <v>81</v>
@@ -21080,7 +21083,7 @@
         <v>81</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>79</v>
@@ -21101,7 +21104,7 @@
         <v>81</v>
       </c>
       <c r="AM156" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN156" t="s" s="2">
         <v>81</v>
@@ -21112,10 +21115,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21138,19 +21141,19 @@
         <v>91</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O157" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P157" t="s" s="2">
         <v>81</v>
@@ -21179,7 +21182,7 @@
       </c>
       <c r="Y157" s="2"/>
       <c r="Z157" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AA157" t="s" s="2">
         <v>81</v>
@@ -21197,7 +21200,7 @@
         <v>81</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>79</v>
@@ -21218,21 +21221,21 @@
         <v>81</v>
       </c>
       <c r="AM157" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN157" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO157" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -21258,29 +21261,29 @@
         <v>133</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O158" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>81</v>
       </c>
       <c r="Q158" s="2"/>
       <c r="R158" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="S158" t="s" s="2">
         <v>81</v>
       </c>
       <c r="T158" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="U158" t="s" s="2">
         <v>81</v>
@@ -21316,7 +21319,7 @@
         <v>81</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>79</v>
@@ -21337,21 +21340,21 @@
         <v>81</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO158" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21377,13 +21380,13 @@
         <v>104</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O159" s="2"/>
       <c r="P159" t="s" s="2">
@@ -21397,7 +21400,7 @@
         <v>81</v>
       </c>
       <c r="T159" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="U159" t="s" s="2">
         <v>81</v>
@@ -21433,7 +21436,7 @@
         <v>81</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>79</v>
@@ -21454,21 +21457,21 @@
         <v>81</v>
       </c>
       <c r="AM159" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN159" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO159" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -21491,13 +21494,13 @@
         <v>91</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
@@ -21548,7 +21551,7 @@
         <v>81</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>79</v>
@@ -21569,21 +21572,21 @@
         <v>81</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO160" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -21606,16 +21609,16 @@
         <v>91</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O161" s="2"/>
       <c r="P161" t="s" s="2">
@@ -21665,7 +21668,7 @@
         <v>81</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>79</v>
@@ -21686,21 +21689,21 @@
         <v>81</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO161" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -21723,13 +21726,13 @@
         <v>81</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
@@ -21780,7 +21783,7 @@
         <v>81</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>79</v>
@@ -21801,7 +21804,7 @@
         <v>81</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AN162" t="s" s="2">
         <v>81</v>
@@ -21812,10 +21815,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -21838,13 +21841,13 @@
         <v>81</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" s="2"/>
@@ -21874,10 +21877,10 @@
         <v>176</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="Z163" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AA163" t="s" s="2">
         <v>81</v>
@@ -21895,7 +21898,7 @@
         <v>81</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>79</v>
@@ -21916,21 +21919,21 @@
         <v>81</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="AN163" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO163" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -21953,13 +21956,13 @@
         <v>81</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="N164" s="2"/>
       <c r="O164" s="2"/>
@@ -21989,10 +21992,10 @@
         <v>162</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="Z164" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="AA164" t="s" s="2">
         <v>81</v>
@@ -22010,7 +22013,7 @@
         <v>81</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>79</v>
@@ -22037,15 +22040,15 @@
         <v>81</v>
       </c>
       <c r="AO164" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22068,19 +22071,19 @@
         <v>81</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="O165" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="P165" t="s" s="2">
         <v>81</v>
@@ -22108,10 +22111,10 @@
         <v>162</v>
       </c>
       <c r="Y165" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="Z165" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="AA165" t="s" s="2">
         <v>81</v>
@@ -22129,7 +22132,7 @@
         <v>81</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>79</v>
@@ -22150,21 +22153,21 @@
         <v>81</v>
       </c>
       <c r="AM165" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="AN165" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO165" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -22187,13 +22190,13 @@
         <v>81</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="N166" s="2"/>
       <c r="O166" s="2"/>
@@ -22223,10 +22226,10 @@
         <v>176</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="Z166" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="AA166" t="s" s="2">
         <v>81</v>
@@ -22244,7 +22247,7 @@
         <v>81</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>79</v>
@@ -22265,21 +22268,21 @@
         <v>81</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO166" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -22302,13 +22305,13 @@
         <v>81</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -22338,10 +22341,10 @@
         <v>176</v>
       </c>
       <c r="Y167" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="Z167" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="AA167" t="s" s="2">
         <v>81</v>
@@ -22359,7 +22362,7 @@
         <v>81</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>79</v>
@@ -22380,21 +22383,21 @@
         <v>81</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AN167" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO167" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -22417,13 +22420,13 @@
         <v>81</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
@@ -22474,7 +22477,7 @@
         <v>81</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>79</v>
@@ -22495,21 +22498,21 @@
         <v>81</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO168" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -22532,13 +22535,13 @@
         <v>81</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="N169" s="2"/>
       <c r="O169" s="2"/>
@@ -22569,7 +22572,7 @@
       </c>
       <c r="Y169" s="2"/>
       <c r="Z169" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="AA169" t="s" s="2">
         <v>81</v>
@@ -22587,7 +22590,7 @@
         <v>81</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>79</v>
@@ -22608,21 +22611,21 @@
         <v>81</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="AN169" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO169" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -22645,16 +22648,16 @@
         <v>81</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="O170" s="2"/>
       <c r="P170" t="s" s="2">
@@ -22704,7 +22707,7 @@
         <v>81</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>79</v>
@@ -22719,13 +22722,13 @@
         <v>102</v>
       </c>
       <c r="AK170" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AL170" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AN170" t="s" s="2">
         <v>81</v>
@@ -22736,10 +22739,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -22851,10 +22854,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -22968,14 +22971,14 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E173" s="2"/>
       <c r="F173" t="s" s="2">
@@ -22997,16 +23000,16 @@
         <v>111</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N173" t="s" s="2">
         <v>114</v>
       </c>
       <c r="O173" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>81</v>
@@ -23055,7 +23058,7 @@
         <v>81</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>79</v>
@@ -23087,10 +23090,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23113,13 +23116,13 @@
         <v>81</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="N174" s="2"/>
       <c r="O174" s="2"/>
@@ -23170,7 +23173,7 @@
         <v>81</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>90</v>
@@ -23188,24 +23191,24 @@
         <v>81</v>
       </c>
       <c r="AL174" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="AM174" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AN174" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="AO174" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -23231,13 +23234,13 @@
         <v>172</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="O175" s="2"/>
       <c r="P175" t="s" s="2">
@@ -23263,13 +23266,13 @@
         <v>81</v>
       </c>
       <c r="X175" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Y175" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="Z175" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="AA175" t="s" s="2">
         <v>81</v>
@@ -23287,7 +23290,7 @@
         <v>81</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>79</v>
@@ -23308,7 +23311,7 @@
         <v>81</v>
       </c>
       <c r="AM175" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="AN175" t="s" s="2">
         <v>81</v>
@@ -23319,10 +23322,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -23345,16 +23348,16 @@
         <v>81</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="O176" s="2"/>
       <c r="P176" t="s" s="2">
@@ -23384,7 +23387,7 @@
       </c>
       <c r="Y176" s="2"/>
       <c r="Z176" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="AA176" t="s" s="2">
         <v>81</v>
@@ -23402,7 +23405,7 @@
         <v>81</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>79</v>
@@ -23434,10 +23437,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -23460,13 +23463,13 @@
         <v>81</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
@@ -23517,7 +23520,7 @@
         <v>81</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>79</v>
@@ -23538,7 +23541,7 @@
         <v>81</v>
       </c>
       <c r="AM177" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AN177" t="s" s="2">
         <v>81</v>
@@ -23549,10 +23552,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -23575,13 +23578,13 @@
         <v>81</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" s="2"/>
@@ -23632,7 +23635,7 @@
         <v>81</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>79</v>
@@ -23647,27 +23650,27 @@
         <v>102</v>
       </c>
       <c r="AK178" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="AN178" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO178" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -23690,16 +23693,16 @@
         <v>81</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="O179" s="2"/>
       <c r="P179" t="s" s="2">
@@ -23749,7 +23752,7 @@
         <v>81</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>79</v>
@@ -23764,13 +23767,13 @@
         <v>102</v>
       </c>
       <c r="AK179" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AL179" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="AM179" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="AN179" t="s" s="2">
         <v>81</v>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T07:08:09+00:00</t>
+    <t>2025-09-17T15:38:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T15:38:22+00:00</t>
+    <t>2025-09-18T09:40:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T09:40:01+00:00</t>
+    <t>2025-09-18T12:48:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T12:48:58+00:00</t>
+    <t>2025-09-18T14:47:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6582" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6582" uniqueCount="825">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T09:18:22+00:00</t>
+    <t>2025-09-23T12:45:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -742,6 +742,10 @@
     <t>TDDUIMaterialDetail</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}MatDetailOnlyIfTypeOrg206:TDDUIMaterialDetail ne doit être utilisé que si TDDUIRessourceType vaut ORG-206 ou n'est pas renseigné. {extension('TDDUIRessourceType').empty() or extension('TDDUIRessourceType').value.coding.code = 'ORG-206'}</t>
+  </si>
+  <si>
     <t>detailTypeRessourceUtilisee</t>
   </si>
   <si>
@@ -764,6 +768,10 @@
   </si>
   <si>
     <t>TDDUIFacilityResource</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}FacilityOnlyIfTypeOrg207:TDDUIFacilityResource ne doit être utilisé que si TDDUIRessourceType vaut ORG-207 ou n'est pas renseigné. {extension('TDDUIRessourceType').empty() or extension('TDDUIRessourceType').value.coding.code = 'ORG-207'}</t>
   </si>
   <si>
     <t>Encounter.extension:TDDUIRessourcesUsed.extension:TDDUIFacilityResource.id</t>
@@ -5381,7 +5389,7 @@
         <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>82</v>
@@ -6039,10 +6047,10 @@
         <v>82</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>120</v>
+        <v>234</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>82</v>
@@ -6059,7 +6067,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>215</v>
@@ -6174,7 +6182,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>217</v>
@@ -6289,7 +6297,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>219</v>
@@ -6406,7 +6414,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>225</v>
@@ -6469,7 +6477,7 @@
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>82</v>
@@ -6519,13 +6527,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>210</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>82</v>
@@ -6616,10 +6624,10 @@
         <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>120</v>
+        <v>243</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>82</v>
@@ -6636,7 +6644,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>215</v>
@@ -6751,7 +6759,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>217</v>
@@ -6866,7 +6874,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>219</v>
@@ -6909,7 +6917,7 @@
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>82</v>
@@ -6983,7 +6991,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>225</v>
@@ -7046,7 +7054,7 @@
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>82</v>
@@ -7096,10 +7104,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -7139,7 +7147,7 @@
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>82</v>
@@ -7213,10 +7221,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7239,7 +7247,7 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>227</v>
@@ -7328,13 +7336,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>82</v>
@@ -7356,13 +7364,13 @@
         <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -7428,7 +7436,7 @@
         <v>120</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>82</v>
@@ -7445,13 +7453,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>82</v>
@@ -7473,13 +7481,13 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -7545,7 +7553,7 @@
         <v>120</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>82</v>
@@ -7562,13 +7570,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>82</v>
@@ -7590,13 +7598,13 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7662,7 +7670,7 @@
         <v>120</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>82</v>
@@ -7679,13 +7687,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>82</v>
@@ -7707,13 +7715,13 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7779,7 +7787,7 @@
         <v>120</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>82</v>
@@ -7796,13 +7804,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>82</v>
@@ -7824,13 +7832,13 @@
         <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7896,7 +7904,7 @@
         <v>120</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>82</v>
@@ -7913,13 +7921,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>82</v>
@@ -7941,13 +7949,13 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -8013,7 +8021,7 @@
         <v>120</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>82</v>
@@ -8030,13 +8038,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>82</v>
@@ -8058,13 +8066,13 @@
         <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -8130,7 +8138,7 @@
         <v>120</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>82</v>
@@ -8147,13 +8155,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>82</v>
@@ -8175,13 +8183,13 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -8247,7 +8255,7 @@
         <v>120</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>82</v>
@@ -8264,10 +8272,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8293,16 +8301,16 @@
         <v>112</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -8351,7 +8359,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -8383,10 +8391,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8409,13 +8417,13 @@
         <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -8466,7 +8474,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8481,27 +8489,27 @@
         <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8613,10 +8621,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8730,10 +8738,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8759,16 +8767,16 @@
         <v>168</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8796,10 +8804,10 @@
         <v>229</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -8817,7 +8825,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8838,7 +8846,7 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>82</v>
@@ -8849,10 +8857,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8878,16 +8886,16 @@
         <v>226</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8916,7 +8924,7 @@
       </c>
       <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8934,7 +8942,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8955,21 +8963,21 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8995,16 +9003,16 @@
         <v>134</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -9017,7 +9025,7 @@
         <v>82</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>82</v>
@@ -9053,7 +9061,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -9074,21 +9082,21 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9114,13 +9122,13 @@
         <v>105</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -9134,7 +9142,7 @@
         <v>82</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>82</v>
@@ -9170,7 +9178,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -9191,21 +9199,21 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9228,13 +9236,13 @@
         <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -9285,7 +9293,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -9306,21 +9314,21 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9343,16 +9351,16 @@
         <v>92</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9402,7 +9410,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9423,21 +9431,21 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9463,13 +9471,13 @@
         <v>168</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9498,10 +9506,10 @@
         <v>229</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>82</v>
@@ -9519,7 +9527,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>91</v>
@@ -9534,27 +9542,27 @@
         <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9580,10 +9588,10 @@
         <v>105</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9666,10 +9674,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9779,13 +9787,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>82</v>
@@ -9807,13 +9815,13 @@
         <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9879,7 +9887,7 @@
         <v>120</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>82</v>
@@ -9896,10 +9904,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9925,10 +9933,10 @@
         <v>105</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9979,7 +9987,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -10011,10 +10019,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10037,16 +10045,16 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -10096,7 +10104,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -10128,10 +10136,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10243,10 +10251,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10360,14 +10368,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -10389,16 +10397,16 @@
         <v>112</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -10447,7 +10455,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10479,10 +10487,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10508,10 +10516,10 @@
         <v>168</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10541,10 +10549,10 @@
         <v>229</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>82</v>
@@ -10562,7 +10570,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>91</v>
@@ -10594,10 +10602,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10620,13 +10628,13 @@
         <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10677,7 +10685,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>91</v>
@@ -10709,10 +10717,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10738,10 +10746,10 @@
         <v>146</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10771,10 +10779,10 @@
         <v>150</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>82</v>
@@ -10792,7 +10800,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>91</v>
@@ -10813,21 +10821,21 @@
         <v>82</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10939,10 +10947,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11056,10 +11064,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11085,16 +11093,16 @@
         <v>134</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -11143,7 +11151,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -11164,21 +11172,21 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11204,13 +11212,13 @@
         <v>105</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11260,7 +11268,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11281,21 +11289,21 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11321,14 +11329,14 @@
         <v>168</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11377,7 +11385,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11398,21 +11406,21 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11438,14 +11446,14 @@
         <v>105</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11494,7 +11502,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11515,21 +11523,21 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11552,19 +11560,19 @@
         <v>92</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11613,7 +11621,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11634,21 +11642,21 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11671,13 +11679,13 @@
         <v>82</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11728,7 +11736,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11760,10 +11768,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11875,10 +11883,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11992,14 +12000,14 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -12021,16 +12029,16 @@
         <v>112</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="N79" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -12079,7 +12087,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -12111,10 +12119,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12140,10 +12148,10 @@
         <v>146</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -12173,10 +12181,10 @@
         <v>150</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>82</v>
@@ -12194,7 +12202,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>91</v>
@@ -12226,10 +12234,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12252,13 +12260,13 @@
         <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -12309,7 +12317,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>91</v>
@@ -12341,10 +12349,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12370,13 +12378,13 @@
         <v>226</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -12406,13 +12414,13 @@
       </c>
       <c r="Y82" s="2"/>
       <c r="Z82" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AC82" s="2"/>
       <c r="AD82" t="s" s="2">
@@ -12422,7 +12430,7 @@
         <v>118</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12437,30 +12445,30 @@
         <v>103</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>82</v>
@@ -12485,13 +12493,13 @@
         <v>226</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12520,10 +12528,10 @@
         <v>158</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>82</v>
@@ -12541,7 +12549,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12559,24 +12567,24 @@
         <v>82</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12688,10 +12696,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12805,10 +12813,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12834,16 +12842,16 @@
         <v>146</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12892,7 +12900,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12913,21 +12921,21 @@
         <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13039,10 +13047,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13156,10 +13164,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13185,16 +13193,16 @@
         <v>134</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>82</v>
@@ -13204,7 +13212,7 @@
         <v>82</v>
       </c>
       <c r="S89" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="T89" t="s" s="2">
         <v>82</v>
@@ -13243,7 +13251,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -13264,21 +13272,21 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13304,13 +13312,13 @@
         <v>105</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -13360,7 +13368,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13381,21 +13389,21 @@
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13421,14 +13429,14 @@
         <v>168</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13457,7 +13465,7 @@
       </c>
       <c r="Y91" s="2"/>
       <c r="Z91" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>82</v>
@@ -13475,7 +13483,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13496,21 +13504,21 @@
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13536,14 +13544,14 @@
         <v>105</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13592,7 +13600,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13613,21 +13621,21 @@
         <v>82</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13650,19 +13658,19 @@
         <v>92</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>82</v>
@@ -13711,7 +13719,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13732,21 +13740,21 @@
         <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13772,16 +13780,16 @@
         <v>105</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
@@ -13830,7 +13838,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13851,24 +13859,24 @@
         <v>82</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>82</v>
@@ -13893,13 +13901,13 @@
         <v>226</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13928,10 +13936,10 @@
         <v>158</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>82</v>
@@ -13949,7 +13957,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13967,24 +13975,24 @@
         <v>82</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14096,10 +14104,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14213,10 +14221,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14242,16 +14250,16 @@
         <v>146</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14300,7 +14308,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14321,21 +14329,21 @@
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14447,10 +14455,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14564,10 +14572,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14593,16 +14601,16 @@
         <v>134</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>82</v>
@@ -14612,7 +14620,7 @@
         <v>82</v>
       </c>
       <c r="S101" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="T101" t="s" s="2">
         <v>82</v>
@@ -14651,7 +14659,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14672,21 +14680,21 @@
         <v>82</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14712,13 +14720,13 @@
         <v>105</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14768,7 +14776,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14789,21 +14797,21 @@
         <v>82</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14829,14 +14837,14 @@
         <v>168</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -14865,7 +14873,7 @@
       </c>
       <c r="Y103" s="2"/>
       <c r="Z103" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>82</v>
@@ -14883,7 +14891,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14904,21 +14912,21 @@
         <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14944,14 +14952,14 @@
         <v>105</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>82</v>
@@ -15000,7 +15008,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -15021,21 +15029,21 @@
         <v>82</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15058,19 +15066,19 @@
         <v>92</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>82</v>
@@ -15119,7 +15127,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15140,21 +15148,21 @@
         <v>82</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO105" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15180,16 +15188,16 @@
         <v>105</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -15238,7 +15246,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15259,24 +15267,24 @@
         <v>82</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO106" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D107" t="s" s="2">
         <v>82</v>
@@ -15301,13 +15309,13 @@
         <v>226</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -15336,10 +15344,10 @@
         <v>158</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>82</v>
@@ -15357,7 +15365,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15375,24 +15383,24 @@
         <v>82</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AO107" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15504,10 +15512,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15621,10 +15629,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15650,16 +15658,16 @@
         <v>146</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -15708,7 +15716,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15729,21 +15737,21 @@
         <v>82</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15855,10 +15863,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15972,10 +15980,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16001,16 +16009,16 @@
         <v>134</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
@@ -16020,7 +16028,7 @@
         <v>82</v>
       </c>
       <c r="S113" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="T113" t="s" s="2">
         <v>82</v>
@@ -16059,7 +16067,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16080,21 +16088,21 @@
         <v>82</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16120,13 +16128,13 @@
         <v>105</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -16176,7 +16184,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16197,21 +16205,21 @@
         <v>82</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16237,14 +16245,14 @@
         <v>168</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
@@ -16254,7 +16262,7 @@
         <v>82</v>
       </c>
       <c r="S115" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="T115" t="s" s="2">
         <v>82</v>
@@ -16293,7 +16301,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16314,21 +16322,21 @@
         <v>82</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16354,14 +16362,14 @@
         <v>105</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
@@ -16371,7 +16379,7 @@
         <v>82</v>
       </c>
       <c r="S116" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="T116" t="s" s="2">
         <v>82</v>
@@ -16410,7 +16418,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16431,21 +16439,21 @@
         <v>82</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO116" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16468,19 +16476,19 @@
         <v>92</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16529,7 +16537,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16550,21 +16558,21 @@
         <v>82</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO117" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16590,16 +16598,16 @@
         <v>105</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>82</v>
@@ -16648,7 +16656,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16669,21 +16677,21 @@
         <v>82</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO118" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16709,10 +16717,10 @@
         <v>226</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -16742,10 +16750,10 @@
         <v>158</v>
       </c>
       <c r="Y119" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="Z119" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="AA119" t="s" s="2">
         <v>82</v>
@@ -16763,7 +16771,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -16781,7 +16789,7 @@
         <v>82</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>109</v>
@@ -16790,15 +16798,15 @@
         <v>82</v>
       </c>
       <c r="AO119" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16824,10 +16832,10 @@
         <v>226</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -16857,28 +16865,28 @@
         <v>158</v>
       </c>
       <c r="Y120" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF120" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="Z120" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="AA120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF120" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -16899,25 +16907,25 @@
         <v>82</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="AO120" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
@@ -16936,16 +16944,16 @@
         <v>92</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
@@ -16995,7 +17003,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -17010,27 +17018,27 @@
         <v>103</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="AO121" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17053,13 +17061,13 @@
         <v>92</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -17110,7 +17118,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -17128,28 +17136,28 @@
         <v>82</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AO122" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
@@ -17168,13 +17176,13 @@
         <v>82</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -17225,7 +17233,7 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -17243,10 +17251,10 @@
         <v>82</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>82</v>
@@ -17257,10 +17265,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17283,13 +17291,13 @@
         <v>92</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -17340,7 +17348,7 @@
         <v>82</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
@@ -17358,24 +17366,24 @@
         <v>82</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO124" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17487,10 +17495,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17604,14 +17612,14 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
@@ -17633,16 +17641,16 @@
         <v>112</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="N127" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>82</v>
@@ -17691,7 +17699,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -17723,10 +17731,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17752,13 +17760,13 @@
         <v>226</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
@@ -17787,28 +17795,28 @@
         <v>150</v>
       </c>
       <c r="Y128" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="Z128" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AA128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF128" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="Z128" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AA128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF128" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -17823,27 +17831,27 @@
         <v>103</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO128" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17866,13 +17874,13 @@
         <v>82</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -17923,7 +17931,7 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -17944,21 +17952,21 @@
         <v>82</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO129" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17981,13 +17989,13 @@
         <v>92</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -18038,7 +18046,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18053,27 +18061,27 @@
         <v>103</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="AO130" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18096,13 +18104,13 @@
         <v>92</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -18153,7 +18161,7 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
@@ -18171,24 +18179,24 @@
         <v>82</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO131" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18211,16 +18219,16 @@
         <v>82</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="O132" s="2"/>
       <c r="P132" t="s" s="2">
@@ -18270,7 +18278,7 @@
         <v>82</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -18288,24 +18296,24 @@
         <v>82</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="AO132" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18417,10 +18425,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18534,10 +18542,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18560,16 +18568,16 @@
         <v>92</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" t="s" s="2">
@@ -18619,7 +18627,7 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -18628,33 +18636,33 @@
         <v>91</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO135" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18677,23 +18685,23 @@
         <v>92</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="O136" s="2"/>
       <c r="P136" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q136" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="R136" t="s" s="2">
         <v>82</v>
@@ -18738,7 +18746,7 @@
         <v>82</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
@@ -18747,33 +18755,33 @@
         <v>91</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="AL136" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="AN136" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO136" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18796,16 +18804,16 @@
         <v>82</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="O137" s="2"/>
       <c r="P137" t="s" s="2">
@@ -18855,7 +18863,7 @@
         <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -18873,28 +18881,28 @@
         <v>82</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO137" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" t="s" s="2">
@@ -18916,13 +18924,13 @@
         <v>226</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="O138" s="2"/>
       <c r="P138" t="s" s="2">
@@ -18951,10 +18959,10 @@
         <v>172</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>82</v>
@@ -18972,7 +18980,7 @@
         <v>82</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -18990,28 +18998,28 @@
         <v>82</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" t="s" s="2">
@@ -19030,16 +19038,16 @@
         <v>92</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="O139" s="2"/>
       <c r="P139" t="s" s="2">
@@ -19089,7 +19097,7 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -19107,24 +19115,24 @@
         <v>82</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19147,13 +19155,13 @@
         <v>92</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
@@ -19204,7 +19212,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19225,7 +19233,7 @@
         <v>82</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="AN140" t="s" s="2">
         <v>82</v>
@@ -19236,10 +19244,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19351,10 +19359,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19468,14 +19476,14 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" t="s" s="2">
@@ -19497,16 +19505,16 @@
         <v>112</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="N143" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O143" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>82</v>
@@ -19555,7 +19563,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -19587,14 +19595,14 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" t="s" s="2">
@@ -19613,16 +19621,16 @@
         <v>92</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="O144" s="2"/>
       <c r="P144" t="s" s="2">
@@ -19672,7 +19680,7 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>91</v>
@@ -19690,24 +19698,24 @@
         <v>82</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="AN144" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="AO144" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -19733,10 +19741,10 @@
         <v>226</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
@@ -19766,10 +19774,10 @@
         <v>172</v>
       </c>
       <c r="Y145" t="s" s="2">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="Z145" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AA145" t="s" s="2">
         <v>82</v>
@@ -19787,7 +19795,7 @@
         <v>82</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
@@ -19819,10 +19827,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -19845,13 +19853,13 @@
         <v>82</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
@@ -19902,7 +19910,7 @@
         <v>82</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
@@ -19923,7 +19931,7 @@
         <v>82</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="AN146" t="s" s="2">
         <v>82</v>
@@ -19934,10 +19942,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -19960,16 +19968,16 @@
         <v>82</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="O147" s="2"/>
       <c r="P147" t="s" s="2">
@@ -20019,7 +20027,7 @@
         <v>82</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>80</v>
@@ -20040,7 +20048,7 @@
         <v>82</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="AN147" t="s" s="2">
         <v>82</v>
@@ -20051,10 +20059,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20077,16 +20085,16 @@
         <v>82</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="O148" s="2"/>
       <c r="P148" t="s" s="2">
@@ -20136,7 +20144,7 @@
         <v>82</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>80</v>
@@ -20157,7 +20165,7 @@
         <v>82</v>
       </c>
       <c r="AM148" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="AN148" t="s" s="2">
         <v>82</v>
@@ -20168,10 +20176,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20283,10 +20291,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20400,14 +20408,14 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
@@ -20429,16 +20437,16 @@
         <v>112</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="N151" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O151" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>82</v>
@@ -20487,7 +20495,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>80</v>
@@ -20519,10 +20527,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20545,13 +20553,13 @@
         <v>82</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -20602,7 +20610,7 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -20623,21 +20631,21 @@
         <v>82</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO152" t="s" s="2">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -20749,10 +20757,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -20866,10 +20874,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -20895,16 +20903,16 @@
         <v>168</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="O155" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>82</v>
@@ -20932,10 +20940,10 @@
         <v>229</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Z155" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AA155" t="s" s="2">
         <v>82</v>
@@ -20953,7 +20961,7 @@
         <v>82</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>80</v>
@@ -20974,7 +20982,7 @@
         <v>82</v>
       </c>
       <c r="AM155" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AN155" t="s" s="2">
         <v>82</v>
@@ -20985,10 +20993,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21014,16 +21022,16 @@
         <v>226</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="O156" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>82</v>
@@ -21052,7 +21060,7 @@
       </c>
       <c r="Y156" s="2"/>
       <c r="Z156" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AA156" t="s" s="2">
         <v>82</v>
@@ -21070,7 +21078,7 @@
         <v>82</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>80</v>
@@ -21091,21 +21099,21 @@
         <v>82</v>
       </c>
       <c r="AM156" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AN156" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO156" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21131,29 +21139,29 @@
         <v>134</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="O157" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="P157" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q157" s="2"/>
       <c r="R157" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="S157" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T157" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="U157" t="s" s="2">
         <v>82</v>
@@ -21189,7 +21197,7 @@
         <v>82</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>80</v>
@@ -21210,21 +21218,21 @@
         <v>82</v>
       </c>
       <c r="AM157" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AN157" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO157" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -21250,13 +21258,13 @@
         <v>105</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="O158" s="2"/>
       <c r="P158" t="s" s="2">
@@ -21270,7 +21278,7 @@
         <v>82</v>
       </c>
       <c r="T158" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="U158" t="s" s="2">
         <v>82</v>
@@ -21306,7 +21314,7 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -21327,21 +21335,21 @@
         <v>82</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO158" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21364,13 +21372,13 @@
         <v>92</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
@@ -21421,7 +21429,7 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>80</v>
@@ -21442,21 +21450,21 @@
         <v>82</v>
       </c>
       <c r="AM159" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AN159" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO159" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -21479,16 +21487,16 @@
         <v>92</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="O160" s="2"/>
       <c r="P160" t="s" s="2">
@@ -21538,7 +21546,7 @@
         <v>82</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>80</v>
@@ -21559,21 +21567,21 @@
         <v>82</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO160" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -21596,13 +21604,13 @@
         <v>82</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
@@ -21653,7 +21661,7 @@
         <v>82</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
@@ -21674,7 +21682,7 @@
         <v>82</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>82</v>
@@ -21685,10 +21693,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -21714,10 +21722,10 @@
         <v>226</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
@@ -21747,10 +21755,10 @@
         <v>172</v>
       </c>
       <c r="Y162" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="Z162" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="AA162" t="s" s="2">
         <v>82</v>
@@ -21768,7 +21776,7 @@
         <v>82</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>80</v>
@@ -21789,21 +21797,21 @@
         <v>82</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="AN162" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO162" t="s" s="2">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -21829,10 +21837,10 @@
         <v>226</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" s="2"/>
@@ -21862,10 +21870,10 @@
         <v>158</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="Z163" t="s" s="2">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="AA163" t="s" s="2">
         <v>82</v>
@@ -21883,7 +21891,7 @@
         <v>82</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
@@ -21910,15 +21918,15 @@
         <v>82</v>
       </c>
       <c r="AO163" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -21944,16 +21952,16 @@
         <v>226</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="O164" t="s" s="2">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="P164" t="s" s="2">
         <v>82</v>
@@ -21981,10 +21989,10 @@
         <v>158</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="Z164" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="AA164" t="s" s="2">
         <v>82</v>
@@ -22002,7 +22010,7 @@
         <v>82</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>80</v>
@@ -22023,21 +22031,21 @@
         <v>82</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="AN164" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO164" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22063,10 +22071,10 @@
         <v>226</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="N165" s="2"/>
       <c r="O165" s="2"/>
@@ -22096,10 +22104,10 @@
         <v>172</v>
       </c>
       <c r="Y165" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="Z165" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="AA165" t="s" s="2">
         <v>82</v>
@@ -22117,7 +22125,7 @@
         <v>82</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>80</v>
@@ -22138,21 +22146,21 @@
         <v>82</v>
       </c>
       <c r="AM165" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="AN165" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO165" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -22178,10 +22186,10 @@
         <v>226</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="N166" s="2"/>
       <c r="O166" s="2"/>
@@ -22211,10 +22219,10 @@
         <v>172</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="Z166" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="AA166" t="s" s="2">
         <v>82</v>
@@ -22232,7 +22240,7 @@
         <v>82</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>80</v>
@@ -22253,21 +22261,21 @@
         <v>82</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO166" t="s" s="2">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -22290,13 +22298,13 @@
         <v>82</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -22347,7 +22355,7 @@
         <v>82</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>80</v>
@@ -22368,21 +22376,21 @@
         <v>82</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="AN167" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO167" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -22408,10 +22416,10 @@
         <v>226</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
@@ -22442,7 +22450,7 @@
       </c>
       <c r="Y168" s="2"/>
       <c r="Z168" t="s" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="AA168" t="s" s="2">
         <v>82</v>
@@ -22460,7 +22468,7 @@
         <v>82</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>80</v>
@@ -22481,21 +22489,21 @@
         <v>82</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO168" t="s" s="2">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -22518,16 +22526,16 @@
         <v>82</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="O169" s="2"/>
       <c r="P169" t="s" s="2">
@@ -22577,7 +22585,7 @@
         <v>82</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>80</v>
@@ -22592,13 +22600,13 @@
         <v>103</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="AL169" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="AN169" t="s" s="2">
         <v>82</v>
@@ -22609,10 +22617,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -22724,10 +22732,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -22841,14 +22849,14 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172" t="s" s="2">
@@ -22870,16 +22878,16 @@
         <v>112</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="N172" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O172" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="P172" t="s" s="2">
         <v>82</v>
@@ -22928,7 +22936,7 @@
         <v>82</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>80</v>
@@ -22960,10 +22968,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -22986,13 +22994,13 @@
         <v>82</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" s="2"/>
@@ -23043,7 +23051,7 @@
         <v>82</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>91</v>
@@ -23061,24 +23069,24 @@
         <v>82</v>
       </c>
       <c r="AL173" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="AM173" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="AN173" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="AO173" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23104,13 +23112,13 @@
         <v>168</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="O174" s="2"/>
       <c r="P174" t="s" s="2">
@@ -23139,10 +23147,10 @@
         <v>229</v>
       </c>
       <c r="Y174" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="Z174" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="AA174" t="s" s="2">
         <v>82</v>
@@ -23160,7 +23168,7 @@
         <v>82</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>80</v>
@@ -23181,7 +23189,7 @@
         <v>82</v>
       </c>
       <c r="AM174" t="s" s="2">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="AN174" t="s" s="2">
         <v>82</v>
@@ -23192,10 +23200,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -23221,13 +23229,13 @@
         <v>226</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="O175" s="2"/>
       <c r="P175" t="s" s="2">
@@ -23257,7 +23265,7 @@
       </c>
       <c r="Y175" s="2"/>
       <c r="Z175" t="s" s="2">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="AA175" t="s" s="2">
         <v>82</v>
@@ -23275,7 +23283,7 @@
         <v>82</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>80</v>
@@ -23307,10 +23315,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -23333,13 +23341,13 @@
         <v>82</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
@@ -23390,7 +23398,7 @@
         <v>82</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>80</v>
@@ -23411,7 +23419,7 @@
         <v>82</v>
       </c>
       <c r="AM176" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="AN176" t="s" s="2">
         <v>82</v>
@@ -23422,10 +23430,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -23448,13 +23456,13 @@
         <v>82</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
@@ -23505,7 +23513,7 @@
         <v>82</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>80</v>
@@ -23520,27 +23528,27 @@
         <v>103</v>
       </c>
       <c r="AK177" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AM177" t="s" s="2">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="AN177" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO177" t="s" s="2">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -23563,16 +23571,16 @@
         <v>82</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="O178" s="2"/>
       <c r="P178" t="s" s="2">
@@ -23622,7 +23630,7 @@
         <v>82</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>80</v>
@@ -23637,13 +23645,13 @@
         <v>103</v>
       </c>
       <c r="AK178" t="s" s="2">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="AN178" t="s" s="2">
         <v>82</v>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6582" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6582" uniqueCount="826">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:45:16+00:00</t>
+    <t>2025-09-23T13:40:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1142,7 +1142,7 @@
     <t>Encounter.status</t>
   </si>
   <si>
-    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +</t>
+    <t>Correspondance des statuts métier avec les codes FHIR : Planifié → planned, Validé → triaged, Réalisé → finished, Annulé → cancelled.</t>
   </si>
   <si>
     <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +.</t>
@@ -1252,6 +1252,9 @@
   </si>
   <si>
     <t>Encounter.statusHistory.status</t>
+  </si>
+  <si>
+    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +</t>
   </si>
   <si>
     <t>Encounter.statusHistory.period</t>
@@ -10516,7 +10519,7 @@
         <v>168</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>363</v>
@@ -10602,10 +10605,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10631,10 +10634,10 @@
         <v>347</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10685,7 +10688,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>91</v>
@@ -10717,10 +10720,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10746,10 +10749,10 @@
         <v>146</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10779,10 +10782,10 @@
         <v>150</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>82</v>
@@ -10800,7 +10803,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>91</v>
@@ -10821,21 +10824,21 @@
         <v>82</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10947,10 +10950,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11064,10 +11067,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11093,16 +11096,16 @@
         <v>134</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -11151,7 +11154,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -11172,21 +11175,21 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11212,13 +11215,13 @@
         <v>105</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11268,7 +11271,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11289,21 +11292,21 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11329,14 +11332,14 @@
         <v>168</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11385,7 +11388,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11406,21 +11409,21 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11446,14 +11449,14 @@
         <v>105</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11502,7 +11505,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11523,21 +11526,21 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11560,19 +11563,19 @@
         <v>92</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11621,7 +11624,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11642,21 +11645,21 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11682,10 +11685,10 @@
         <v>386</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11736,7 +11739,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11768,10 +11771,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11883,10 +11886,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12000,10 +12003,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12119,10 +12122,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12148,10 +12151,10 @@
         <v>146</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -12181,10 +12184,10 @@
         <v>150</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>82</v>
@@ -12202,7 +12205,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>91</v>
@@ -12234,10 +12237,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12263,10 +12266,10 @@
         <v>347</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -12317,7 +12320,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>91</v>
@@ -12349,10 +12352,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12378,13 +12381,13 @@
         <v>226</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -12414,13 +12417,13 @@
       </c>
       <c r="Y82" s="2"/>
       <c r="Z82" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AC82" s="2"/>
       <c r="AD82" t="s" s="2">
@@ -12430,7 +12433,7 @@
         <v>118</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12445,30 +12448,30 @@
         <v>103</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>82</v>
@@ -12493,13 +12496,13 @@
         <v>226</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12528,10 +12531,10 @@
         <v>158</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>82</v>
@@ -12549,7 +12552,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12567,24 +12570,24 @@
         <v>82</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12696,10 +12699,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12813,10 +12816,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12842,16 +12845,16 @@
         <v>146</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12900,7 +12903,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12921,21 +12924,21 @@
         <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13047,10 +13050,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13164,10 +13167,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13193,16 +13196,16 @@
         <v>134</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>82</v>
@@ -13212,7 +13215,7 @@
         <v>82</v>
       </c>
       <c r="S89" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="T89" t="s" s="2">
         <v>82</v>
@@ -13251,7 +13254,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -13272,21 +13275,21 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13312,13 +13315,13 @@
         <v>105</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -13368,7 +13371,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13389,21 +13392,21 @@
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13429,14 +13432,14 @@
         <v>168</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13465,7 +13468,7 @@
       </c>
       <c r="Y91" s="2"/>
       <c r="Z91" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>82</v>
@@ -13483,7 +13486,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13504,21 +13507,21 @@
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13544,14 +13547,14 @@
         <v>105</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13600,7 +13603,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13621,21 +13624,21 @@
         <v>82</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13658,19 +13661,19 @@
         <v>92</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>82</v>
@@ -13719,7 +13722,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13740,21 +13743,21 @@
         <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13780,16 +13783,16 @@
         <v>105</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
@@ -13838,7 +13841,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13859,24 +13862,24 @@
         <v>82</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>82</v>
@@ -13901,13 +13904,13 @@
         <v>226</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13936,10 +13939,10 @@
         <v>158</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>82</v>
@@ -13957,7 +13960,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13975,24 +13978,24 @@
         <v>82</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14104,10 +14107,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14221,10 +14224,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14250,16 +14253,16 @@
         <v>146</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14308,7 +14311,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14329,21 +14332,21 @@
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14455,10 +14458,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14572,10 +14575,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14601,16 +14604,16 @@
         <v>134</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>82</v>
@@ -14620,7 +14623,7 @@
         <v>82</v>
       </c>
       <c r="S101" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="T101" t="s" s="2">
         <v>82</v>
@@ -14659,7 +14662,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14680,21 +14683,21 @@
         <v>82</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14720,13 +14723,13 @@
         <v>105</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14776,7 +14779,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14797,21 +14800,21 @@
         <v>82</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14837,14 +14840,14 @@
         <v>168</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -14873,7 +14876,7 @@
       </c>
       <c r="Y103" s="2"/>
       <c r="Z103" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>82</v>
@@ -14891,7 +14894,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14912,21 +14915,21 @@
         <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14952,14 +14955,14 @@
         <v>105</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>82</v>
@@ -15008,7 +15011,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -15029,21 +15032,21 @@
         <v>82</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15066,19 +15069,19 @@
         <v>92</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>82</v>
@@ -15127,7 +15130,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15148,21 +15151,21 @@
         <v>82</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO105" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15188,16 +15191,16 @@
         <v>105</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -15246,7 +15249,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15267,24 +15270,24 @@
         <v>82</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO106" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D107" t="s" s="2">
         <v>82</v>
@@ -15309,13 +15312,13 @@
         <v>226</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -15344,10 +15347,10 @@
         <v>158</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>82</v>
@@ -15365,7 +15368,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15383,24 +15386,24 @@
         <v>82</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AO107" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15512,10 +15515,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15629,10 +15632,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15658,16 +15661,16 @@
         <v>146</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -15716,7 +15719,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15737,21 +15740,21 @@
         <v>82</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15863,10 +15866,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15980,10 +15983,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16009,16 +16012,16 @@
         <v>134</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
@@ -16028,7 +16031,7 @@
         <v>82</v>
       </c>
       <c r="S113" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="T113" t="s" s="2">
         <v>82</v>
@@ -16067,7 +16070,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16088,21 +16091,21 @@
         <v>82</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16128,13 +16131,13 @@
         <v>105</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -16184,7 +16187,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16205,21 +16208,21 @@
         <v>82</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16245,14 +16248,14 @@
         <v>168</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
@@ -16262,7 +16265,7 @@
         <v>82</v>
       </c>
       <c r="S115" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="T115" t="s" s="2">
         <v>82</v>
@@ -16301,7 +16304,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16322,21 +16325,21 @@
         <v>82</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16362,14 +16365,14 @@
         <v>105</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
@@ -16379,7 +16382,7 @@
         <v>82</v>
       </c>
       <c r="S116" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="T116" t="s" s="2">
         <v>82</v>
@@ -16418,7 +16421,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16439,21 +16442,21 @@
         <v>82</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO116" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16476,19 +16479,19 @@
         <v>92</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16537,7 +16540,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16558,21 +16561,21 @@
         <v>82</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO117" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16598,16 +16601,16 @@
         <v>105</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>82</v>
@@ -16656,7 +16659,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16677,21 +16680,21 @@
         <v>82</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO118" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16717,10 +16720,10 @@
         <v>226</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -16750,10 +16753,10 @@
         <v>158</v>
       </c>
       <c r="Y119" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="Z119" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AA119" t="s" s="2">
         <v>82</v>
@@ -16771,7 +16774,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -16789,7 +16792,7 @@
         <v>82</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>109</v>
@@ -16798,15 +16801,15 @@
         <v>82</v>
       </c>
       <c r="AO119" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16832,10 +16835,10 @@
         <v>226</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -16865,10 +16868,10 @@
         <v>158</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>82</v>
@@ -16886,7 +16889,7 @@
         <v>82</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -16907,25 +16910,25 @@
         <v>82</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AO120" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
@@ -16944,16 +16947,16 @@
         <v>92</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
@@ -17003,7 +17006,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -17018,27 +17021,27 @@
         <v>103</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AO121" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17061,13 +17064,13 @@
         <v>92</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -17118,7 +17121,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -17136,28 +17139,28 @@
         <v>82</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AO122" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
@@ -17176,13 +17179,13 @@
         <v>82</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -17233,7 +17236,7 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -17251,10 +17254,10 @@
         <v>82</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>82</v>
@@ -17265,10 +17268,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17294,10 +17297,10 @@
         <v>386</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -17348,7 +17351,7 @@
         <v>82</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
@@ -17366,24 +17369,24 @@
         <v>82</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO124" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17495,10 +17498,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17612,10 +17615,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17731,10 +17734,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17760,13 +17763,13 @@
         <v>226</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
@@ -17795,10 +17798,10 @@
         <v>150</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Z128" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AA128" t="s" s="2">
         <v>82</v>
@@ -17816,7 +17819,7 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -17831,27 +17834,27 @@
         <v>103</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO128" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17877,10 +17880,10 @@
         <v>347</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -17931,7 +17934,7 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -17952,21 +17955,21 @@
         <v>82</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO129" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17989,13 +17992,13 @@
         <v>92</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -18046,7 +18049,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18061,27 +18064,27 @@
         <v>103</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AO130" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18104,13 +18107,13 @@
         <v>92</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -18161,7 +18164,7 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
@@ -18179,24 +18182,24 @@
         <v>82</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO131" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18222,13 +18225,13 @@
         <v>347</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="O132" s="2"/>
       <c r="P132" t="s" s="2">
@@ -18278,7 +18281,7 @@
         <v>82</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -18296,24 +18299,24 @@
         <v>82</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AO132" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18425,10 +18428,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18542,10 +18545,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18568,16 +18571,16 @@
         <v>92</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" t="s" s="2">
@@ -18627,7 +18630,7 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -18636,33 +18639,33 @@
         <v>91</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO135" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18685,23 +18688,23 @@
         <v>92</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="O136" s="2"/>
       <c r="P136" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q136" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="R136" t="s" s="2">
         <v>82</v>
@@ -18746,7 +18749,7 @@
         <v>82</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
@@ -18755,33 +18758,33 @@
         <v>91</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AL136" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AN136" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO136" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18804,16 +18807,16 @@
         <v>82</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="O137" s="2"/>
       <c r="P137" t="s" s="2">
@@ -18863,7 +18866,7 @@
         <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -18881,28 +18884,28 @@
         <v>82</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO137" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" t="s" s="2">
@@ -18924,13 +18927,13 @@
         <v>226</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="O138" s="2"/>
       <c r="P138" t="s" s="2">
@@ -18959,10 +18962,10 @@
         <v>172</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>82</v>
@@ -18980,7 +18983,7 @@
         <v>82</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -18998,28 +19001,28 @@
         <v>82</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" t="s" s="2">
@@ -19038,16 +19041,16 @@
         <v>92</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="O139" s="2"/>
       <c r="P139" t="s" s="2">
@@ -19097,7 +19100,7 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -19115,24 +19118,24 @@
         <v>82</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19158,10 +19161,10 @@
         <v>386</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
@@ -19212,7 +19215,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19233,7 +19236,7 @@
         <v>82</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AN140" t="s" s="2">
         <v>82</v>
@@ -19244,10 +19247,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19359,10 +19362,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19476,10 +19479,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -19595,14 +19598,14 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" t="s" s="2">
@@ -19621,16 +19624,16 @@
         <v>92</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="O144" s="2"/>
       <c r="P144" t="s" s="2">
@@ -19680,7 +19683,7 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>91</v>
@@ -19698,24 +19701,24 @@
         <v>82</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AN144" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AO144" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -19741,10 +19744,10 @@
         <v>226</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
@@ -19774,10 +19777,10 @@
         <v>172</v>
       </c>
       <c r="Y145" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="Z145" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AA145" t="s" s="2">
         <v>82</v>
@@ -19795,7 +19798,7 @@
         <v>82</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
@@ -19827,10 +19830,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -19853,13 +19856,13 @@
         <v>82</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
@@ -19910,7 +19913,7 @@
         <v>82</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
@@ -19931,7 +19934,7 @@
         <v>82</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AN146" t="s" s="2">
         <v>82</v>
@@ -19942,10 +19945,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -19968,16 +19971,16 @@
         <v>82</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="O147" s="2"/>
       <c r="P147" t="s" s="2">
@@ -20027,7 +20030,7 @@
         <v>82</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>80</v>
@@ -20048,7 +20051,7 @@
         <v>82</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AN147" t="s" s="2">
         <v>82</v>
@@ -20059,10 +20062,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20088,13 +20091,13 @@
         <v>386</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="O148" s="2"/>
       <c r="P148" t="s" s="2">
@@ -20144,7 +20147,7 @@
         <v>82</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>80</v>
@@ -20165,7 +20168,7 @@
         <v>82</v>
       </c>
       <c r="AM148" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="AN148" t="s" s="2">
         <v>82</v>
@@ -20176,10 +20179,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20291,10 +20294,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20408,10 +20411,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -20527,10 +20530,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20556,10 +20559,10 @@
         <v>302</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -20610,7 +20613,7 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -20637,15 +20640,15 @@
         <v>82</v>
       </c>
       <c r="AO152" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -20757,10 +20760,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -20874,10 +20877,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -20993,10 +20996,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21025,7 +21028,7 @@
         <v>322</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="N156" t="s" s="2">
         <v>324</v>
@@ -21110,10 +21113,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21142,7 +21145,7 @@
         <v>330</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="N157" t="s" s="2">
         <v>332</v>
@@ -21155,7 +21158,7 @@
       </c>
       <c r="Q157" s="2"/>
       <c r="R157" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="S157" t="s" s="2">
         <v>82</v>
@@ -21229,10 +21232,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -21346,10 +21349,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21461,10 +21464,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -21578,10 +21581,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -21604,13 +21607,13 @@
         <v>82</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
@@ -21661,7 +21664,7 @@
         <v>82</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
@@ -21682,7 +21685,7 @@
         <v>82</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>82</v>
@@ -21693,10 +21696,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -21722,10 +21725,10 @@
         <v>226</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
@@ -21755,10 +21758,10 @@
         <v>172</v>
       </c>
       <c r="Y162" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="Z162" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AA162" t="s" s="2">
         <v>82</v>
@@ -21776,7 +21779,7 @@
         <v>82</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>80</v>
@@ -21797,21 +21800,21 @@
         <v>82</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AN162" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO162" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -21837,10 +21840,10 @@
         <v>226</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" s="2"/>
@@ -21870,10 +21873,10 @@
         <v>158</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="Z163" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="AA163" t="s" s="2">
         <v>82</v>
@@ -21891,7 +21894,7 @@
         <v>82</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
@@ -21918,15 +21921,15 @@
         <v>82</v>
       </c>
       <c r="AO163" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -21952,16 +21955,16 @@
         <v>226</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="O164" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="P164" t="s" s="2">
         <v>82</v>
@@ -21989,10 +21992,10 @@
         <v>158</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="Z164" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="AA164" t="s" s="2">
         <v>82</v>
@@ -22010,7 +22013,7 @@
         <v>82</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>80</v>
@@ -22031,21 +22034,21 @@
         <v>82</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="AN164" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO164" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22071,10 +22074,10 @@
         <v>226</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="N165" s="2"/>
       <c r="O165" s="2"/>
@@ -22104,10 +22107,10 @@
         <v>172</v>
       </c>
       <c r="Y165" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="Z165" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="AA165" t="s" s="2">
         <v>82</v>
@@ -22125,7 +22128,7 @@
         <v>82</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>80</v>
@@ -22146,21 +22149,21 @@
         <v>82</v>
       </c>
       <c r="AM165" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="AN165" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO165" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -22186,10 +22189,10 @@
         <v>226</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="N166" s="2"/>
       <c r="O166" s="2"/>
@@ -22219,10 +22222,10 @@
         <v>172</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="Z166" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="AA166" t="s" s="2">
         <v>82</v>
@@ -22240,7 +22243,7 @@
         <v>82</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>80</v>
@@ -22261,21 +22264,21 @@
         <v>82</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO166" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -22298,13 +22301,13 @@
         <v>82</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -22355,7 +22358,7 @@
         <v>82</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>80</v>
@@ -22376,21 +22379,21 @@
         <v>82</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AN167" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO167" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -22416,10 +22419,10 @@
         <v>226</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
@@ -22450,7 +22453,7 @@
       </c>
       <c r="Y168" s="2"/>
       <c r="Z168" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="AA168" t="s" s="2">
         <v>82</v>
@@ -22468,7 +22471,7 @@
         <v>82</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>80</v>
@@ -22489,21 +22492,21 @@
         <v>82</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO168" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -22529,13 +22532,13 @@
         <v>386</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="O169" s="2"/>
       <c r="P169" t="s" s="2">
@@ -22585,7 +22588,7 @@
         <v>82</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>80</v>
@@ -22600,13 +22603,13 @@
         <v>103</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="AL169" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AN169" t="s" s="2">
         <v>82</v>
@@ -22617,10 +22620,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -22732,10 +22735,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -22849,10 +22852,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -22968,10 +22971,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -22994,13 +22997,13 @@
         <v>82</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" s="2"/>
@@ -23051,7 +23054,7 @@
         <v>82</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>91</v>
@@ -23069,24 +23072,24 @@
         <v>82</v>
       </c>
       <c r="AL173" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="AM173" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AN173" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="AO173" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23112,13 +23115,13 @@
         <v>168</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="O174" s="2"/>
       <c r="P174" t="s" s="2">
@@ -23147,10 +23150,10 @@
         <v>229</v>
       </c>
       <c r="Y174" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="Z174" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="AA174" t="s" s="2">
         <v>82</v>
@@ -23168,7 +23171,7 @@
         <v>82</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>80</v>
@@ -23189,7 +23192,7 @@
         <v>82</v>
       </c>
       <c r="AM174" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="AN174" t="s" s="2">
         <v>82</v>
@@ -23200,10 +23203,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -23229,13 +23232,13 @@
         <v>226</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="O175" s="2"/>
       <c r="P175" t="s" s="2">
@@ -23265,7 +23268,7 @@
       </c>
       <c r="Y175" s="2"/>
       <c r="Z175" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="AA175" t="s" s="2">
         <v>82</v>
@@ -23283,7 +23286,7 @@
         <v>82</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>80</v>
@@ -23315,10 +23318,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -23344,10 +23347,10 @@
         <v>347</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
@@ -23398,7 +23401,7 @@
         <v>82</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>80</v>
@@ -23419,7 +23422,7 @@
         <v>82</v>
       </c>
       <c r="AM176" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AN176" t="s" s="2">
         <v>82</v>
@@ -23430,10 +23433,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -23456,13 +23459,13 @@
         <v>82</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
@@ -23513,7 +23516,7 @@
         <v>82</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>80</v>
@@ -23528,27 +23531,27 @@
         <v>103</v>
       </c>
       <c r="AK177" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AM177" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="AN177" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO177" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -23571,16 +23574,16 @@
         <v>82</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="O178" s="2"/>
       <c r="P178" t="s" s="2">
@@ -23630,7 +23633,7 @@
         <v>82</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>80</v>
@@ -23645,13 +23648,13 @@
         <v>103</v>
       </c>
       <c r="AK178" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="AN178" t="s" s="2">
         <v>82</v>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T13:40:00+00:00</t>
+    <t>2025-09-24T08:59:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -743,7 +743,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}MatDetailOnlyIfTypeOrg206:TDDUIMaterialDetail ne doit être utilisé que si TDDUIRessourceType vaut ORG-206 ou n'est pas renseigné. {extension('TDDUIRessourceType').empty() or extension('TDDUIRessourceType').value.coding.code = 'ORG-206'}</t>
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}MatDetailOnlyIfTypeOrg206:TDDUIMaterialDetail ne doit être utilisé que si TDDUIRessourceType vaut ORG-206 ou n'est pas renseigné. {(extension('TDDUIMaterialDetail').exists() = (extension('TDDUIRessourceType').empty() or extension('TDDUIRessourceType').value.coding.code = 'ORG-206'))}</t>
   </si>
   <si>
     <t>detailTypeRessourceUtilisee</t>
@@ -771,7 +771,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}FacilityOnlyIfTypeOrg207:TDDUIFacilityResource ne doit être utilisé que si TDDUIRessourceType vaut ORG-207 ou n'est pas renseigné. {extension('TDDUIRessourceType').empty() or extension('TDDUIRessourceType').value.coding.code = 'ORG-207'}</t>
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}FacilityOnlyIfTypeOrg207:TDDUIFacilityResource ne doit être utilisé que si TDDUIRessourceType vaut ORG-207 ou n'est pas renseigné. {(extension('TDDUIFacilityResource').exists() = (extension('TDDUIRessourceType').empty() or extension('TDDUIRessourceType').value.coding.code = 'ORG-207'))}</t>
   </si>
   <si>
     <t>Encounter.extension:TDDUIRessourcesUsed.extension:TDDUIFacilityResource.id</t>
@@ -1184,10 +1184,10 @@
     <t>Encounter.status.extension</t>
   </si>
   <si>
-    <t>Encounter.status.extension:tddui-event-cancel-reason</t>
-  </si>
-  <si>
-    <t>tddui-event-cancel-reason</t>
+    <t>Encounter.status.extension:TDDUIEventCancelReason</t>
+  </si>
+  <si>
+    <t>TDDUIEventCancelReason</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-event-cancel-reason}

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T08:59:11+00:00</t>
+    <t>2025-09-24T09:13:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6582" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6582" uniqueCount="824">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T09:13:07+00:00</t>
+    <t>2025-09-25T09:59:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -276,7 +276,11 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}MatDetailOnlyIfTypeOrg206:TDDUIMaterialDetail ne doit être utilisé que si TDDUIRessourceType est présente et vaut ORG-206 ou n'est pas renseigné. {(Encounter.extension.where(url='https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-ressources-used').extension.where(url='TDDUIMaterialDetail').exists())
+    implies(Encounter.extension.where(url='https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-ressources-used').extension.where(url='TDDUIRessourceType').exists()
+    and(Encounter.extension.where(url='https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-ressources-used').extension.where(url='TDDUIRessourceType').value.coding.code='ORG-206'))}FacilityOnlyIfTypeOrg207:TDDUIFacilityResource ne doit être utilisé que si TDDUIRessourceType est présente et vaut ORG-207 ou n'est pas renseigné. {(Encounter.extension.where(url='https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-ressources-used').extension.where(url='TDDUIFacilityResource').exists())
+    implies(Encounter.extension.where(url='https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-ressources-used').extension.where(url='TDDUIRessourceType').exists()
+    and(Encounter.extension.where(url='https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-ressources-used').extension.where(url='TDDUIRessourceType').value.coding.code='ORG-207'))}</t>
   </si>
   <si>
     <t>Événement</t>
@@ -742,10 +746,6 @@
     <t>TDDUIMaterialDetail</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}MatDetailOnlyIfTypeOrg206:TDDUIMaterialDetail ne doit être utilisé que si TDDUIRessourceType vaut ORG-206 ou n'est pas renseigné. {(extension('TDDUIMaterialDetail').exists() = (extension('TDDUIRessourceType').empty() or extension('TDDUIRessourceType').value.coding.code = 'ORG-206'))}</t>
-  </si>
-  <si>
     <t>detailTypeRessourceUtilisee</t>
   </si>
   <si>
@@ -768,10 +768,6 @@
   </si>
   <si>
     <t>TDDUIFacilityResource</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}FacilityOnlyIfTypeOrg207:TDDUIFacilityResource ne doit être utilisé que si TDDUIRessourceType vaut ORG-207 ou n'est pas renseigné. {(extension('TDDUIFacilityResource').exists() = (extension('TDDUIRessourceType').empty() or extension('TDDUIRessourceType').value.coding.code = 'ORG-207'))}</t>
   </si>
   <si>
     <t>Encounter.extension:TDDUIRessourcesUsed.extension:TDDUIFacilityResource.id</t>
@@ -6050,10 +6046,10 @@
         <v>82</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>82</v>
@@ -6070,7 +6066,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>215</v>
@@ -6185,7 +6181,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>217</v>
@@ -6300,7 +6296,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>219</v>
@@ -6417,7 +6413,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>225</v>
@@ -6480,7 +6476,7 @@
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>82</v>
@@ -6530,13 +6526,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>210</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>82</v>
@@ -6627,10 +6623,10 @@
         <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>243</v>
+        <v>120</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>82</v>
@@ -6647,7 +6643,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>215</v>
@@ -6762,7 +6758,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>217</v>
@@ -6877,7 +6873,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>219</v>
@@ -6920,7 +6916,7 @@
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>82</v>
@@ -6994,7 +6990,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>225</v>
@@ -7057,7 +7053,7 @@
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>82</v>
@@ -7107,10 +7103,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -7150,7 +7146,7 @@
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>82</v>
@@ -7224,10 +7220,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7250,7 +7246,7 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>227</v>
@@ -7339,13 +7335,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>82</v>
@@ -7367,13 +7363,13 @@
         <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -7439,7 +7435,7 @@
         <v>120</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>82</v>
@@ -7456,13 +7452,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>82</v>
@@ -7484,13 +7480,13 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -7556,7 +7552,7 @@
         <v>120</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>82</v>
@@ -7573,13 +7569,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>82</v>
@@ -7601,13 +7597,13 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7673,7 +7669,7 @@
         <v>120</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>82</v>
@@ -7690,13 +7686,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>82</v>
@@ -7718,13 +7714,13 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7790,7 +7786,7 @@
         <v>120</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>82</v>
@@ -7807,13 +7803,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>82</v>
@@ -7835,13 +7831,13 @@
         <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7907,7 +7903,7 @@
         <v>120</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>82</v>
@@ -7924,13 +7920,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>82</v>
@@ -7952,13 +7948,13 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -8024,7 +8020,7 @@
         <v>120</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>82</v>
@@ -8041,13 +8037,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>82</v>
@@ -8069,13 +8065,13 @@
         <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -8141,7 +8137,7 @@
         <v>120</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>82</v>
@@ -8158,13 +8154,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>82</v>
@@ -8186,13 +8182,13 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -8258,7 +8254,7 @@
         <v>120</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>82</v>
@@ -8275,10 +8271,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8304,16 +8300,16 @@
         <v>112</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -8362,7 +8358,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -8394,10 +8390,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8420,13 +8416,13 @@
         <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -8477,7 +8473,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8492,27 +8488,27 @@
         <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AO48" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>309</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8624,10 +8620,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8741,10 +8737,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8770,16 +8766,16 @@
         <v>168</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8807,28 +8803,28 @@
         <v>229</v>
       </c>
       <c r="Y51" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF51" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8849,7 +8845,7 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>82</v>
@@ -8860,10 +8856,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8889,16 +8885,16 @@
         <v>226</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8927,7 +8923,7 @@
       </c>
       <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8945,7 +8941,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8966,21 +8962,21 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -9006,16 +9002,16 @@
         <v>134</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N53" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -9028,7 +9024,7 @@
         <v>82</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>82</v>
@@ -9064,7 +9060,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -9085,21 +9081,21 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9125,13 +9121,13 @@
         <v>105</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -9145,7 +9141,7 @@
         <v>82</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>82</v>
@@ -9181,7 +9177,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -9202,21 +9198,21 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9239,13 +9235,13 @@
         <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -9296,7 +9292,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -9317,21 +9313,21 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9354,16 +9350,16 @@
         <v>92</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9413,7 +9409,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9434,21 +9430,21 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9474,13 +9470,13 @@
         <v>168</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9509,10 +9505,10 @@
         <v>229</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>82</v>
@@ -9530,7 +9526,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>91</v>
@@ -9545,27 +9541,27 @@
         <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AO57" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>371</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9591,10 +9587,10 @@
         <v>105</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9677,10 +9673,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9790,13 +9786,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B60" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="C60" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>82</v>
@@ -9818,13 +9814,13 @@
         <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9890,7 +9886,7 @@
         <v>120</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>82</v>
@@ -9907,10 +9903,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9936,10 +9932,10 @@
         <v>105</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9990,7 +9986,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -10022,10 +10018,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10048,16 +10044,16 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -10107,7 +10103,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -10139,10 +10135,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10254,10 +10250,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10371,14 +10367,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -10400,16 +10396,16 @@
         <v>112</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -10458,7 +10454,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10490,10 +10486,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10519,10 +10515,10 @@
         <v>168</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10552,10 +10548,10 @@
         <v>229</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>82</v>
@@ -10573,7 +10569,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>91</v>
@@ -10605,10 +10601,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10631,13 +10627,13 @@
         <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10688,7 +10684,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>91</v>
@@ -10720,10 +10716,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10749,10 +10745,10 @@
         <v>146</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10782,10 +10778,10 @@
         <v>150</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>82</v>
@@ -10803,7 +10799,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>91</v>
@@ -10824,21 +10820,21 @@
         <v>82</v>
       </c>
       <c r="AM68" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AO68" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>409</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10950,10 +10946,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11067,10 +11063,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11096,16 +11092,16 @@
         <v>134</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N71" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="O71" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -11154,7 +11150,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -11175,21 +11171,21 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11215,13 +11211,13 @@
         <v>105</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="N72" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11271,7 +11267,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11292,21 +11288,21 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11332,14 +11328,14 @@
         <v>168</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11388,7 +11384,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11409,21 +11405,21 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11449,14 +11445,14 @@
         <v>105</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11505,7 +11501,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11526,21 +11522,21 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11563,19 +11559,19 @@
         <v>92</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="O75" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11624,7 +11620,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11645,21 +11641,21 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11682,13 +11678,13 @@
         <v>82</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11739,7 +11735,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11771,10 +11767,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11886,10 +11882,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12003,14 +11999,14 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -12032,16 +12028,16 @@
         <v>112</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="N79" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -12090,7 +12086,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -12122,10 +12118,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12151,10 +12147,10 @@
         <v>146</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -12184,10 +12180,10 @@
         <v>150</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>82</v>
@@ -12205,7 +12201,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>91</v>
@@ -12237,10 +12233,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12263,13 +12259,13 @@
         <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -12320,7 +12316,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>91</v>
@@ -12352,10 +12348,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12381,13 +12377,13 @@
         <v>226</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="N82" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -12417,13 +12413,13 @@
       </c>
       <c r="Y82" s="2"/>
       <c r="Z82" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AC82" s="2"/>
       <c r="AD82" t="s" s="2">
@@ -12433,7 +12429,7 @@
         <v>118</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12448,30 +12444,30 @@
         <v>103</v>
       </c>
       <c r="AK82" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AM82" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="AL82" t="s" s="2">
+      <c r="AN82" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AO82" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>471</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>82</v>
@@ -12496,13 +12492,13 @@
         <v>226</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12531,10 +12527,10 @@
         <v>158</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>82</v>
@@ -12552,7 +12548,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12570,24 +12566,24 @@
         <v>82</v>
       </c>
       <c r="AL83" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AO83" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>471</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12699,10 +12695,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12816,10 +12812,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12845,16 +12841,16 @@
         <v>146</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="N86" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="O86" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12903,7 +12899,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12924,21 +12920,21 @@
         <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13050,10 +13046,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13167,10 +13163,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13196,16 +13192,16 @@
         <v>134</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N89" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="O89" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>82</v>
@@ -13215,7 +13211,7 @@
         <v>82</v>
       </c>
       <c r="S89" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="T89" t="s" s="2">
         <v>82</v>
@@ -13254,7 +13250,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -13275,21 +13271,21 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13315,13 +13311,13 @@
         <v>105</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="N90" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -13371,7 +13367,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13392,21 +13388,21 @@
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13432,14 +13428,14 @@
         <v>168</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13468,7 +13464,7 @@
       </c>
       <c r="Y91" s="2"/>
       <c r="Z91" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>82</v>
@@ -13486,7 +13482,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13507,21 +13503,21 @@
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13547,14 +13543,14 @@
         <v>105</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13603,7 +13599,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13624,21 +13620,21 @@
         <v>82</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13661,19 +13657,19 @@
         <v>92</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="O93" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>82</v>
@@ -13722,7 +13718,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13743,21 +13739,21 @@
         <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13783,16 +13779,16 @@
         <v>105</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="N94" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="O94" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
@@ -13841,7 +13837,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13862,24 +13858,24 @@
         <v>82</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>82</v>
@@ -13904,13 +13900,13 @@
         <v>226</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13939,10 +13935,10 @@
         <v>158</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>82</v>
@@ -13960,7 +13956,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13978,24 +13974,24 @@
         <v>82</v>
       </c>
       <c r="AL95" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AO95" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AO95" t="s" s="2">
-        <v>471</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14107,10 +14103,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14224,10 +14220,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14253,16 +14249,16 @@
         <v>146</v>
       </c>
       <c r="L98" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="N98" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="O98" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14311,7 +14307,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14332,21 +14328,21 @@
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14458,10 +14454,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14575,10 +14571,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14604,16 +14600,16 @@
         <v>134</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N101" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M101" t="s" s="2">
+      <c r="O101" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>82</v>
@@ -14623,7 +14619,7 @@
         <v>82</v>
       </c>
       <c r="S101" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="T101" t="s" s="2">
         <v>82</v>
@@ -14662,7 +14658,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14683,21 +14679,21 @@
         <v>82</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14723,13 +14719,13 @@
         <v>105</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="N102" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14779,7 +14775,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14800,21 +14796,21 @@
         <v>82</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14840,14 +14836,14 @@
         <v>168</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -14876,7 +14872,7 @@
       </c>
       <c r="Y103" s="2"/>
       <c r="Z103" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>82</v>
@@ -14894,7 +14890,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14915,21 +14911,21 @@
         <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14955,14 +14951,14 @@
         <v>105</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>82</v>
@@ -15011,7 +15007,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -15032,21 +15028,21 @@
         <v>82</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15069,19 +15065,19 @@
         <v>92</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M105" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="L105" t="s" s="2">
+      <c r="N105" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="M105" t="s" s="2">
+      <c r="O105" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>82</v>
@@ -15130,7 +15126,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15151,21 +15147,21 @@
         <v>82</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO105" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15191,16 +15187,16 @@
         <v>105</v>
       </c>
       <c r="L106" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="N106" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="O106" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -15249,7 +15245,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15270,24 +15266,24 @@
         <v>82</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO106" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D107" t="s" s="2">
         <v>82</v>
@@ -15312,13 +15308,13 @@
         <v>226</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -15347,10 +15343,10 @@
         <v>158</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>82</v>
@@ -15368,7 +15364,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15386,24 +15382,24 @@
         <v>82</v>
       </c>
       <c r="AL107" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AO107" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AO107" t="s" s="2">
-        <v>471</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15515,10 +15511,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15632,10 +15628,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15661,16 +15657,16 @@
         <v>146</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="N110" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="M110" t="s" s="2">
+      <c r="O110" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -15719,7 +15715,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15740,21 +15736,21 @@
         <v>82</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15866,10 +15862,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15983,10 +15979,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16012,16 +16008,16 @@
         <v>134</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N113" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M113" t="s" s="2">
+      <c r="O113" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
@@ -16031,7 +16027,7 @@
         <v>82</v>
       </c>
       <c r="S113" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="T113" t="s" s="2">
         <v>82</v>
@@ -16070,7 +16066,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16091,21 +16087,21 @@
         <v>82</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16131,13 +16127,13 @@
         <v>105</v>
       </c>
       <c r="L114" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="N114" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -16187,7 +16183,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16208,21 +16204,21 @@
         <v>82</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16248,14 +16244,14 @@
         <v>168</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
@@ -16265,7 +16261,7 @@
         <v>82</v>
       </c>
       <c r="S115" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="T115" t="s" s="2">
         <v>82</v>
@@ -16304,7 +16300,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16325,21 +16321,21 @@
         <v>82</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16365,14 +16361,14 @@
         <v>105</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
@@ -16382,7 +16378,7 @@
         <v>82</v>
       </c>
       <c r="S116" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="T116" t="s" s="2">
         <v>82</v>
@@ -16421,7 +16417,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16442,21 +16438,21 @@
         <v>82</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO116" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16479,19 +16475,19 @@
         <v>92</v>
       </c>
       <c r="K117" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M117" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="L117" t="s" s="2">
+      <c r="N117" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="M117" t="s" s="2">
+      <c r="O117" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="O117" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16540,7 +16536,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16561,21 +16557,21 @@
         <v>82</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO117" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16601,16 +16597,16 @@
         <v>105</v>
       </c>
       <c r="L118" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="N118" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="M118" t="s" s="2">
+      <c r="O118" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="O118" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>82</v>
@@ -16659,7 +16655,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16680,21 +16676,21 @@
         <v>82</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO118" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16720,10 +16716,10 @@
         <v>226</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -16753,10 +16749,10 @@
         <v>158</v>
       </c>
       <c r="Y119" t="s" s="2">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="Z119" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AA119" t="s" s="2">
         <v>82</v>
@@ -16774,7 +16770,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -16792,7 +16788,7 @@
         <v>82</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>109</v>
@@ -16801,15 +16797,15 @@
         <v>82</v>
       </c>
       <c r="AO119" t="s" s="2">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16835,10 +16831,10 @@
         <v>226</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -16868,10 +16864,10 @@
         <v>158</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>82</v>
@@ -16889,7 +16885,7 @@
         <v>82</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -16910,25 +16906,25 @@
         <v>82</v>
       </c>
       <c r="AM120" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AN120" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AO120" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="AN120" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="AO120" t="s" s="2">
-        <v>560</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
@@ -16947,16 +16943,16 @@
         <v>92</v>
       </c>
       <c r="K121" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="M121" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="L121" t="s" s="2">
+      <c r="N121" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
@@ -17006,7 +17002,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -17021,27 +17017,27 @@
         <v>103</v>
       </c>
       <c r="AK121" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AL121" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AM121" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="AL121" t="s" s="2">
+      <c r="AN121" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="AM121" t="s" s="2">
+      <c r="AO121" t="s" s="2">
         <v>569</v>
-      </c>
-      <c r="AN121" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="AO121" t="s" s="2">
-        <v>571</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17064,13 +17060,13 @@
         <v>92</v>
       </c>
       <c r="K122" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="M122" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>575</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -17121,7 +17117,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -17139,28 +17135,28 @@
         <v>82</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AO122" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
@@ -17179,13 +17175,13 @@
         <v>82</v>
       </c>
       <c r="K123" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="L123" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="M123" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>583</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -17236,7 +17232,7 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -17254,10 +17250,10 @@
         <v>82</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>82</v>
@@ -17268,10 +17264,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17294,13 +17290,13 @@
         <v>92</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -17351,7 +17347,7 @@
         <v>82</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
@@ -17369,24 +17365,24 @@
         <v>82</v>
       </c>
       <c r="AL124" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AM124" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AN124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO124" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="AM124" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="AN124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO124" t="s" s="2">
-        <v>591</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17498,10 +17494,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17615,14 +17611,14 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
@@ -17644,16 +17640,16 @@
         <v>112</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="N127" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>82</v>
@@ -17702,7 +17698,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -17734,10 +17730,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17763,13 +17759,13 @@
         <v>226</v>
       </c>
       <c r="L128" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="M128" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="N128" t="s" s="2">
         <v>596</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>598</v>
       </c>
       <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
@@ -17798,11 +17794,11 @@
         <v>150</v>
       </c>
       <c r="Y128" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="Z128" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="Z128" t="s" s="2">
-        <v>599</v>
-      </c>
       <c r="AA128" t="s" s="2">
         <v>82</v>
       </c>
@@ -17819,7 +17815,7 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -17834,27 +17830,27 @@
         <v>103</v>
       </c>
       <c r="AK128" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AL128" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AM128" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="AL128" t="s" s="2">
+      <c r="AN128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO128" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="AM128" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="AN128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO128" t="s" s="2">
-        <v>603</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17877,13 +17873,13 @@
         <v>82</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -17934,7 +17930,7 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -17955,21 +17951,21 @@
         <v>82</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO129" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17992,13 +17988,13 @@
         <v>92</v>
       </c>
       <c r="K130" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="L130" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="M130" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="L130" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>612</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -18049,7 +18045,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18064,27 +18060,27 @@
         <v>103</v>
       </c>
       <c r="AK130" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AL130" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AM130" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="AL130" t="s" s="2">
+      <c r="AN130" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="AM130" t="s" s="2">
+      <c r="AO130" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="AN130" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="AO130" t="s" s="2">
-        <v>617</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18107,13 +18103,13 @@
         <v>92</v>
       </c>
       <c r="K131" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="L131" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="M131" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="L131" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -18164,7 +18160,7 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
@@ -18182,24 +18178,24 @@
         <v>82</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO131" t="s" s="2">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18222,16 +18218,16 @@
         <v>82</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L132" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="N132" t="s" s="2">
         <v>625</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>627</v>
       </c>
       <c r="O132" s="2"/>
       <c r="P132" t="s" s="2">
@@ -18281,7 +18277,7 @@
         <v>82</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -18299,24 +18295,24 @@
         <v>82</v>
       </c>
       <c r="AL132" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="AM132" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="AN132" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="AM132" t="s" s="2">
+      <c r="AO132" t="s" s="2">
         <v>629</v>
-      </c>
-      <c r="AN132" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="AO132" t="s" s="2">
-        <v>631</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18428,10 +18424,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18545,10 +18541,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18571,16 +18567,16 @@
         <v>92</v>
       </c>
       <c r="K135" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="L135" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="M135" t="s" s="2">
         <v>635</v>
       </c>
-      <c r="L135" t="s" s="2">
+      <c r="N135" t="s" s="2">
         <v>636</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>638</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" t="s" s="2">
@@ -18630,7 +18626,7 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -18639,33 +18635,33 @@
         <v>91</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK135" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AL135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM135" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="AN135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO135" t="s" s="2">
         <v>641</v>
-      </c>
-      <c r="AL135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM135" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="AN135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO135" t="s" s="2">
-        <v>643</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18688,23 +18684,23 @@
         <v>92</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="L136" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="M136" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="N136" t="s" s="2">
         <v>645</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>647</v>
       </c>
       <c r="O136" s="2"/>
       <c r="P136" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q136" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="R136" t="s" s="2">
         <v>82</v>
@@ -18749,7 +18745,7 @@
         <v>82</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
@@ -18758,33 +18754,33 @@
         <v>91</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK136" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="AL136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM136" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="AN136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO136" t="s" s="2">
         <v>650</v>
-      </c>
-      <c r="AL136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM136" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="AN136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO136" t="s" s="2">
-        <v>652</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18807,16 +18803,16 @@
         <v>82</v>
       </c>
       <c r="K137" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="L137" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="M137" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="L137" t="s" s="2">
+      <c r="N137" t="s" s="2">
         <v>655</v>
-      </c>
-      <c r="M137" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="N137" t="s" s="2">
-        <v>657</v>
       </c>
       <c r="O137" s="2"/>
       <c r="P137" t="s" s="2">
@@ -18866,7 +18862,7 @@
         <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -18884,28 +18880,28 @@
         <v>82</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO137" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" t="s" s="2">
@@ -18927,13 +18923,13 @@
         <v>226</v>
       </c>
       <c r="L138" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="M138" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="N138" t="s" s="2">
         <v>662</v>
-      </c>
-      <c r="M138" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>664</v>
       </c>
       <c r="O138" s="2"/>
       <c r="P138" t="s" s="2">
@@ -18962,10 +18958,10 @@
         <v>172</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>82</v>
@@ -18983,7 +18979,7 @@
         <v>82</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -19001,28 +18997,28 @@
         <v>82</v>
       </c>
       <c r="AL138" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="AM138" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="AN138" t="s" s="2">
         <v>667</v>
       </c>
-      <c r="AM138" t="s" s="2">
+      <c r="AO138" t="s" s="2">
         <v>668</v>
-      </c>
-      <c r="AN138" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="AO138" t="s" s="2">
-        <v>670</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" t="s" s="2">
@@ -19041,16 +19037,16 @@
         <v>92</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="O139" s="2"/>
       <c r="P139" t="s" s="2">
@@ -19100,7 +19096,7 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -19118,24 +19114,24 @@
         <v>82</v>
       </c>
       <c r="AL139" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="AM139" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="AN139" t="s" s="2">
         <v>667</v>
       </c>
-      <c r="AM139" t="s" s="2">
+      <c r="AO139" t="s" s="2">
         <v>668</v>
-      </c>
-      <c r="AN139" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="AO139" t="s" s="2">
-        <v>670</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19158,13 +19154,13 @@
         <v>92</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
@@ -19215,7 +19211,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19236,7 +19232,7 @@
         <v>82</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="AN140" t="s" s="2">
         <v>82</v>
@@ -19247,10 +19243,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19362,10 +19358,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19479,14 +19475,14 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" t="s" s="2">
@@ -19508,16 +19504,16 @@
         <v>112</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="N143" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O143" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>82</v>
@@ -19566,7 +19562,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -19598,14 +19594,14 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" t="s" s="2">
@@ -19624,16 +19620,16 @@
         <v>92</v>
       </c>
       <c r="K144" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="L144" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="M144" t="s" s="2">
         <v>683</v>
       </c>
-      <c r="L144" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="M144" t="s" s="2">
-        <v>685</v>
-      </c>
       <c r="N144" t="s" s="2">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="O144" s="2"/>
       <c r="P144" t="s" s="2">
@@ -19683,7 +19679,7 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>91</v>
@@ -19701,24 +19697,24 @@
         <v>82</v>
       </c>
       <c r="AL144" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="AM144" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="AN144" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="AO144" t="s" s="2">
         <v>686</v>
-      </c>
-      <c r="AM144" t="s" s="2">
-        <v>687</v>
-      </c>
-      <c r="AN144" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="AO144" t="s" s="2">
-        <v>688</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -19744,10 +19740,10 @@
         <v>226</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
@@ -19777,10 +19773,10 @@
         <v>172</v>
       </c>
       <c r="Y145" t="s" s="2">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="Z145" t="s" s="2">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AA145" t="s" s="2">
         <v>82</v>
@@ -19798,7 +19794,7 @@
         <v>82</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
@@ -19830,10 +19826,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -19856,13 +19852,13 @@
         <v>82</v>
       </c>
       <c r="K146" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="L146" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="M146" t="s" s="2">
         <v>695</v>
-      </c>
-      <c r="L146" t="s" s="2">
-        <v>696</v>
-      </c>
-      <c r="M146" t="s" s="2">
-        <v>697</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
@@ -19913,7 +19909,7 @@
         <v>82</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
@@ -19934,7 +19930,7 @@
         <v>82</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="AN146" t="s" s="2">
         <v>82</v>
@@ -19945,10 +19941,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -19971,16 +19967,16 @@
         <v>82</v>
       </c>
       <c r="K147" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="L147" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="M147" t="s" s="2">
         <v>700</v>
       </c>
-      <c r="L147" t="s" s="2">
+      <c r="N147" t="s" s="2">
         <v>701</v>
-      </c>
-      <c r="M147" t="s" s="2">
-        <v>702</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>703</v>
       </c>
       <c r="O147" s="2"/>
       <c r="P147" t="s" s="2">
@@ -20030,7 +20026,7 @@
         <v>82</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>80</v>
@@ -20051,7 +20047,7 @@
         <v>82</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="AN147" t="s" s="2">
         <v>82</v>
@@ -20062,10 +20058,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20088,16 +20084,16 @@
         <v>82</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="L148" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="M148" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="N148" t="s" s="2">
         <v>706</v>
-      </c>
-      <c r="M148" t="s" s="2">
-        <v>707</v>
-      </c>
-      <c r="N148" t="s" s="2">
-        <v>708</v>
       </c>
       <c r="O148" s="2"/>
       <c r="P148" t="s" s="2">
@@ -20147,7 +20143,7 @@
         <v>82</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>80</v>
@@ -20168,7 +20164,7 @@
         <v>82</v>
       </c>
       <c r="AM148" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="AN148" t="s" s="2">
         <v>82</v>
@@ -20179,10 +20175,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20294,10 +20290,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20411,14 +20407,14 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
@@ -20440,16 +20436,16 @@
         <v>112</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="N151" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O151" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>82</v>
@@ -20498,7 +20494,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>80</v>
@@ -20530,10 +20526,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20556,13 +20552,13 @@
         <v>82</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -20613,7 +20609,7 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -20634,21 +20630,21 @@
         <v>82</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO152" t="s" s="2">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -20760,10 +20756,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -20877,10 +20873,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -20906,16 +20902,16 @@
         <v>168</v>
       </c>
       <c r="L155" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M155" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="N155" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="M155" t="s" s="2">
+      <c r="O155" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="N155" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="O155" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>82</v>
@@ -20943,28 +20939,28 @@
         <v>229</v>
       </c>
       <c r="Y155" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="Z155" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AA155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF155" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="Z155" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AA155" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB155" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC155" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD155" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE155" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF155" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>80</v>
@@ -20985,7 +20981,7 @@
         <v>82</v>
       </c>
       <c r="AM155" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AN155" t="s" s="2">
         <v>82</v>
@@ -20996,10 +20992,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21025,16 +21021,16 @@
         <v>226</v>
       </c>
       <c r="L156" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M156" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="N156" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="M156" t="s" s="2">
-        <v>721</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>324</v>
-      </c>
       <c r="O156" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>82</v>
@@ -21063,7 +21059,7 @@
       </c>
       <c r="Y156" s="2"/>
       <c r="Z156" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AA156" t="s" s="2">
         <v>82</v>
@@ -21081,7 +21077,7 @@
         <v>82</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>80</v>
@@ -21102,21 +21098,21 @@
         <v>82</v>
       </c>
       <c r="AM156" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AN156" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO156" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21142,29 +21138,29 @@
         <v>134</v>
       </c>
       <c r="L157" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M157" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="N157" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="M157" t="s" s="2">
-        <v>723</v>
-      </c>
-      <c r="N157" t="s" s="2">
-        <v>332</v>
-      </c>
       <c r="O157" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="P157" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q157" s="2"/>
       <c r="R157" t="s" s="2">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="S157" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T157" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="U157" t="s" s="2">
         <v>82</v>
@@ -21200,7 +21196,7 @@
         <v>82</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>80</v>
@@ -21221,21 +21217,21 @@
         <v>82</v>
       </c>
       <c r="AM157" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AN157" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO157" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -21261,13 +21257,13 @@
         <v>105</v>
       </c>
       <c r="L158" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M158" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="N158" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="M158" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="O158" s="2"/>
       <c r="P158" t="s" s="2">
@@ -21281,7 +21277,7 @@
         <v>82</v>
       </c>
       <c r="T158" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="U158" t="s" s="2">
         <v>82</v>
@@ -21317,7 +21313,7 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -21338,21 +21334,21 @@
         <v>82</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO158" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21375,13 +21371,13 @@
         <v>92</v>
       </c>
       <c r="K159" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L159" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M159" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="L159" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M159" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
@@ -21432,7 +21428,7 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>80</v>
@@ -21453,21 +21449,21 @@
         <v>82</v>
       </c>
       <c r="AM159" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AN159" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO159" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -21490,16 +21486,16 @@
         <v>92</v>
       </c>
       <c r="K160" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L160" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M160" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L160" t="s" s="2">
+      <c r="N160" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="M160" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="O160" s="2"/>
       <c r="P160" t="s" s="2">
@@ -21549,7 +21545,7 @@
         <v>82</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>80</v>
@@ -21570,21 +21566,21 @@
         <v>82</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO160" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -21607,13 +21603,13 @@
         <v>82</v>
       </c>
       <c r="K161" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="L161" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="M161" t="s" s="2">
         <v>729</v>
-      </c>
-      <c r="L161" t="s" s="2">
-        <v>730</v>
-      </c>
-      <c r="M161" t="s" s="2">
-        <v>731</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
@@ -21664,7 +21660,7 @@
         <v>82</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
@@ -21685,7 +21681,7 @@
         <v>82</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>82</v>
@@ -21696,10 +21692,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -21725,10 +21721,10 @@
         <v>226</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
@@ -21758,10 +21754,10 @@
         <v>172</v>
       </c>
       <c r="Y162" t="s" s="2">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="Z162" t="s" s="2">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="AA162" t="s" s="2">
         <v>82</v>
@@ -21779,7 +21775,7 @@
         <v>82</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>80</v>
@@ -21800,21 +21796,21 @@
         <v>82</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="AN162" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO162" t="s" s="2">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -21840,10 +21836,10 @@
         <v>226</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" s="2"/>
@@ -21873,10 +21869,10 @@
         <v>158</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="Z163" t="s" s="2">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="AA163" t="s" s="2">
         <v>82</v>
@@ -21894,7 +21890,7 @@
         <v>82</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
@@ -21921,15 +21917,15 @@
         <v>82</v>
       </c>
       <c r="AO163" t="s" s="2">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -21955,16 +21951,16 @@
         <v>226</v>
       </c>
       <c r="L164" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="M164" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="N164" t="s" s="2">
         <v>747</v>
       </c>
-      <c r="M164" t="s" s="2">
+      <c r="O164" t="s" s="2">
         <v>748</v>
-      </c>
-      <c r="N164" t="s" s="2">
-        <v>749</v>
-      </c>
-      <c r="O164" t="s" s="2">
-        <v>750</v>
       </c>
       <c r="P164" t="s" s="2">
         <v>82</v>
@@ -21992,10 +21988,10 @@
         <v>158</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="Z164" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="AA164" t="s" s="2">
         <v>82</v>
@@ -22013,7 +22009,7 @@
         <v>82</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>80</v>
@@ -22034,21 +22030,21 @@
         <v>82</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="AN164" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO164" t="s" s="2">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22074,10 +22070,10 @@
         <v>226</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="N165" s="2"/>
       <c r="O165" s="2"/>
@@ -22107,10 +22103,10 @@
         <v>172</v>
       </c>
       <c r="Y165" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="Z165" t="s" s="2">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="AA165" t="s" s="2">
         <v>82</v>
@@ -22128,7 +22124,7 @@
         <v>82</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>80</v>
@@ -22149,21 +22145,21 @@
         <v>82</v>
       </c>
       <c r="AM165" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="AN165" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO165" t="s" s="2">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -22189,10 +22185,10 @@
         <v>226</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="N166" s="2"/>
       <c r="O166" s="2"/>
@@ -22222,10 +22218,10 @@
         <v>172</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="Z166" t="s" s="2">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="AA166" t="s" s="2">
         <v>82</v>
@@ -22243,7 +22239,7 @@
         <v>82</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>80</v>
@@ -22264,21 +22260,21 @@
         <v>82</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO166" t="s" s="2">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -22301,13 +22297,13 @@
         <v>82</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -22358,7 +22354,7 @@
         <v>82</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>80</v>
@@ -22379,21 +22375,21 @@
         <v>82</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="AN167" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO167" t="s" s="2">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -22419,10 +22415,10 @@
         <v>226</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
@@ -22453,7 +22449,7 @@
       </c>
       <c r="Y168" s="2"/>
       <c r="Z168" t="s" s="2">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="AA168" t="s" s="2">
         <v>82</v>
@@ -22471,7 +22467,7 @@
         <v>82</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>80</v>
@@ -22492,21 +22488,21 @@
         <v>82</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO168" t="s" s="2">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -22529,16 +22525,16 @@
         <v>82</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="L169" t="s" s="2">
+        <v>779</v>
+      </c>
+      <c r="M169" t="s" s="2">
+        <v>780</v>
+      </c>
+      <c r="N169" t="s" s="2">
         <v>781</v>
-      </c>
-      <c r="M169" t="s" s="2">
-        <v>782</v>
-      </c>
-      <c r="N169" t="s" s="2">
-        <v>783</v>
       </c>
       <c r="O169" s="2"/>
       <c r="P169" t="s" s="2">
@@ -22588,7 +22584,7 @@
         <v>82</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>80</v>
@@ -22603,13 +22599,13 @@
         <v>103</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="AL169" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="AN169" t="s" s="2">
         <v>82</v>
@@ -22620,10 +22616,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -22735,10 +22731,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -22852,14 +22848,14 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172" t="s" s="2">
@@ -22881,16 +22877,16 @@
         <v>112</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="N172" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O172" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="P172" t="s" s="2">
         <v>82</v>
@@ -22939,7 +22935,7 @@
         <v>82</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>80</v>
@@ -22971,10 +22967,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -22997,13 +22993,13 @@
         <v>82</v>
       </c>
       <c r="K173" t="s" s="2">
+        <v>788</v>
+      </c>
+      <c r="L173" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="M173" t="s" s="2">
         <v>790</v>
-      </c>
-      <c r="L173" t="s" s="2">
-        <v>791</v>
-      </c>
-      <c r="M173" t="s" s="2">
-        <v>792</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" s="2"/>
@@ -23054,7 +23050,7 @@
         <v>82</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>91</v>
@@ -23072,24 +23068,24 @@
         <v>82</v>
       </c>
       <c r="AL173" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="AM173" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AN173" t="s" s="2">
+        <v>792</v>
+      </c>
+      <c r="AO173" t="s" s="2">
         <v>793</v>
-      </c>
-      <c r="AM173" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="AN173" t="s" s="2">
-        <v>794</v>
-      </c>
-      <c r="AO173" t="s" s="2">
-        <v>795</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23115,13 +23111,13 @@
         <v>168</v>
       </c>
       <c r="L174" t="s" s="2">
+        <v>795</v>
+      </c>
+      <c r="M174" t="s" s="2">
+        <v>796</v>
+      </c>
+      <c r="N174" t="s" s="2">
         <v>797</v>
-      </c>
-      <c r="M174" t="s" s="2">
-        <v>798</v>
-      </c>
-      <c r="N174" t="s" s="2">
-        <v>799</v>
       </c>
       <c r="O174" s="2"/>
       <c r="P174" t="s" s="2">
@@ -23150,10 +23146,10 @@
         <v>229</v>
       </c>
       <c r="Y174" t="s" s="2">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="Z174" t="s" s="2">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="AA174" t="s" s="2">
         <v>82</v>
@@ -23171,7 +23167,7 @@
         <v>82</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>80</v>
@@ -23192,7 +23188,7 @@
         <v>82</v>
       </c>
       <c r="AM174" t="s" s="2">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="AN174" t="s" s="2">
         <v>82</v>
@@ -23203,10 +23199,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -23232,13 +23228,13 @@
         <v>226</v>
       </c>
       <c r="L175" t="s" s="2">
+        <v>802</v>
+      </c>
+      <c r="M175" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="N175" t="s" s="2">
         <v>804</v>
-      </c>
-      <c r="M175" t="s" s="2">
-        <v>805</v>
-      </c>
-      <c r="N175" t="s" s="2">
-        <v>806</v>
       </c>
       <c r="O175" s="2"/>
       <c r="P175" t="s" s="2">
@@ -23268,7 +23264,7 @@
       </c>
       <c r="Y175" s="2"/>
       <c r="Z175" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="AA175" t="s" s="2">
         <v>82</v>
@@ -23286,7 +23282,7 @@
         <v>82</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>80</v>
@@ -23318,10 +23314,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -23344,13 +23340,13 @@
         <v>82</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
@@ -23401,7 +23397,7 @@
         <v>82</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>80</v>
@@ -23422,7 +23418,7 @@
         <v>82</v>
       </c>
       <c r="AM176" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="AN176" t="s" s="2">
         <v>82</v>
@@ -23433,10 +23429,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -23459,13 +23455,13 @@
         <v>82</v>
       </c>
       <c r="K177" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="L177" t="s" s="2">
+        <v>811</v>
+      </c>
+      <c r="M177" t="s" s="2">
         <v>812</v>
-      </c>
-      <c r="L177" t="s" s="2">
-        <v>813</v>
-      </c>
-      <c r="M177" t="s" s="2">
-        <v>814</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
@@ -23516,7 +23512,7 @@
         <v>82</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>80</v>
@@ -23531,27 +23527,27 @@
         <v>103</v>
       </c>
       <c r="AK177" t="s" s="2">
+        <v>813</v>
+      </c>
+      <c r="AL177" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AM177" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="AN177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO177" t="s" s="2">
         <v>815</v>
-      </c>
-      <c r="AL177" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="AM177" t="s" s="2">
-        <v>816</v>
-      </c>
-      <c r="AN177" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO177" t="s" s="2">
-        <v>817</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -23574,16 +23570,16 @@
         <v>82</v>
       </c>
       <c r="K178" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="L178" t="s" s="2">
+        <v>818</v>
+      </c>
+      <c r="M178" t="s" s="2">
         <v>819</v>
       </c>
-      <c r="L178" t="s" s="2">
+      <c r="N178" t="s" s="2">
         <v>820</v>
-      </c>
-      <c r="M178" t="s" s="2">
-        <v>821</v>
-      </c>
-      <c r="N178" t="s" s="2">
-        <v>822</v>
       </c>
       <c r="O178" s="2"/>
       <c r="P178" t="s" s="2">
@@ -23633,7 +23629,7 @@
         <v>82</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>80</v>
@@ -23648,13 +23644,13 @@
         <v>103</v>
       </c>
       <c r="AK178" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="AL178" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="AM178" t="s" s="2">
         <v>823</v>
-      </c>
-      <c r="AL178" t="s" s="2">
-        <v>824</v>
-      </c>
-      <c r="AM178" t="s" s="2">
-        <v>825</v>
       </c>
       <c r="AN178" t="s" s="2">
         <v>82</v>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T09:59:00+00:00</t>
+    <t>2025-09-29T14:54:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T14:54:43+00:00</t>
+    <t>2025-09-30T08:07:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>Purpose</t>
   </si>
   <si>
-    <t>&gt; **Note** : Le profil TDDUI ne peut pas hériter de FR Core Encounter à cause du type d'évènement qui est restreint à 1. Cependant, ce profil suit la plupart des règles de FR Core Encounter via un RuleSet.</t>
+    <t>&gt; **Note** : Le profil TDDUIEncounterEvenement n'hérite pas du profil FRCoreEncounterProfile à cause de l'interdiction de véhiculer plusieurs types d'évènements. Cependant, le profil TDDUIEncounterEvenement suit les contraintes du profil FRCoreEncounterProfile excepté la contrainte sur la cardinalité de l'élément type (0..1).</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -276,9 +276,9 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}MatDetailOnlyIfTypeOrg206:TDDUIMaterialDetail ne doit être utilisé que si TDDUIRessourceType est présente et vaut ORG-206 ou n'est pas renseigné. {(Encounter.extension.where(url='https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-ressources-used').extension.where(url='TDDUIMaterialDetail').exists())
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}MatDetailOnlyIfTypeOrg206:Le slice TDDUIMaterialDetail est utilisé uniquement lorsque le slice TDDUIRessourceType prend la valeur ORG-206. {(Encounter.extension.where(url='https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-ressources-used').extension.where(url='TDDUIMaterialDetail').exists())
     implies(Encounter.extension.where(url='https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-ressources-used').extension.where(url='TDDUIRessourceType').exists()
-    and(Encounter.extension.where(url='https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-ressources-used').extension.where(url='TDDUIRessourceType').value.coding.code='ORG-206'))}FacilityOnlyIfTypeOrg207:TDDUIFacilityResource ne doit être utilisé que si TDDUIRessourceType est présente et vaut ORG-207 ou n'est pas renseigné. {(Encounter.extension.where(url='https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-ressources-used').extension.where(url='TDDUIFacilityResource').exists())
+    and(Encounter.extension.where(url='https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-ressources-used').extension.where(url='TDDUIRessourceType').value.coding.code='ORG-206'))}FacilityOnlyIfTypeOrg207:Le slice TDDUIFacilityResource est utilisé uniquement lorsque le slice TDDUIRessourceType prend la valeur ORG-207. {(Encounter.extension.where(url='https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-ressources-used').extension.where(url='TDDUIFacilityResource').exists())
     implies(Encounter.extension.where(url='https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-ressources-used').extension.where(url='TDDUIRessourceType').exists()
     and(Encounter.extension.where(url='https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-ressources-used').extension.where(url='TDDUIRessourceType').value.coding.code='ORG-207'))}</t>
   </si>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6582" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7095" uniqueCount="845">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-30T08:07:48+00:00</t>
+    <t>2025-09-30T16:47:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1196,7 +1196,7 @@
     <t>Motif associé au statut de non-réalisation de l’évènement.</t>
   </si>
   <si>
-    <t>statut.motifNonRealisation</t>
+    <t>Statut.motifNonRealisation</t>
   </si>
   <si>
     <t>Encounter.status.value</t>
@@ -1830,6 +1830,10 @@
     <t>The list of people responsible for providing the service.</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:type}
+</t>
+  </si>
+  <si>
     <t>Event.performer</t>
   </si>
   <si>
@@ -1863,7 +1867,7 @@
     <t>http://hl7.org/fhir/ValueSet/encounter-participant-type|4.0.1</t>
   </si>
   <si>
-    <t>statut.auteur</t>
+    <t>Statut.auteur</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -1916,6 +1920,76 @@
   </si>
   <si>
     <t>ROL-4</t>
+  </si>
+  <si>
+    <t>Encounter.participant:auteurStatut</t>
+  </si>
+  <si>
+    <t>auteurStatut</t>
+  </si>
+  <si>
+    <t>Professionnel ayant effectué la dernière modification du statut associé à la ressource.</t>
+  </si>
+  <si>
+    <t>Encounter.participant:auteurStatut.id</t>
+  </si>
+  <si>
+    <t>Encounter.participant:auteurStatut.extension</t>
+  </si>
+  <si>
+    <t>Encounter.participant:auteurStatut.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.participant:auteurStatut.type</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/v3-ParticipationType"/&gt;
+    &lt;code value="PART"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>Encounter.participant:auteurStatut.period</t>
+  </si>
+  <si>
+    <t>Encounter.participant:auteurStatut.individual</t>
+  </si>
+  <si>
+    <t>Encounter.participant:professionnel</t>
+  </si>
+  <si>
+    <t>professionnel</t>
+  </si>
+  <si>
+    <t>List of participants involved in the encounter</t>
+  </si>
+  <si>
+    <t>Encounter.participant:professionnel.id</t>
+  </si>
+  <si>
+    <t>Encounter.participant:professionnel.extension</t>
+  </si>
+  <si>
+    <t>Encounter.participant:professionnel.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.participant:professionnel.type</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/v3-ParticipationType"/&gt;
+    &lt;code value="PPRF"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>Encounter.participant:professionnel.period</t>
+  </si>
+  <si>
+    <t>Encounter.participant:professionnel.individual</t>
   </si>
   <si>
     <t>Encounter.appointment</t>
@@ -2866,7 +2940,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO178"/>
+  <dimension ref="A1:AO192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -17335,16 +17409,14 @@
         <v>82</v>
       </c>
       <c r="AB124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC124" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="AC124" s="2"/>
       <c r="AD124" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>584</v>
@@ -17365,24 +17437,24 @@
         <v>82</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO124" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17494,10 +17566,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17611,10 +17683,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17730,10 +17802,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17759,13 +17831,13 @@
         <v>226</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
@@ -17794,10 +17866,10 @@
         <v>150</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Z128" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AA128" t="s" s="2">
         <v>82</v>
@@ -17815,7 +17887,7 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -17830,27 +17902,27 @@
         <v>103</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO128" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17876,10 +17948,10 @@
         <v>345</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -17930,7 +18002,7 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -17951,21 +18023,21 @@
         <v>82</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO129" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17988,13 +18060,13 @@
         <v>92</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -18045,7 +18117,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18060,29 +18132,31 @@
         <v>103</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AO130" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="C131" s="2"/>
+        <v>584</v>
+      </c>
+      <c r="C131" t="s" s="2">
+        <v>618</v>
+      </c>
       <c r="D131" t="s" s="2">
         <v>82</v>
       </c>
@@ -18091,7 +18165,7 @@
         <v>80</v>
       </c>
       <c r="G131" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H131" t="s" s="2">
         <v>82</v>
@@ -18103,13 +18177,13 @@
         <v>92</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>617</v>
+        <v>384</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>619</v>
+        <v>586</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -18160,7 +18234,7 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>616</v>
+        <v>584</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
@@ -18178,24 +18252,24 @@
         <v>82</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>620</v>
+        <v>589</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO131" t="s" s="2">
-        <v>621</v>
+        <v>590</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>622</v>
+        <v>591</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18203,7 +18277,7 @@
       </c>
       <c r="E132" s="2"/>
       <c r="F132" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>91</v>
@@ -18218,17 +18292,15 @@
         <v>82</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>345</v>
+        <v>105</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>623</v>
+        <v>106</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>625</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N132" s="2"/>
       <c r="O132" s="2"/>
       <c r="P132" t="s" s="2">
         <v>82</v>
@@ -18277,7 +18349,7 @@
         <v>82</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>622</v>
+        <v>108</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -18289,41 +18361,41 @@
         <v>82</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>626</v>
+        <v>82</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>627</v>
+        <v>109</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>628</v>
+        <v>82</v>
       </c>
       <c r="AO132" t="s" s="2">
-        <v>629</v>
+        <v>82</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>630</v>
+        <v>592</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G133" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H133" t="s" s="2">
         <v>82</v>
@@ -18335,15 +18407,17 @@
         <v>82</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N133" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="N133" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="O133" s="2"/>
       <c r="P133" t="s" s="2">
         <v>82</v>
@@ -18392,19 +18466,19 @@
         <v>82</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH133" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI133" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AK133" t="s" s="2">
         <v>82</v>
@@ -18424,14 +18498,14 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>631</v>
+        <v>593</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
-        <v>111</v>
+        <v>391</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s" s="2">
@@ -18444,24 +18518,26 @@
         <v>82</v>
       </c>
       <c r="I134" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K134" t="s" s="2">
         <v>112</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>113</v>
+        <v>392</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>114</v>
+        <v>393</v>
       </c>
       <c r="N134" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="O134" s="2"/>
+      <c r="O134" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="P134" t="s" s="2">
         <v>82</v>
       </c>
@@ -18497,19 +18573,19 @@
         <v>82</v>
       </c>
       <c r="AB134" t="s" s="2">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="AC134" t="s" s="2">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="AD134" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>119</v>
+        <v>394</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
@@ -18530,7 +18606,7 @@
         <v>82</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="AN134" t="s" s="2">
         <v>82</v>
@@ -18541,10 +18617,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>632</v>
+        <v>594</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18567,16 +18643,16 @@
         <v>92</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>633</v>
+        <v>226</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>634</v>
+        <v>595</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>635</v>
+        <v>596</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>636</v>
+        <v>597</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" t="s" s="2">
@@ -18587,7 +18663,7 @@
         <v>82</v>
       </c>
       <c r="S135" t="s" s="2">
-        <v>82</v>
+        <v>624</v>
       </c>
       <c r="T135" t="s" s="2">
         <v>82</v>
@@ -18602,13 +18678,13 @@
         <v>82</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>82</v>
+        <v>596</v>
       </c>
       <c r="Z135" t="s" s="2">
-        <v>82</v>
+        <v>598</v>
       </c>
       <c r="AA135" t="s" s="2">
         <v>82</v>
@@ -18626,42 +18702,42 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>637</v>
+        <v>594</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>638</v>
+        <v>82</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>639</v>
+        <v>82</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>82</v>
+        <v>600</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>640</v>
+        <v>601</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO135" t="s" s="2">
-        <v>641</v>
+        <v>602</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>642</v>
+        <v>625</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>642</v>
+        <v>603</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18669,7 +18745,7 @@
       </c>
       <c r="E136" s="2"/>
       <c r="F136" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>91</v>
@@ -18681,27 +18757,23 @@
         <v>82</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>633</v>
+        <v>345</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>643</v>
+        <v>604</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>645</v>
-      </c>
+        <v>605</v>
+      </c>
+      <c r="N136" s="2"/>
       <c r="O136" s="2"/>
       <c r="P136" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q136" t="s" s="2">
-        <v>646</v>
-      </c>
+      <c r="Q136" s="2"/>
       <c r="R136" t="s" s="2">
         <v>82</v>
       </c>
@@ -18745,7 +18817,7 @@
         <v>82</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>647</v>
+        <v>603</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
@@ -18754,33 +18826,33 @@
         <v>91</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>638</v>
+        <v>82</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>648</v>
+        <v>82</v>
       </c>
       <c r="AL136" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>649</v>
+        <v>606</v>
       </c>
       <c r="AN136" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO136" t="s" s="2">
-        <v>650</v>
+        <v>607</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>651</v>
+        <v>626</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>651</v>
+        <v>608</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18800,20 +18872,18 @@
         <v>82</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>652</v>
+        <v>609</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>653</v>
+        <v>610</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="N137" t="s" s="2">
-        <v>655</v>
-      </c>
+        <v>611</v>
+      </c>
+      <c r="N137" s="2"/>
       <c r="O137" s="2"/>
       <c r="P137" t="s" s="2">
         <v>82</v>
@@ -18862,7 +18932,7 @@
         <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>651</v>
+        <v>608</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -18880,35 +18950,37 @@
         <v>82</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>656</v>
+        <v>614</v>
       </c>
       <c r="AN137" t="s" s="2">
-        <v>82</v>
+        <v>615</v>
       </c>
       <c r="AO137" t="s" s="2">
-        <v>657</v>
+        <v>616</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>658</v>
+        <v>627</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="C138" s="2"/>
+        <v>584</v>
+      </c>
+      <c r="C138" t="s" s="2">
+        <v>628</v>
+      </c>
       <c r="D138" t="s" s="2">
-        <v>659</v>
+        <v>82</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G138" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H138" t="s" s="2">
         <v>82</v>
@@ -18920,17 +18992,15 @@
         <v>92</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>226</v>
+        <v>384</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>660</v>
+        <v>629</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>662</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="N138" s="2"/>
       <c r="O138" s="2"/>
       <c r="P138" t="s" s="2">
         <v>82</v>
@@ -18955,13 +19025,13 @@
         <v>82</v>
       </c>
       <c r="X138" t="s" s="2">
-        <v>172</v>
+        <v>82</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>663</v>
+        <v>82</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>664</v>
+        <v>82</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>82</v>
@@ -18979,7 +19049,7 @@
         <v>82</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>658</v>
+        <v>584</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -18997,35 +19067,35 @@
         <v>82</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>665</v>
+        <v>588</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>666</v>
+        <v>589</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>667</v>
+        <v>82</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>668</v>
+        <v>590</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>669</v>
+        <v>630</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>669</v>
+        <v>591</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
-        <v>659</v>
+        <v>82</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G139" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H139" t="s" s="2">
         <v>82</v>
@@ -19034,20 +19104,18 @@
         <v>82</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>670</v>
+        <v>105</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>671</v>
+        <v>106</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>662</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N139" s="2"/>
       <c r="O139" s="2"/>
       <c r="P139" t="s" s="2">
         <v>82</v>
@@ -19096,46 +19164,46 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>669</v>
+        <v>108</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH139" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI139" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="AK139" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>665</v>
+        <v>82</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>666</v>
+        <v>109</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>667</v>
+        <v>82</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>668</v>
+        <v>82</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>672</v>
+        <v>631</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>672</v>
+        <v>592</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" t="s" s="2">
@@ -19151,18 +19219,20 @@
         <v>82</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>384</v>
+        <v>112</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>673</v>
+        <v>113</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="N140" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="N140" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
         <v>82</v>
@@ -19211,7 +19281,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>672</v>
+        <v>119</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19223,7 +19293,7 @@
         <v>82</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>82</v>
@@ -19232,7 +19302,7 @@
         <v>82</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>675</v>
+        <v>109</v>
       </c>
       <c r="AN140" t="s" s="2">
         <v>82</v>
@@ -19243,42 +19313,46 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>676</v>
+        <v>632</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>676</v>
+        <v>593</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>82</v>
+        <v>391</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G141" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H141" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I141" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>106</v>
+        <v>392</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N141" s="2"/>
-      <c r="O141" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="N141" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="O141" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="P141" t="s" s="2">
         <v>82</v>
       </c>
@@ -19326,19 +19400,19 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>108</v>
+        <v>394</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH141" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI141" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>82</v>
@@ -19347,7 +19421,7 @@
         <v>82</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="AN141" t="s" s="2">
         <v>82</v>
@@ -19358,21 +19432,21 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>677</v>
+        <v>633</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>677</v>
+        <v>594</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G142" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H142" t="s" s="2">
         <v>82</v>
@@ -19381,19 +19455,19 @@
         <v>82</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>112</v>
+        <v>226</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>113</v>
+        <v>595</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>114</v>
+        <v>596</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>115</v>
+        <v>597</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" t="s" s="2">
@@ -19404,7 +19478,7 @@
         <v>82</v>
       </c>
       <c r="S142" t="s" s="2">
-        <v>82</v>
+        <v>634</v>
       </c>
       <c r="T142" t="s" s="2">
         <v>82</v>
@@ -19419,13 +19493,13 @@
         <v>82</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>82</v>
+        <v>596</v>
       </c>
       <c r="Z142" t="s" s="2">
-        <v>82</v>
+        <v>598</v>
       </c>
       <c r="AA142" t="s" s="2">
         <v>82</v>
@@ -19443,7 +19517,7 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>119</v>
+        <v>594</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -19455,66 +19529,62 @@
         <v>82</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>82</v>
+        <v>600</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>109</v>
+        <v>601</v>
       </c>
       <c r="AN142" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO142" t="s" s="2">
-        <v>82</v>
+        <v>602</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>678</v>
+        <v>635</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>678</v>
+        <v>603</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
-        <v>391</v>
+        <v>82</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G143" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H143" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I143" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>112</v>
+        <v>345</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>392</v>
+        <v>604</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O143" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>605</v>
+      </c>
+      <c r="N143" s="2"/>
+      <c r="O143" s="2"/>
       <c r="P143" t="s" s="2">
         <v>82</v>
       </c>
@@ -19562,19 +19632,19 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>394</v>
+        <v>603</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH143" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI143" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK143" t="s" s="2">
         <v>82</v>
@@ -19583,29 +19653,29 @@
         <v>82</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>191</v>
+        <v>606</v>
       </c>
       <c r="AN143" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO143" t="s" s="2">
-        <v>82</v>
+        <v>607</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>679</v>
+        <v>636</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>679</v>
+        <v>608</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
-        <v>680</v>
+        <v>82</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G144" t="s" s="2">
         <v>91</v>
@@ -19620,17 +19690,15 @@
         <v>92</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>681</v>
+        <v>609</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>682</v>
+        <v>610</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="N144" t="s" s="2">
-        <v>662</v>
-      </c>
+        <v>611</v>
+      </c>
+      <c r="N144" s="2"/>
       <c r="O144" s="2"/>
       <c r="P144" t="s" s="2">
         <v>82</v>
@@ -19679,10 +19747,10 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>679</v>
+        <v>608</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>91</v>
@@ -19697,24 +19765,24 @@
         <v>82</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>684</v>
+        <v>613</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>685</v>
+        <v>614</v>
       </c>
       <c r="AN144" t="s" s="2">
-        <v>667</v>
+        <v>615</v>
       </c>
       <c r="AO144" t="s" s="2">
-        <v>686</v>
+        <v>616</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>687</v>
+        <v>637</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>687</v>
+        <v>637</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -19725,7 +19793,7 @@
         <v>80</v>
       </c>
       <c r="G145" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H145" t="s" s="2">
         <v>82</v>
@@ -19734,16 +19802,16 @@
         <v>82</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>226</v>
+        <v>638</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>688</v>
+        <v>639</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>689</v>
+        <v>640</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
@@ -19770,13 +19838,13 @@
         <v>82</v>
       </c>
       <c r="X145" t="s" s="2">
-        <v>172</v>
+        <v>82</v>
       </c>
       <c r="Y145" t="s" s="2">
-        <v>690</v>
+        <v>82</v>
       </c>
       <c r="Z145" t="s" s="2">
-        <v>691</v>
+        <v>82</v>
       </c>
       <c r="AA145" t="s" s="2">
         <v>82</v>
@@ -19794,13 +19862,13 @@
         <v>82</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>687</v>
+        <v>637</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH145" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI145" t="s" s="2">
         <v>82</v>
@@ -19812,24 +19880,24 @@
         <v>82</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>82</v>
+        <v>582</v>
       </c>
       <c r="AM145" t="s" s="2">
-        <v>109</v>
+        <v>641</v>
       </c>
       <c r="AN145" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO145" t="s" s="2">
-        <v>82</v>
+        <v>642</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>692</v>
+        <v>643</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>692</v>
+        <v>643</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -19837,7 +19905,7 @@
       </c>
       <c r="E146" s="2"/>
       <c r="F146" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G146" t="s" s="2">
         <v>91</v>
@@ -19852,15 +19920,17 @@
         <v>82</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>693</v>
+        <v>345</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>694</v>
+        <v>644</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="N146" s="2"/>
+        <v>645</v>
+      </c>
+      <c r="N146" t="s" s="2">
+        <v>646</v>
+      </c>
       <c r="O146" s="2"/>
       <c r="P146" t="s" s="2">
         <v>82</v>
@@ -19909,7 +19979,7 @@
         <v>82</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>692</v>
+        <v>643</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
@@ -19927,24 +19997,24 @@
         <v>82</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>82</v>
+        <v>647</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>696</v>
+        <v>648</v>
       </c>
       <c r="AN146" t="s" s="2">
-        <v>82</v>
+        <v>649</v>
       </c>
       <c r="AO146" t="s" s="2">
-        <v>82</v>
+        <v>650</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>697</v>
+        <v>651</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>697</v>
+        <v>651</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -19967,17 +20037,15 @@
         <v>82</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>698</v>
+        <v>105</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>699</v>
+        <v>106</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>700</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>701</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N147" s="2"/>
       <c r="O147" s="2"/>
       <c r="P147" t="s" s="2">
         <v>82</v>
@@ -20026,19 +20094,19 @@
         <v>82</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>697</v>
+        <v>108</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH147" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI147" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="AK147" t="s" s="2">
         <v>82</v>
@@ -20047,7 +20115,7 @@
         <v>82</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>702</v>
+        <v>109</v>
       </c>
       <c r="AN147" t="s" s="2">
         <v>82</v>
@@ -20058,21 +20126,21 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>703</v>
+        <v>652</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>703</v>
+        <v>652</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G148" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H148" t="s" s="2">
         <v>82</v>
@@ -20084,16 +20152,16 @@
         <v>82</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>384</v>
+        <v>112</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>704</v>
+        <v>113</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>705</v>
+        <v>114</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>706</v>
+        <v>115</v>
       </c>
       <c r="O148" s="2"/>
       <c r="P148" t="s" s="2">
@@ -20131,31 +20199,31 @@
         <v>82</v>
       </c>
       <c r="AB148" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="AC148" t="s" s="2">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="AD148" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>703</v>
+        <v>119</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH148" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI148" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ148" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK148" t="s" s="2">
         <v>82</v>
@@ -20164,7 +20232,7 @@
         <v>82</v>
       </c>
       <c r="AM148" t="s" s="2">
-        <v>707</v>
+        <v>109</v>
       </c>
       <c r="AN148" t="s" s="2">
         <v>82</v>
@@ -20175,10 +20243,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>708</v>
+        <v>653</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>708</v>
+        <v>653</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20186,7 +20254,7 @@
       </c>
       <c r="E149" s="2"/>
       <c r="F149" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G149" t="s" s="2">
         <v>91</v>
@@ -20198,18 +20266,20 @@
         <v>82</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>105</v>
+        <v>654</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>106</v>
+        <v>655</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N149" s="2"/>
+        <v>656</v>
+      </c>
+      <c r="N149" t="s" s="2">
+        <v>657</v>
+      </c>
       <c r="O149" s="2"/>
       <c r="P149" t="s" s="2">
         <v>82</v>
@@ -20258,7 +20328,7 @@
         <v>82</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>108</v>
+        <v>658</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
@@ -20267,44 +20337,44 @@
         <v>91</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>82</v>
+        <v>659</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>82</v>
+        <v>660</v>
       </c>
       <c r="AL149" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>109</v>
+        <v>661</v>
       </c>
       <c r="AN149" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO149" t="s" s="2">
-        <v>82</v>
+        <v>662</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>709</v>
+        <v>663</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>709</v>
+        <v>663</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G150" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H150" t="s" s="2">
         <v>82</v>
@@ -20313,25 +20383,27 @@
         <v>82</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>112</v>
+        <v>654</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>113</v>
+        <v>664</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>114</v>
+        <v>665</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="O150" s="2"/>
       <c r="P150" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q150" s="2"/>
+      <c r="Q150" t="s" s="2">
+        <v>667</v>
+      </c>
       <c r="R150" t="s" s="2">
         <v>82</v>
       </c>
@@ -20375,78 +20447,76 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>119</v>
+        <v>668</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH150" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>82</v>
+        <v>659</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>82</v>
+        <v>669</v>
       </c>
       <c r="AL150" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>109</v>
+        <v>670</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO150" t="s" s="2">
-        <v>82</v>
+        <v>671</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>710</v>
+        <v>672</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>710</v>
+        <v>672</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
-        <v>391</v>
+        <v>82</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G151" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H151" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I151" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>112</v>
+        <v>673</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>392</v>
+        <v>674</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>393</v>
+        <v>675</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O151" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>676</v>
+      </c>
+      <c r="O151" s="2"/>
       <c r="P151" t="s" s="2">
         <v>82</v>
       </c>
@@ -20494,53 +20564,53 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>394</v>
+        <v>672</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH151" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI151" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK151" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>82</v>
+        <v>647</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>191</v>
+        <v>677</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>82</v>
+        <v>678</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>711</v>
+        <v>679</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>711</v>
+        <v>679</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
-        <v>82</v>
+        <v>680</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G152" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H152" t="s" s="2">
         <v>82</v>
@@ -20549,18 +20619,20 @@
         <v>82</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>300</v>
+        <v>226</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>712</v>
+        <v>681</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>713</v>
-      </c>
-      <c r="N152" s="2"/>
+        <v>682</v>
+      </c>
+      <c r="N152" t="s" s="2">
+        <v>683</v>
+      </c>
       <c r="O152" s="2"/>
       <c r="P152" t="s" s="2">
         <v>82</v>
@@ -20585,13 +20657,13 @@
         <v>82</v>
       </c>
       <c r="X152" t="s" s="2">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>82</v>
+        <v>684</v>
       </c>
       <c r="Z152" t="s" s="2">
-        <v>82</v>
+        <v>685</v>
       </c>
       <c r="AA152" t="s" s="2">
         <v>82</v>
@@ -20609,13 +20681,13 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>711</v>
+        <v>679</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH152" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI152" t="s" s="2">
         <v>82</v>
@@ -20627,35 +20699,35 @@
         <v>82</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>82</v>
+        <v>686</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>305</v>
+        <v>687</v>
       </c>
       <c r="AN152" t="s" s="2">
-        <v>82</v>
+        <v>688</v>
       </c>
       <c r="AO152" t="s" s="2">
-        <v>714</v>
+        <v>689</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>715</v>
+        <v>690</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>715</v>
+        <v>690</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
-        <v>82</v>
+        <v>680</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G153" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H153" t="s" s="2">
         <v>82</v>
@@ -20664,18 +20736,20 @@
         <v>82</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>105</v>
+        <v>691</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>106</v>
+        <v>692</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N153" s="2"/>
+        <v>682</v>
+      </c>
+      <c r="N153" t="s" s="2">
+        <v>683</v>
+      </c>
       <c r="O153" s="2"/>
       <c r="P153" t="s" s="2">
         <v>82</v>
@@ -20724,46 +20798,46 @@
         <v>82</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>108</v>
+        <v>690</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH153" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI153" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>82</v>
+        <v>686</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>109</v>
+        <v>687</v>
       </c>
       <c r="AN153" t="s" s="2">
-        <v>82</v>
+        <v>688</v>
       </c>
       <c r="AO153" t="s" s="2">
-        <v>82</v>
+        <v>689</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>716</v>
+        <v>693</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>716</v>
+        <v>693</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" t="s" s="2">
@@ -20779,20 +20853,18 @@
         <v>82</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>112</v>
+        <v>384</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>113</v>
+        <v>694</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N154" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>695</v>
+      </c>
+      <c r="N154" s="2"/>
       <c r="O154" s="2"/>
       <c r="P154" t="s" s="2">
         <v>82</v>
@@ -20829,19 +20901,19 @@
         <v>82</v>
       </c>
       <c r="AB154" t="s" s="2">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="AC154" t="s" s="2">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="AD154" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>119</v>
+        <v>693</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>80</v>
@@ -20853,7 +20925,7 @@
         <v>82</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK154" t="s" s="2">
         <v>82</v>
@@ -20862,7 +20934,7 @@
         <v>82</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>109</v>
+        <v>696</v>
       </c>
       <c r="AN154" t="s" s="2">
         <v>82</v>
@@ -20873,10 +20945,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>717</v>
+        <v>697</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>717</v>
+        <v>697</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -20893,26 +20965,22 @@
         <v>82</v>
       </c>
       <c r="I155" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>311</v>
+        <v>106</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N155" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="O155" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N155" s="2"/>
+      <c r="O155" s="2"/>
       <c r="P155" t="s" s="2">
         <v>82</v>
       </c>
@@ -20936,13 +21004,13 @@
         <v>82</v>
       </c>
       <c r="X155" t="s" s="2">
-        <v>229</v>
+        <v>82</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>315</v>
+        <v>82</v>
       </c>
       <c r="Z155" t="s" s="2">
-        <v>316</v>
+        <v>82</v>
       </c>
       <c r="AA155" t="s" s="2">
         <v>82</v>
@@ -20960,7 +21028,7 @@
         <v>82</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>317</v>
+        <v>108</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>80</v>
@@ -20972,7 +21040,7 @@
         <v>82</v>
       </c>
       <c r="AJ155" t="s" s="2">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="AK155" t="s" s="2">
         <v>82</v>
@@ -20981,32 +21049,32 @@
         <v>82</v>
       </c>
       <c r="AM155" t="s" s="2">
-        <v>318</v>
+        <v>109</v>
       </c>
       <c r="AN155" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO155" t="s" s="2">
-        <v>191</v>
+        <v>82</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>718</v>
+        <v>698</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>718</v>
+        <v>698</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G156" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H156" t="s" s="2">
         <v>82</v>
@@ -21015,23 +21083,21 @@
         <v>82</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>226</v>
+        <v>112</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>320</v>
+        <v>113</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>719</v>
+        <v>114</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="O156" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="O156" s="2"/>
       <c r="P156" t="s" s="2">
         <v>82</v>
       </c>
@@ -21055,11 +21121,13 @@
         <v>82</v>
       </c>
       <c r="X156" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Y156" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y156" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z156" t="s" s="2">
-        <v>324</v>
+        <v>82</v>
       </c>
       <c r="AA156" t="s" s="2">
         <v>82</v>
@@ -21077,19 +21145,19 @@
         <v>82</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>325</v>
+        <v>119</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH156" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI156" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ156" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK156" t="s" s="2">
         <v>82</v>
@@ -21098,69 +21166,69 @@
         <v>82</v>
       </c>
       <c r="AM156" t="s" s="2">
-        <v>318</v>
+        <v>109</v>
       </c>
       <c r="AN156" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO156" t="s" s="2">
-        <v>326</v>
+        <v>82</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>720</v>
+        <v>699</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>720</v>
+        <v>699</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
-        <v>82</v>
+        <v>391</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G157" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H157" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I157" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J157" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>328</v>
+        <v>392</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>721</v>
+        <v>393</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>330</v>
+        <v>115</v>
       </c>
       <c r="O157" t="s" s="2">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="P157" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q157" s="2"/>
       <c r="R157" t="s" s="2">
-        <v>722</v>
+        <v>82</v>
       </c>
       <c r="S157" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T157" t="s" s="2">
-        <v>332</v>
+        <v>82</v>
       </c>
       <c r="U157" t="s" s="2">
         <v>82</v>
@@ -21196,19 +21264,19 @@
         <v>82</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>333</v>
+        <v>394</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH157" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI157" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ157" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK157" t="s" s="2">
         <v>82</v>
@@ -21217,25 +21285,25 @@
         <v>82</v>
       </c>
       <c r="AM157" t="s" s="2">
-        <v>334</v>
+        <v>191</v>
       </c>
       <c r="AN157" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO157" t="s" s="2">
-        <v>335</v>
+        <v>82</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>723</v>
+        <v>700</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>723</v>
+        <v>700</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
-        <v>82</v>
+        <v>701</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
@@ -21254,16 +21322,16 @@
         <v>92</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>105</v>
+        <v>702</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>337</v>
+        <v>703</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>338</v>
+        <v>704</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>339</v>
+        <v>683</v>
       </c>
       <c r="O158" s="2"/>
       <c r="P158" t="s" s="2">
@@ -21277,7 +21345,7 @@
         <v>82</v>
       </c>
       <c r="T158" t="s" s="2">
-        <v>340</v>
+        <v>82</v>
       </c>
       <c r="U158" t="s" s="2">
         <v>82</v>
@@ -21313,10 +21381,10 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>341</v>
+        <v>700</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>91</v>
@@ -21331,24 +21399,24 @@
         <v>82</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>82</v>
+        <v>705</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>342</v>
+        <v>706</v>
       </c>
       <c r="AN158" t="s" s="2">
-        <v>82</v>
+        <v>688</v>
       </c>
       <c r="AO158" t="s" s="2">
-        <v>343</v>
+        <v>707</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21368,16 +21436,16 @@
         <v>82</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>345</v>
+        <v>226</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>346</v>
+        <v>709</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>347</v>
+        <v>710</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
@@ -21404,13 +21472,13 @@
         <v>82</v>
       </c>
       <c r="X159" t="s" s="2">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="Y159" t="s" s="2">
-        <v>82</v>
+        <v>711</v>
       </c>
       <c r="Z159" t="s" s="2">
-        <v>82</v>
+        <v>712</v>
       </c>
       <c r="AA159" t="s" s="2">
         <v>82</v>
@@ -21428,7 +21496,7 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>348</v>
+        <v>708</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>80</v>
@@ -21449,21 +21517,21 @@
         <v>82</v>
       </c>
       <c r="AM159" t="s" s="2">
-        <v>349</v>
+        <v>109</v>
       </c>
       <c r="AN159" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO159" t="s" s="2">
-        <v>350</v>
+        <v>82</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -21483,20 +21551,18 @@
         <v>82</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>352</v>
+        <v>714</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>353</v>
+        <v>715</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>716</v>
+      </c>
+      <c r="N160" s="2"/>
       <c r="O160" s="2"/>
       <c r="P160" t="s" s="2">
         <v>82</v>
@@ -21545,7 +21611,7 @@
         <v>82</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>356</v>
+        <v>713</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>80</v>
@@ -21566,21 +21632,21 @@
         <v>82</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>357</v>
+        <v>717</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO160" t="s" s="2">
-        <v>358</v>
+        <v>82</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -21603,15 +21669,17 @@
         <v>82</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>729</v>
-      </c>
-      <c r="N161" s="2"/>
+        <v>721</v>
+      </c>
+      <c r="N161" t="s" s="2">
+        <v>722</v>
+      </c>
       <c r="O161" s="2"/>
       <c r="P161" t="s" s="2">
         <v>82</v>
@@ -21660,13 +21728,13 @@
         <v>82</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH161" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI161" t="s" s="2">
         <v>82</v>
@@ -21681,7 +21749,7 @@
         <v>82</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>82</v>
@@ -21692,10 +21760,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -21718,15 +21786,17 @@
         <v>82</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>226</v>
+        <v>384</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>733</v>
-      </c>
-      <c r="N162" s="2"/>
+        <v>726</v>
+      </c>
+      <c r="N162" t="s" s="2">
+        <v>727</v>
+      </c>
       <c r="O162" s="2"/>
       <c r="P162" t="s" s="2">
         <v>82</v>
@@ -21751,13 +21821,13 @@
         <v>82</v>
       </c>
       <c r="X162" t="s" s="2">
-        <v>172</v>
+        <v>82</v>
       </c>
       <c r="Y162" t="s" s="2">
-        <v>734</v>
+        <v>82</v>
       </c>
       <c r="Z162" t="s" s="2">
-        <v>735</v>
+        <v>82</v>
       </c>
       <c r="AA162" t="s" s="2">
         <v>82</v>
@@ -21775,7 +21845,7 @@
         <v>82</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>80</v>
@@ -21796,21 +21866,21 @@
         <v>82</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="AN162" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO162" t="s" s="2">
-        <v>737</v>
+        <v>82</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -21833,13 +21903,13 @@
         <v>82</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>226</v>
+        <v>105</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>739</v>
+        <v>106</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>740</v>
+        <v>107</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" s="2"/>
@@ -21866,13 +21936,13 @@
         <v>82</v>
       </c>
       <c r="X163" t="s" s="2">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>741</v>
+        <v>82</v>
       </c>
       <c r="Z163" t="s" s="2">
-        <v>742</v>
+        <v>82</v>
       </c>
       <c r="AA163" t="s" s="2">
         <v>82</v>
@@ -21890,7 +21960,7 @@
         <v>82</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>738</v>
+        <v>108</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
@@ -21902,7 +21972,7 @@
         <v>82</v>
       </c>
       <c r="AJ163" t="s" s="2">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="AK163" t="s" s="2">
         <v>82</v>
@@ -21917,19 +21987,19 @@
         <v>82</v>
       </c>
       <c r="AO163" t="s" s="2">
-        <v>743</v>
+        <v>82</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="E164" s="2"/>
       <c r="F164" t="s" s="2">
@@ -21948,20 +22018,18 @@
         <v>82</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>226</v>
+        <v>112</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>745</v>
+        <v>113</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>746</v>
+        <v>114</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>747</v>
-      </c>
-      <c r="O164" t="s" s="2">
-        <v>748</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="O164" s="2"/>
       <c r="P164" t="s" s="2">
         <v>82</v>
       </c>
@@ -21985,13 +22053,13 @@
         <v>82</v>
       </c>
       <c r="X164" t="s" s="2">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>749</v>
+        <v>82</v>
       </c>
       <c r="Z164" t="s" s="2">
-        <v>750</v>
+        <v>82</v>
       </c>
       <c r="AA164" t="s" s="2">
         <v>82</v>
@@ -22009,7 +22077,7 @@
         <v>82</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>744</v>
+        <v>119</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>80</v>
@@ -22021,7 +22089,7 @@
         <v>82</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK164" t="s" s="2">
         <v>82</v>
@@ -22030,25 +22098,25 @@
         <v>82</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>751</v>
+        <v>109</v>
       </c>
       <c r="AN164" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO164" t="s" s="2">
-        <v>752</v>
+        <v>82</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>753</v>
+        <v>731</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>753</v>
+        <v>731</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
-        <v>82</v>
+        <v>391</v>
       </c>
       <c r="E165" s="2"/>
       <c r="F165" t="s" s="2">
@@ -22061,22 +22129,26 @@
         <v>82</v>
       </c>
       <c r="I165" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>226</v>
+        <v>112</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>754</v>
+        <v>392</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>755</v>
-      </c>
-      <c r="N165" s="2"/>
-      <c r="O165" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="N165" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="O165" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="P165" t="s" s="2">
         <v>82</v>
       </c>
@@ -22100,13 +22172,13 @@
         <v>82</v>
       </c>
       <c r="X165" t="s" s="2">
-        <v>172</v>
+        <v>82</v>
       </c>
       <c r="Y165" t="s" s="2">
-        <v>756</v>
+        <v>82</v>
       </c>
       <c r="Z165" t="s" s="2">
-        <v>757</v>
+        <v>82</v>
       </c>
       <c r="AA165" t="s" s="2">
         <v>82</v>
@@ -22124,7 +22196,7 @@
         <v>82</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>753</v>
+        <v>394</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>80</v>
@@ -22136,7 +22208,7 @@
         <v>82</v>
       </c>
       <c r="AJ165" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK165" t="s" s="2">
         <v>82</v>
@@ -22145,21 +22217,21 @@
         <v>82</v>
       </c>
       <c r="AM165" t="s" s="2">
-        <v>758</v>
+        <v>191</v>
       </c>
       <c r="AN165" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO165" t="s" s="2">
-        <v>759</v>
+        <v>82</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -22170,7 +22242,7 @@
         <v>80</v>
       </c>
       <c r="G166" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H166" t="s" s="2">
         <v>82</v>
@@ -22182,13 +22254,13 @@
         <v>82</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>226</v>
+        <v>300</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>761</v>
+        <v>733</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>762</v>
+        <v>734</v>
       </c>
       <c r="N166" s="2"/>
       <c r="O166" s="2"/>
@@ -22215,13 +22287,13 @@
         <v>82</v>
       </c>
       <c r="X166" t="s" s="2">
-        <v>172</v>
+        <v>82</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>763</v>
+        <v>82</v>
       </c>
       <c r="Z166" t="s" s="2">
-        <v>764</v>
+        <v>82</v>
       </c>
       <c r="AA166" t="s" s="2">
         <v>82</v>
@@ -22239,13 +22311,13 @@
         <v>82</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH166" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI166" t="s" s="2">
         <v>82</v>
@@ -22260,21 +22332,21 @@
         <v>82</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>765</v>
+        <v>305</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO166" t="s" s="2">
-        <v>766</v>
+        <v>735</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>767</v>
+        <v>736</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>767</v>
+        <v>736</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -22297,13 +22369,13 @@
         <v>82</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>727</v>
+        <v>105</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>768</v>
+        <v>106</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>769</v>
+        <v>107</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -22354,7 +22426,7 @@
         <v>82</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>767</v>
+        <v>108</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>80</v>
@@ -22366,7 +22438,7 @@
         <v>82</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="AK167" t="s" s="2">
         <v>82</v>
@@ -22375,32 +22447,32 @@
         <v>82</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>770</v>
+        <v>109</v>
       </c>
       <c r="AN167" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO167" t="s" s="2">
-        <v>771</v>
+        <v>82</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>772</v>
+        <v>737</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>772</v>
+        <v>737</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="E168" s="2"/>
       <c r="F168" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G168" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H168" t="s" s="2">
         <v>82</v>
@@ -22412,15 +22484,17 @@
         <v>82</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>226</v>
+        <v>112</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>773</v>
+        <v>113</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>774</v>
-      </c>
-      <c r="N168" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="N168" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="O168" s="2"/>
       <c r="P168" t="s" s="2">
         <v>82</v>
@@ -22445,41 +22519,43 @@
         <v>82</v>
       </c>
       <c r="X168" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="Y168" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y168" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z168" t="s" s="2">
-        <v>775</v>
+        <v>82</v>
       </c>
       <c r="AA168" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB168" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="AC168" t="s" s="2">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="AD168" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>772</v>
+        <v>119</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH168" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI168" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ168" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK168" t="s" s="2">
         <v>82</v>
@@ -22488,21 +22564,21 @@
         <v>82</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>776</v>
+        <v>109</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO168" t="s" s="2">
-        <v>777</v>
+        <v>82</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>778</v>
+        <v>738</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>778</v>
+        <v>738</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -22519,24 +22595,26 @@
         <v>82</v>
       </c>
       <c r="I169" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>384</v>
+        <v>168</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>779</v>
+        <v>311</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>780</v>
+        <v>312</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>781</v>
-      </c>
-      <c r="O169" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="O169" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="P169" t="s" s="2">
         <v>82</v>
       </c>
@@ -22560,13 +22638,13 @@
         <v>82</v>
       </c>
       <c r="X169" t="s" s="2">
-        <v>82</v>
+        <v>229</v>
       </c>
       <c r="Y169" t="s" s="2">
-        <v>82</v>
+        <v>315</v>
       </c>
       <c r="Z169" t="s" s="2">
-        <v>82</v>
+        <v>316</v>
       </c>
       <c r="AA169" t="s" s="2">
         <v>82</v>
@@ -22584,13 +22662,13 @@
         <v>82</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>778</v>
+        <v>317</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH169" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI169" t="s" s="2">
         <v>82</v>
@@ -22599,27 +22677,27 @@
         <v>103</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>782</v>
+        <v>82</v>
       </c>
       <c r="AL169" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>783</v>
+        <v>318</v>
       </c>
       <c r="AN169" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO169" t="s" s="2">
-        <v>82</v>
+        <v>191</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>784</v>
+        <v>739</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>784</v>
+        <v>739</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -22627,7 +22705,7 @@
       </c>
       <c r="E170" s="2"/>
       <c r="F170" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G170" t="s" s="2">
         <v>91</v>
@@ -22639,19 +22717,23 @@
         <v>82</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>105</v>
+        <v>226</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>106</v>
+        <v>320</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N170" s="2"/>
-      <c r="O170" s="2"/>
+        <v>740</v>
+      </c>
+      <c r="N170" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="O170" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="P170" t="s" s="2">
         <v>82</v>
       </c>
@@ -22675,13 +22757,11 @@
         <v>82</v>
       </c>
       <c r="X170" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y170" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Y170" s="2"/>
       <c r="Z170" t="s" s="2">
-        <v>82</v>
+        <v>324</v>
       </c>
       <c r="AA170" t="s" s="2">
         <v>82</v>
@@ -22699,7 +22779,7 @@
         <v>82</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>108</v>
+        <v>325</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>80</v>
@@ -22711,7 +22791,7 @@
         <v>82</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="AK170" t="s" s="2">
         <v>82</v>
@@ -22720,32 +22800,32 @@
         <v>82</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>109</v>
+        <v>318</v>
       </c>
       <c r="AN170" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO170" t="s" s="2">
-        <v>82</v>
+        <v>326</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>785</v>
+        <v>741</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>785</v>
+        <v>741</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="E171" s="2"/>
       <c r="F171" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G171" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H171" t="s" s="2">
         <v>82</v>
@@ -22754,33 +22834,35 @@
         <v>82</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>113</v>
+        <v>328</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>114</v>
+        <v>742</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O171" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="O171" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="P171" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q171" s="2"/>
       <c r="R171" t="s" s="2">
-        <v>82</v>
+        <v>743</v>
       </c>
       <c r="S171" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T171" t="s" s="2">
-        <v>82</v>
+        <v>332</v>
       </c>
       <c r="U171" t="s" s="2">
         <v>82</v>
@@ -22816,19 +22898,19 @@
         <v>82</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>119</v>
+        <v>333</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH171" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI171" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ171" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK171" t="s" s="2">
         <v>82</v>
@@ -22837,57 +22919,55 @@
         <v>82</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>109</v>
+        <v>334</v>
       </c>
       <c r="AN171" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO171" t="s" s="2">
-        <v>82</v>
+        <v>335</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>786</v>
+        <v>744</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>786</v>
+        <v>744</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
-        <v>391</v>
+        <v>82</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G172" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H172" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I172" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J172" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>392</v>
+        <v>337</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>393</v>
+        <v>338</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O172" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="O172" s="2"/>
       <c r="P172" t="s" s="2">
         <v>82</v>
       </c>
@@ -22899,7 +22979,7 @@
         <v>82</v>
       </c>
       <c r="T172" t="s" s="2">
-        <v>82</v>
+        <v>340</v>
       </c>
       <c r="U172" t="s" s="2">
         <v>82</v>
@@ -22935,19 +23015,19 @@
         <v>82</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>394</v>
+        <v>341</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH172" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI172" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK172" t="s" s="2">
         <v>82</v>
@@ -22956,21 +23036,21 @@
         <v>82</v>
       </c>
       <c r="AM172" t="s" s="2">
-        <v>191</v>
+        <v>342</v>
       </c>
       <c r="AN172" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO172" t="s" s="2">
-        <v>82</v>
+        <v>343</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>787</v>
+        <v>745</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>787</v>
+        <v>745</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -22978,7 +23058,7 @@
       </c>
       <c r="E173" s="2"/>
       <c r="F173" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G173" t="s" s="2">
         <v>91</v>
@@ -22990,16 +23070,16 @@
         <v>82</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>788</v>
+        <v>345</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>789</v>
+        <v>346</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>790</v>
+        <v>347</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" s="2"/>
@@ -23050,10 +23130,10 @@
         <v>82</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>787</v>
+        <v>348</v>
       </c>
       <c r="AG173" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH173" t="s" s="2">
         <v>91</v>
@@ -23068,24 +23148,24 @@
         <v>82</v>
       </c>
       <c r="AL173" t="s" s="2">
-        <v>791</v>
+        <v>82</v>
       </c>
       <c r="AM173" t="s" s="2">
-        <v>613</v>
+        <v>349</v>
       </c>
       <c r="AN173" t="s" s="2">
-        <v>792</v>
+        <v>82</v>
       </c>
       <c r="AO173" t="s" s="2">
-        <v>793</v>
+        <v>350</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>794</v>
+        <v>746</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>794</v>
+        <v>746</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23105,19 +23185,19 @@
         <v>82</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>168</v>
+        <v>352</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>795</v>
+        <v>353</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>796</v>
+        <v>354</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>797</v>
+        <v>355</v>
       </c>
       <c r="O174" s="2"/>
       <c r="P174" t="s" s="2">
@@ -23143,13 +23223,13 @@
         <v>82</v>
       </c>
       <c r="X174" t="s" s="2">
-        <v>229</v>
+        <v>82</v>
       </c>
       <c r="Y174" t="s" s="2">
-        <v>798</v>
+        <v>82</v>
       </c>
       <c r="Z174" t="s" s="2">
-        <v>799</v>
+        <v>82</v>
       </c>
       <c r="AA174" t="s" s="2">
         <v>82</v>
@@ -23167,7 +23247,7 @@
         <v>82</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>794</v>
+        <v>356</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>80</v>
@@ -23188,21 +23268,21 @@
         <v>82</v>
       </c>
       <c r="AM174" t="s" s="2">
-        <v>800</v>
+        <v>357</v>
       </c>
       <c r="AN174" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO174" t="s" s="2">
-        <v>82</v>
+        <v>358</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>801</v>
+        <v>747</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>801</v>
+        <v>747</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -23225,17 +23305,15 @@
         <v>82</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>226</v>
+        <v>748</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>802</v>
+        <v>749</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>803</v>
-      </c>
-      <c r="N175" t="s" s="2">
-        <v>804</v>
-      </c>
+        <v>750</v>
+      </c>
+      <c r="N175" s="2"/>
       <c r="O175" s="2"/>
       <c r="P175" t="s" s="2">
         <v>82</v>
@@ -23260,11 +23338,13 @@
         <v>82</v>
       </c>
       <c r="X175" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="Y175" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y175" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z175" t="s" s="2">
-        <v>805</v>
+        <v>82</v>
       </c>
       <c r="AA175" t="s" s="2">
         <v>82</v>
@@ -23282,7 +23362,7 @@
         <v>82</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>801</v>
+        <v>747</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>80</v>
@@ -23303,7 +23383,7 @@
         <v>82</v>
       </c>
       <c r="AM175" t="s" s="2">
-        <v>82</v>
+        <v>751</v>
       </c>
       <c r="AN175" t="s" s="2">
         <v>82</v>
@@ -23314,10 +23394,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>806</v>
+        <v>752</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>806</v>
+        <v>752</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -23340,13 +23420,13 @@
         <v>82</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>345</v>
+        <v>226</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>807</v>
+        <v>753</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>808</v>
+        <v>754</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
@@ -23373,13 +23453,13 @@
         <v>82</v>
       </c>
       <c r="X176" t="s" s="2">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="Y176" t="s" s="2">
-        <v>82</v>
+        <v>755</v>
       </c>
       <c r="Z176" t="s" s="2">
-        <v>82</v>
+        <v>756</v>
       </c>
       <c r="AA176" t="s" s="2">
         <v>82</v>
@@ -23397,7 +23477,7 @@
         <v>82</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>806</v>
+        <v>752</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>80</v>
@@ -23418,21 +23498,21 @@
         <v>82</v>
       </c>
       <c r="AM176" t="s" s="2">
-        <v>605</v>
+        <v>757</v>
       </c>
       <c r="AN176" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO176" t="s" s="2">
-        <v>82</v>
+        <v>758</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>809</v>
+        <v>759</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>809</v>
+        <v>759</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -23455,13 +23535,13 @@
         <v>82</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>810</v>
+        <v>226</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>811</v>
+        <v>760</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>812</v>
+        <v>761</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
@@ -23488,13 +23568,13 @@
         <v>82</v>
       </c>
       <c r="X177" t="s" s="2">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>82</v>
+        <v>762</v>
       </c>
       <c r="Z177" t="s" s="2">
-        <v>82</v>
+        <v>763</v>
       </c>
       <c r="AA177" t="s" s="2">
         <v>82</v>
@@ -23512,7 +23592,7 @@
         <v>82</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>809</v>
+        <v>759</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>80</v>
@@ -23527,27 +23607,27 @@
         <v>103</v>
       </c>
       <c r="AK177" t="s" s="2">
-        <v>813</v>
+        <v>82</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>612</v>
+        <v>82</v>
       </c>
       <c r="AM177" t="s" s="2">
-        <v>814</v>
+        <v>109</v>
       </c>
       <c r="AN177" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO177" t="s" s="2">
-        <v>815</v>
+        <v>764</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>816</v>
+        <v>765</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>816</v>
+        <v>765</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -23558,7 +23638,7 @@
         <v>80</v>
       </c>
       <c r="G178" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H178" t="s" s="2">
         <v>82</v>
@@ -23570,18 +23650,20 @@
         <v>82</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>817</v>
+        <v>226</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>818</v>
+        <v>766</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>819</v>
+        <v>767</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>820</v>
-      </c>
-      <c r="O178" s="2"/>
+        <v>768</v>
+      </c>
+      <c r="O178" t="s" s="2">
+        <v>769</v>
+      </c>
       <c r="P178" t="s" s="2">
         <v>82</v>
       </c>
@@ -23605,13 +23687,13 @@
         <v>82</v>
       </c>
       <c r="X178" t="s" s="2">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="Y178" t="s" s="2">
-        <v>82</v>
+        <v>770</v>
       </c>
       <c r="Z178" t="s" s="2">
-        <v>82</v>
+        <v>771</v>
       </c>
       <c r="AA178" t="s" s="2">
         <v>82</v>
@@ -23629,13 +23711,13 @@
         <v>82</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>816</v>
+        <v>765</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH178" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI178" t="s" s="2">
         <v>82</v>
@@ -23644,18 +23726,1638 @@
         <v>103</v>
       </c>
       <c r="AK178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM178" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="AN178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO178" t="s" s="2">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="B179" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="C179" s="2"/>
+      <c r="D179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E179" s="2"/>
+      <c r="F179" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G179" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K179" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L179" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="M179" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="N179" s="2"/>
+      <c r="O179" s="2"/>
+      <c r="P179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q179" s="2"/>
+      <c r="R179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X179" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="Y179" t="s" s="2">
+        <v>777</v>
+      </c>
+      <c r="Z179" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="AA179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF179" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="AG179" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH179" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ179" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM179" t="s" s="2">
+        <v>779</v>
+      </c>
+      <c r="AN179" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO179" t="s" s="2">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="B180" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="C180" s="2"/>
+      <c r="D180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E180" s="2"/>
+      <c r="F180" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G180" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K180" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L180" t="s" s="2">
+        <v>782</v>
+      </c>
+      <c r="M180" t="s" s="2">
+        <v>783</v>
+      </c>
+      <c r="N180" s="2"/>
+      <c r="O180" s="2"/>
+      <c r="P180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q180" s="2"/>
+      <c r="R180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X180" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="Y180" t="s" s="2">
+        <v>784</v>
+      </c>
+      <c r="Z180" t="s" s="2">
+        <v>785</v>
+      </c>
+      <c r="AA180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF180" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="AG180" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH180" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ180" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM180" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="AN180" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO180" t="s" s="2">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="2">
+        <v>788</v>
+      </c>
+      <c r="B181" t="s" s="2">
+        <v>788</v>
+      </c>
+      <c r="C181" s="2"/>
+      <c r="D181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E181" s="2"/>
+      <c r="F181" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G181" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K181" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="L181" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="M181" t="s" s="2">
+        <v>790</v>
+      </c>
+      <c r="N181" s="2"/>
+      <c r="O181" s="2"/>
+      <c r="P181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q181" s="2"/>
+      <c r="R181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF181" t="s" s="2">
+        <v>788</v>
+      </c>
+      <c r="AG181" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH181" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ181" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM181" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="AN181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO181" t="s" s="2">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="2">
+        <v>793</v>
+      </c>
+      <c r="B182" t="s" s="2">
+        <v>793</v>
+      </c>
+      <c r="C182" s="2"/>
+      <c r="D182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E182" s="2"/>
+      <c r="F182" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G182" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K182" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L182" t="s" s="2">
+        <v>794</v>
+      </c>
+      <c r="M182" t="s" s="2">
+        <v>795</v>
+      </c>
+      <c r="N182" s="2"/>
+      <c r="O182" s="2"/>
+      <c r="P182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q182" s="2"/>
+      <c r="R182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X182" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="Y182" s="2"/>
+      <c r="Z182" t="s" s="2">
+        <v>796</v>
+      </c>
+      <c r="AA182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF182" t="s" s="2">
+        <v>793</v>
+      </c>
+      <c r="AG182" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH182" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ182" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM182" t="s" s="2">
+        <v>797</v>
+      </c>
+      <c r="AN182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO182" t="s" s="2">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="2">
+        <v>799</v>
+      </c>
+      <c r="B183" t="s" s="2">
+        <v>799</v>
+      </c>
+      <c r="C183" s="2"/>
+      <c r="D183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E183" s="2"/>
+      <c r="F183" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G183" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K183" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L183" t="s" s="2">
+        <v>800</v>
+      </c>
+      <c r="M183" t="s" s="2">
+        <v>801</v>
+      </c>
+      <c r="N183" t="s" s="2">
+        <v>802</v>
+      </c>
+      <c r="O183" s="2"/>
+      <c r="P183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q183" s="2"/>
+      <c r="R183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF183" t="s" s="2">
+        <v>799</v>
+      </c>
+      <c r="AG183" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH183" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ183" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK183" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="AL183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM183" t="s" s="2">
+        <v>804</v>
+      </c>
+      <c r="AN183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO183" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="2">
+        <v>805</v>
+      </c>
+      <c r="B184" t="s" s="2">
+        <v>805</v>
+      </c>
+      <c r="C184" s="2"/>
+      <c r="D184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E184" s="2"/>
+      <c r="F184" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G184" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K184" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L184" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M184" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N184" s="2"/>
+      <c r="O184" s="2"/>
+      <c r="P184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q184" s="2"/>
+      <c r="R184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF184" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AG184" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH184" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM184" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AN184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO184" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="2">
+        <v>806</v>
+      </c>
+      <c r="B185" t="s" s="2">
+        <v>806</v>
+      </c>
+      <c r="C185" s="2"/>
+      <c r="D185" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="E185" s="2"/>
+      <c r="F185" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G185" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K185" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L185" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M185" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="N185" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="O185" s="2"/>
+      <c r="P185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q185" s="2"/>
+      <c r="R185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF185" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG185" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH185" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ185" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AK185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM185" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AN185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO185" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="2">
+        <v>807</v>
+      </c>
+      <c r="B186" t="s" s="2">
+        <v>807</v>
+      </c>
+      <c r="C186" s="2"/>
+      <c r="D186" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="E186" s="2"/>
+      <c r="F186" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G186" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I186" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J186" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K186" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L186" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M186" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N186" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="O186" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="P186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q186" s="2"/>
+      <c r="R186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF186" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AG186" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH186" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ186" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AK186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM186" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AN186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO186" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="2">
+        <v>808</v>
+      </c>
+      <c r="B187" t="s" s="2">
+        <v>808</v>
+      </c>
+      <c r="C187" s="2"/>
+      <c r="D187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E187" s="2"/>
+      <c r="F187" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G187" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K187" t="s" s="2">
+        <v>809</v>
+      </c>
+      <c r="L187" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="M187" t="s" s="2">
+        <v>811</v>
+      </c>
+      <c r="N187" s="2"/>
+      <c r="O187" s="2"/>
+      <c r="P187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q187" s="2"/>
+      <c r="R187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF187" t="s" s="2">
+        <v>808</v>
+      </c>
+      <c r="AG187" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH187" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ187" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL187" t="s" s="2">
+        <v>812</v>
+      </c>
+      <c r="AM187" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AN187" t="s" s="2">
+        <v>813</v>
+      </c>
+      <c r="AO187" t="s" s="2">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="2">
+        <v>815</v>
+      </c>
+      <c r="B188" t="s" s="2">
+        <v>815</v>
+      </c>
+      <c r="C188" s="2"/>
+      <c r="D188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E188" s="2"/>
+      <c r="F188" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G188" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K188" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L188" t="s" s="2">
+        <v>816</v>
+      </c>
+      <c r="M188" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="N188" t="s" s="2">
+        <v>818</v>
+      </c>
+      <c r="O188" s="2"/>
+      <c r="P188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q188" s="2"/>
+      <c r="R188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X188" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="Y188" t="s" s="2">
+        <v>819</v>
+      </c>
+      <c r="Z188" t="s" s="2">
+        <v>820</v>
+      </c>
+      <c r="AA188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF188" t="s" s="2">
+        <v>815</v>
+      </c>
+      <c r="AG188" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH188" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ188" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM188" t="s" s="2">
         <v>821</v>
       </c>
-      <c r="AL178" t="s" s="2">
+      <c r="AN188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO188" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="2">
         <v>822</v>
       </c>
-      <c r="AM178" t="s" s="2">
+      <c r="B189" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="C189" s="2"/>
+      <c r="D189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E189" s="2"/>
+      <c r="F189" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G189" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K189" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L189" t="s" s="2">
         <v>823</v>
       </c>
-      <c r="AN178" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO178" t="s" s="2">
+      <c r="M189" t="s" s="2">
+        <v>824</v>
+      </c>
+      <c r="N189" t="s" s="2">
+        <v>825</v>
+      </c>
+      <c r="O189" s="2"/>
+      <c r="P189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q189" s="2"/>
+      <c r="R189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X189" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="Y189" s="2"/>
+      <c r="Z189" t="s" s="2">
+        <v>826</v>
+      </c>
+      <c r="AA189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF189" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="AG189" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH189" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ189" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO189" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="2">
+        <v>827</v>
+      </c>
+      <c r="B190" t="s" s="2">
+        <v>827</v>
+      </c>
+      <c r="C190" s="2"/>
+      <c r="D190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E190" s="2"/>
+      <c r="F190" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G190" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K190" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L190" t="s" s="2">
+        <v>828</v>
+      </c>
+      <c r="M190" t="s" s="2">
+        <v>829</v>
+      </c>
+      <c r="N190" s="2"/>
+      <c r="O190" s="2"/>
+      <c r="P190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q190" s="2"/>
+      <c r="R190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF190" t="s" s="2">
+        <v>827</v>
+      </c>
+      <c r="AG190" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH190" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ190" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM190" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="AN190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO190" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="2">
+        <v>830</v>
+      </c>
+      <c r="B191" t="s" s="2">
+        <v>830</v>
+      </c>
+      <c r="C191" s="2"/>
+      <c r="D191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E191" s="2"/>
+      <c r="F191" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G191" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K191" t="s" s="2">
+        <v>831</v>
+      </c>
+      <c r="L191" t="s" s="2">
+        <v>832</v>
+      </c>
+      <c r="M191" t="s" s="2">
+        <v>833</v>
+      </c>
+      <c r="N191" s="2"/>
+      <c r="O191" s="2"/>
+      <c r="P191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q191" s="2"/>
+      <c r="R191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF191" t="s" s="2">
+        <v>830</v>
+      </c>
+      <c r="AG191" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH191" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ191" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK191" t="s" s="2">
+        <v>834</v>
+      </c>
+      <c r="AL191" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AM191" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="AN191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO191" t="s" s="2">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="2">
+        <v>837</v>
+      </c>
+      <c r="B192" t="s" s="2">
+        <v>837</v>
+      </c>
+      <c r="C192" s="2"/>
+      <c r="D192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E192" s="2"/>
+      <c r="F192" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G192" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K192" t="s" s="2">
+        <v>838</v>
+      </c>
+      <c r="L192" t="s" s="2">
+        <v>839</v>
+      </c>
+      <c r="M192" t="s" s="2">
+        <v>840</v>
+      </c>
+      <c r="N192" t="s" s="2">
+        <v>841</v>
+      </c>
+      <c r="O192" s="2"/>
+      <c r="P192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q192" s="2"/>
+      <c r="R192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF192" t="s" s="2">
+        <v>837</v>
+      </c>
+      <c r="AG192" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH192" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ192" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK192" t="s" s="2">
+        <v>842</v>
+      </c>
+      <c r="AL192" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="AM192" t="s" s="2">
+        <v>844</v>
+      </c>
+      <c r="AN192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO192" t="s" s="2">
         <v>82</v>
       </c>
     </row>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-30T16:47:22+00:00</t>
+    <t>2025-10-01T14:45:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1867,9 +1867,6 @@
     <t>http://hl7.org/fhir/ValueSet/encounter-participant-type|4.0.1</t>
   </si>
   <si>
-    <t>Statut.auteur</t>
-  </si>
-  <si>
     <t>Event.performer.function</t>
   </si>
   <si>
@@ -1907,81 +1904,85 @@
     <t>Persons involved in the encounter other than the patient.</t>
   </si>
   <si>
+    <t>Event.performer.actor</t>
+  </si>
+  <si>
+    <t>.role</t>
+  </si>
+  <si>
+    <t>FiveWs.who</t>
+  </si>
+  <si>
+    <t>ROL-4</t>
+  </si>
+  <si>
+    <t>Encounter.participant:auteurStatut</t>
+  </si>
+  <si>
+    <t>auteurStatut</t>
+  </si>
+  <si>
+    <t>Professionnel ayant effectué la dernière modification du statut associé à la ressource.</t>
+  </si>
+  <si>
+    <t>Statut.auteur</t>
+  </si>
+  <si>
+    <t>Encounter.participant:auteurStatut.id</t>
+  </si>
+  <si>
+    <t>Encounter.participant:auteurStatut.extension</t>
+  </si>
+  <si>
+    <t>Encounter.participant:auteurStatut.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.participant:auteurStatut.type</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/TDDUIEncounterParticipant"/&gt;
+    &lt;code value="AUT"/&gt;
+    &lt;display value="Auteur du statut de la ressource"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>Encounter.participant:auteurStatut.period</t>
+  </si>
+  <si>
+    <t>Encounter.participant:auteurStatut.individual</t>
+  </si>
+  <si>
+    <t>Encounter.participant:professionnel</t>
+  </si>
+  <si>
+    <t>professionnel</t>
+  </si>
+  <si>
+    <t>List of participants involved in the encounter</t>
+  </si>
+  <si>
     <t>Professionnel</t>
   </si>
   <si>
-    <t>Event.performer.actor</t>
-  </si>
-  <si>
-    <t>.role</t>
-  </si>
-  <si>
-    <t>FiveWs.who</t>
-  </si>
-  <si>
-    <t>ROL-4</t>
-  </si>
-  <si>
-    <t>Encounter.participant:auteurStatut</t>
-  </si>
-  <si>
-    <t>auteurStatut</t>
-  </si>
-  <si>
-    <t>Professionnel ayant effectué la dernière modification du statut associé à la ressource.</t>
-  </si>
-  <si>
-    <t>Encounter.participant:auteurStatut.id</t>
-  </si>
-  <si>
-    <t>Encounter.participant:auteurStatut.extension</t>
-  </si>
-  <si>
-    <t>Encounter.participant:auteurStatut.modifierExtension</t>
-  </si>
-  <si>
-    <t>Encounter.participant:auteurStatut.type</t>
+    <t>Encounter.participant:professionnel.id</t>
+  </si>
+  <si>
+    <t>Encounter.participant:professionnel.extension</t>
+  </si>
+  <si>
+    <t>Encounter.participant:professionnel.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.participant:professionnel.type</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://terminology.hl7.org/CodeSystem/v3-ParticipationType"/&gt;
     &lt;code value="PART"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>Encounter.participant:auteurStatut.period</t>
-  </si>
-  <si>
-    <t>Encounter.participant:auteurStatut.individual</t>
-  </si>
-  <si>
-    <t>Encounter.participant:professionnel</t>
-  </si>
-  <si>
-    <t>professionnel</t>
-  </si>
-  <si>
-    <t>List of participants involved in the encounter</t>
-  </si>
-  <si>
-    <t>Encounter.participant:professionnel.id</t>
-  </si>
-  <si>
-    <t>Encounter.participant:professionnel.extension</t>
-  </si>
-  <si>
-    <t>Encounter.participant:professionnel.modifierExtension</t>
-  </si>
-  <si>
-    <t>Encounter.participant:professionnel.type</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/v3-ParticipationType"/&gt;
-    &lt;code value="PPRF"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -17902,27 +17903,27 @@
         <v>103</v>
       </c>
       <c r="AK128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL128" t="s" s="2">
         <v>599</v>
       </c>
-      <c r="AL128" t="s" s="2">
+      <c r="AM128" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="AM128" t="s" s="2">
+      <c r="AN128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO128" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="AN128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO128" t="s" s="2">
-        <v>602</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17948,10 +17949,10 @@
         <v>345</v>
       </c>
       <c r="L129" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="M129" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -18002,7 +18003,7 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -18023,21 +18024,21 @@
         <v>82</v>
       </c>
       <c r="AM129" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="AN129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO129" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="AN129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO129" t="s" s="2">
-        <v>607</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18060,13 +18061,13 @@
         <v>92</v>
       </c>
       <c r="K130" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="L130" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="L130" t="s" s="2">
+      <c r="M130" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -18117,7 +18118,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18132,30 +18133,30 @@
         <v>103</v>
       </c>
       <c r="AK130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL130" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AM130" t="s" s="2">
         <v>612</v>
       </c>
-      <c r="AL130" t="s" s="2">
+      <c r="AN130" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="AM130" t="s" s="2">
+      <c r="AO130" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="AN130" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="AO130" t="s" s="2">
-        <v>616</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>584</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D131" t="s" s="2">
         <v>82</v>
@@ -18180,7 +18181,7 @@
         <v>384</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="M131" t="s" s="2">
         <v>586</v>
@@ -18249,7 +18250,7 @@
         <v>103</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>82</v>
+        <v>618</v>
       </c>
       <c r="AL131" t="s" s="2">
         <v>588</v>
@@ -18266,7 +18267,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>591</v>
@@ -18381,7 +18382,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>592</v>
@@ -18498,7 +18499,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>593</v>
@@ -18617,7 +18618,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>594</v>
@@ -18663,7 +18664,7 @@
         <v>82</v>
       </c>
       <c r="S135" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="T135" t="s" s="2">
         <v>82</v>
@@ -18720,24 +18721,24 @@
         <v>82</v>
       </c>
       <c r="AL135" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AM135" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="AM135" t="s" s="2">
+      <c r="AN135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO135" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="AN135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO135" t="s" s="2">
-        <v>602</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18763,10 +18764,10 @@
         <v>345</v>
       </c>
       <c r="L136" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="M136" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
@@ -18817,7 +18818,7 @@
         <v>82</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
@@ -18838,21 +18839,21 @@
         <v>82</v>
       </c>
       <c r="AM136" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="AN136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO136" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="AN136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO136" t="s" s="2">
-        <v>607</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18875,13 +18876,13 @@
         <v>92</v>
       </c>
       <c r="K137" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="L137" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="L137" t="s" s="2">
+      <c r="M137" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="M137" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -18932,7 +18933,7 @@
         <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -18950,27 +18951,27 @@
         <v>82</v>
       </c>
       <c r="AL137" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AM137" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AN137" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="AM137" t="s" s="2">
+      <c r="AO137" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="AN137" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="AO137" t="s" s="2">
-        <v>616</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>584</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D138" t="s" s="2">
         <v>82</v>
@@ -18995,7 +18996,7 @@
         <v>384</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M138" t="s" s="2">
         <v>586</v>
@@ -19064,7 +19065,7 @@
         <v>103</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>82</v>
+        <v>629</v>
       </c>
       <c r="AL138" t="s" s="2">
         <v>588</v>
@@ -19535,16 +19536,16 @@
         <v>82</v>
       </c>
       <c r="AL142" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AM142" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="AM142" t="s" s="2">
+      <c r="AN142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO142" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="AN142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO142" t="s" s="2">
-        <v>602</v>
       </c>
     </row>
     <row r="143">
@@ -19552,7 +19553,7 @@
         <v>635</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -19578,10 +19579,10 @@
         <v>345</v>
       </c>
       <c r="L143" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="M143" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="M143" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
@@ -19632,7 +19633,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -19653,13 +19654,13 @@
         <v>82</v>
       </c>
       <c r="AM143" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="AN143" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO143" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="AN143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO143" t="s" s="2">
-        <v>607</v>
       </c>
     </row>
     <row r="144">
@@ -19667,7 +19668,7 @@
         <v>636</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -19690,13 +19691,13 @@
         <v>92</v>
       </c>
       <c r="K144" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="L144" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="L144" t="s" s="2">
+      <c r="M144" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="M144" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
@@ -19747,7 +19748,7 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>80</v>
@@ -19765,16 +19766,16 @@
         <v>82</v>
       </c>
       <c r="AL144" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AM144" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AN144" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="AM144" t="s" s="2">
+      <c r="AO144" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="AN144" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="AO144" t="s" s="2">
-        <v>616</v>
       </c>
     </row>
     <row r="145">
@@ -24773,7 +24774,7 @@
         <v>812</v>
       </c>
       <c r="AM187" t="s" s="2">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AN187" t="s" s="2">
         <v>813</v>
@@ -25120,7 +25121,7 @@
         <v>82</v>
       </c>
       <c r="AM190" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AN190" t="s" s="2">
         <v>82</v>
@@ -25232,7 +25233,7 @@
         <v>834</v>
       </c>
       <c r="AL191" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AM191" t="s" s="2">
         <v>835</v>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T14:45:31+00:00</t>
+    <t>2025-10-02T09:38:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -427,7 +427,7 @@
     <t>Meta.lastUpdated</t>
   </si>
   <si>
-    <t>dateModificationEvenement</t>
+    <t>dateModificationEvenement, Statut.dateStatut</t>
   </si>
   <si>
     <t>Encounter.meta.source</t>
@@ -1748,7 +1748,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins|Group)
 </t>
   </si>
   <si>
@@ -1867,6 +1867,9 @@
     <t>http://hl7.org/fhir/ValueSet/encounter-participant-type|4.0.1</t>
   </si>
   <si>
+    <t>Statut.auteur</t>
+  </si>
+  <si>
     <t>Event.performer.function</t>
   </si>
   <si>
@@ -1904,6 +1907,9 @@
     <t>Persons involved in the encounter other than the patient.</t>
   </si>
   <si>
+    <t>Professionnel</t>
+  </si>
+  <si>
     <t>Event.performer.actor</t>
   </si>
   <si>
@@ -1925,9 +1931,6 @@
     <t>Professionnel ayant effectué la dernière modification du statut associé à la ressource.</t>
   </si>
   <si>
-    <t>Statut.auteur</t>
-  </si>
-  <si>
     <t>Encounter.participant:auteurStatut.id</t>
   </si>
   <si>
@@ -1938,51 +1941,47 @@
   </si>
   <si>
     <t>Encounter.participant:auteurStatut.type</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/TDDUIEncounterParticipant"/&gt;
-    &lt;code value="AUT"/&gt;
-    &lt;display value="Auteur du statut de la ressource"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>Encounter.participant:auteurStatut.period</t>
-  </si>
-  <si>
-    <t>Encounter.participant:auteurStatut.individual</t>
-  </si>
-  <si>
-    <t>Encounter.participant:professionnel</t>
-  </si>
-  <si>
-    <t>professionnel</t>
-  </si>
-  <si>
-    <t>List of participants involved in the encounter</t>
-  </si>
-  <si>
-    <t>Professionnel</t>
-  </si>
-  <si>
-    <t>Encounter.participant:professionnel.id</t>
-  </si>
-  <si>
-    <t>Encounter.participant:professionnel.extension</t>
-  </si>
-  <si>
-    <t>Encounter.participant:professionnel.modifierExtension</t>
-  </si>
-  <si>
-    <t>Encounter.participant:professionnel.type</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://terminology.hl7.org/CodeSystem/v3-ParticipationType"/&gt;
     &lt;code value="PART"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>Encounter.participant:auteurStatut.period</t>
+  </si>
+  <si>
+    <t>Encounter.participant:auteurStatut.individual</t>
+  </si>
+  <si>
+    <t>Encounter.participant:professionnel</t>
+  </si>
+  <si>
+    <t>professionnel</t>
+  </si>
+  <si>
+    <t>List of participants involved in the encounter</t>
+  </si>
+  <si>
+    <t>Encounter.participant:professionnel.id</t>
+  </si>
+  <si>
+    <t>Encounter.participant:professionnel.extension</t>
+  </si>
+  <si>
+    <t>Encounter.participant:professionnel.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.participant:professionnel.type</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/v3-ParticipationType"/&gt;
+    &lt;code value="PPRF"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -2985,7 +2984,7 @@
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="23.12890625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="37.63671875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="87.9765625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
@@ -17903,27 +17902,27 @@
         <v>103</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>82</v>
+        <v>599</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO128" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17949,10 +17948,10 @@
         <v>345</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -18003,7 +18002,7 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -18024,21 +18023,21 @@
         <v>82</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO129" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18061,13 +18060,13 @@
         <v>92</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -18118,7 +18117,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18133,30 +18132,30 @@
         <v>103</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>82</v>
+        <v>612</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="AO130" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>584</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D131" t="s" s="2">
         <v>82</v>
@@ -18181,7 +18180,7 @@
         <v>384</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="M131" t="s" s="2">
         <v>586</v>
@@ -18250,7 +18249,7 @@
         <v>103</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>618</v>
+        <v>82</v>
       </c>
       <c r="AL131" t="s" s="2">
         <v>588</v>
@@ -18267,7 +18266,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>591</v>
@@ -18382,7 +18381,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>592</v>
@@ -18499,7 +18498,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>593</v>
@@ -18618,7 +18617,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>594</v>
@@ -18664,7 +18663,7 @@
         <v>82</v>
       </c>
       <c r="S135" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="T135" t="s" s="2">
         <v>82</v>
@@ -18721,24 +18720,24 @@
         <v>82</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO135" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18764,10 +18763,10 @@
         <v>345</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
@@ -18818,7 +18817,7 @@
         <v>82</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
@@ -18839,21 +18838,21 @@
         <v>82</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AN136" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO136" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18876,13 +18875,13 @@
         <v>92</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -18933,7 +18932,7 @@
         <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -18951,27 +18950,27 @@
         <v>82</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="AN137" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="AO137" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>584</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D138" t="s" s="2">
         <v>82</v>
@@ -18996,7 +18995,7 @@
         <v>384</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="M138" t="s" s="2">
         <v>586</v>
@@ -19065,7 +19064,7 @@
         <v>103</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>629</v>
+        <v>82</v>
       </c>
       <c r="AL138" t="s" s="2">
         <v>588</v>
@@ -19536,16 +19535,16 @@
         <v>82</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AN142" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO142" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="143">
@@ -19553,7 +19552,7 @@
         <v>635</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -19579,10 +19578,10 @@
         <v>345</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
@@ -19633,7 +19632,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -19654,13 +19653,13 @@
         <v>82</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AN143" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO143" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="144">
@@ -19668,7 +19667,7 @@
         <v>636</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -19691,13 +19690,13 @@
         <v>92</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
@@ -19748,7 +19747,7 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>80</v>
@@ -19766,16 +19765,16 @@
         <v>82</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="AN144" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="AO144" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="145">
@@ -24774,7 +24773,7 @@
         <v>812</v>
       </c>
       <c r="AM187" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="AN187" t="s" s="2">
         <v>813</v>
@@ -25121,7 +25120,7 @@
         <v>82</v>
       </c>
       <c r="AM190" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AN190" t="s" s="2">
         <v>82</v>
@@ -25233,7 +25232,7 @@
         <v>834</v>
       </c>
       <c r="AL191" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AM191" t="s" s="2">
         <v>835</v>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T09:38:01+00:00</t>
+    <t>2025-10-02T12:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1867,9 +1867,6 @@
     <t>http://hl7.org/fhir/ValueSet/encounter-participant-type|4.0.1</t>
   </si>
   <si>
-    <t>Statut.auteur</t>
-  </si>
-  <si>
     <t>Event.performer.function</t>
   </si>
   <si>
@@ -1907,81 +1904,85 @@
     <t>Persons involved in the encounter other than the patient.</t>
   </si>
   <si>
+    <t>Event.performer.actor</t>
+  </si>
+  <si>
+    <t>.role</t>
+  </si>
+  <si>
+    <t>FiveWs.who</t>
+  </si>
+  <si>
+    <t>ROL-4</t>
+  </si>
+  <si>
+    <t>Encounter.participant:auteurStatut</t>
+  </si>
+  <si>
+    <t>auteurStatut</t>
+  </si>
+  <si>
+    <t>Professionnel ayant effectué la dernière modification du statut associé à la ressource.</t>
+  </si>
+  <si>
+    <t>Statut.auteur</t>
+  </si>
+  <si>
+    <t>Encounter.participant:auteurStatut.id</t>
+  </si>
+  <si>
+    <t>Encounter.participant:auteurStatut.extension</t>
+  </si>
+  <si>
+    <t>Encounter.participant:auteurStatut.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.participant:auteurStatut.type</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/TDDUIEncounterParticipant"/&gt;
+    &lt;code value="AUT"/&gt;
+    &lt;display value="Auteur du statut de la ressource"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>Encounter.participant:auteurStatut.period</t>
+  </si>
+  <si>
+    <t>Encounter.participant:auteurStatut.individual</t>
+  </si>
+  <si>
+    <t>Encounter.participant:professionnel</t>
+  </si>
+  <si>
+    <t>professionnel</t>
+  </si>
+  <si>
+    <t>List of participants involved in the encounter</t>
+  </si>
+  <si>
     <t>Professionnel</t>
   </si>
   <si>
-    <t>Event.performer.actor</t>
-  </si>
-  <si>
-    <t>.role</t>
-  </si>
-  <si>
-    <t>FiveWs.who</t>
-  </si>
-  <si>
-    <t>ROL-4</t>
-  </si>
-  <si>
-    <t>Encounter.participant:auteurStatut</t>
-  </si>
-  <si>
-    <t>auteurStatut</t>
-  </si>
-  <si>
-    <t>Professionnel ayant effectué la dernière modification du statut associé à la ressource.</t>
-  </si>
-  <si>
-    <t>Encounter.participant:auteurStatut.id</t>
-  </si>
-  <si>
-    <t>Encounter.participant:auteurStatut.extension</t>
-  </si>
-  <si>
-    <t>Encounter.participant:auteurStatut.modifierExtension</t>
-  </si>
-  <si>
-    <t>Encounter.participant:auteurStatut.type</t>
+    <t>Encounter.participant:professionnel.id</t>
+  </si>
+  <si>
+    <t>Encounter.participant:professionnel.extension</t>
+  </si>
+  <si>
+    <t>Encounter.participant:professionnel.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.participant:professionnel.type</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://terminology.hl7.org/CodeSystem/v3-ParticipationType"/&gt;
     &lt;code value="PART"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>Encounter.participant:auteurStatut.period</t>
-  </si>
-  <si>
-    <t>Encounter.participant:auteurStatut.individual</t>
-  </si>
-  <si>
-    <t>Encounter.participant:professionnel</t>
-  </si>
-  <si>
-    <t>professionnel</t>
-  </si>
-  <si>
-    <t>List of participants involved in the encounter</t>
-  </si>
-  <si>
-    <t>Encounter.participant:professionnel.id</t>
-  </si>
-  <si>
-    <t>Encounter.participant:professionnel.extension</t>
-  </si>
-  <si>
-    <t>Encounter.participant:professionnel.modifierExtension</t>
-  </si>
-  <si>
-    <t>Encounter.participant:professionnel.type</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/v3-ParticipationType"/&gt;
-    &lt;code value="PPRF"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -17902,27 +17903,27 @@
         <v>103</v>
       </c>
       <c r="AK128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL128" t="s" s="2">
         <v>599</v>
       </c>
-      <c r="AL128" t="s" s="2">
+      <c r="AM128" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="AM128" t="s" s="2">
+      <c r="AN128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO128" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="AN128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO128" t="s" s="2">
-        <v>602</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17948,10 +17949,10 @@
         <v>345</v>
       </c>
       <c r="L129" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="M129" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -18002,7 +18003,7 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -18023,21 +18024,21 @@
         <v>82</v>
       </c>
       <c r="AM129" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="AN129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO129" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="AN129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO129" t="s" s="2">
-        <v>607</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18060,13 +18061,13 @@
         <v>92</v>
       </c>
       <c r="K130" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="L130" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="L130" t="s" s="2">
+      <c r="M130" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -18117,7 +18118,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18132,30 +18133,30 @@
         <v>103</v>
       </c>
       <c r="AK130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL130" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AM130" t="s" s="2">
         <v>612</v>
       </c>
-      <c r="AL130" t="s" s="2">
+      <c r="AN130" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="AM130" t="s" s="2">
+      <c r="AO130" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="AN130" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="AO130" t="s" s="2">
-        <v>616</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>584</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D131" t="s" s="2">
         <v>82</v>
@@ -18180,7 +18181,7 @@
         <v>384</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="M131" t="s" s="2">
         <v>586</v>
@@ -18249,7 +18250,7 @@
         <v>103</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>82</v>
+        <v>618</v>
       </c>
       <c r="AL131" t="s" s="2">
         <v>588</v>
@@ -18266,7 +18267,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>591</v>
@@ -18381,7 +18382,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>592</v>
@@ -18498,7 +18499,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>593</v>
@@ -18617,7 +18618,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>594</v>
@@ -18663,7 +18664,7 @@
         <v>82</v>
       </c>
       <c r="S135" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="T135" t="s" s="2">
         <v>82</v>
@@ -18720,24 +18721,24 @@
         <v>82</v>
       </c>
       <c r="AL135" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AM135" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="AM135" t="s" s="2">
+      <c r="AN135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO135" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="AN135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO135" t="s" s="2">
-        <v>602</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18763,10 +18764,10 @@
         <v>345</v>
       </c>
       <c r="L136" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="M136" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
@@ -18817,7 +18818,7 @@
         <v>82</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
@@ -18838,21 +18839,21 @@
         <v>82</v>
       </c>
       <c r="AM136" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="AN136" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO136" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="AN136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO136" t="s" s="2">
-        <v>607</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18875,13 +18876,13 @@
         <v>92</v>
       </c>
       <c r="K137" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="L137" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="L137" t="s" s="2">
+      <c r="M137" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="M137" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -18932,7 +18933,7 @@
         <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -18950,27 +18951,27 @@
         <v>82</v>
       </c>
       <c r="AL137" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AM137" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AN137" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="AM137" t="s" s="2">
+      <c r="AO137" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="AN137" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="AO137" t="s" s="2">
-        <v>616</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>584</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D138" t="s" s="2">
         <v>82</v>
@@ -18995,7 +18996,7 @@
         <v>384</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M138" t="s" s="2">
         <v>586</v>
@@ -19064,7 +19065,7 @@
         <v>103</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>82</v>
+        <v>629</v>
       </c>
       <c r="AL138" t="s" s="2">
         <v>588</v>
@@ -19535,16 +19536,16 @@
         <v>82</v>
       </c>
       <c r="AL142" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AM142" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="AM142" t="s" s="2">
+      <c r="AN142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO142" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="AN142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO142" t="s" s="2">
-        <v>602</v>
       </c>
     </row>
     <row r="143">
@@ -19552,7 +19553,7 @@
         <v>635</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -19578,10 +19579,10 @@
         <v>345</v>
       </c>
       <c r="L143" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="M143" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="M143" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
@@ -19632,7 +19633,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -19653,13 +19654,13 @@
         <v>82</v>
       </c>
       <c r="AM143" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="AN143" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO143" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="AN143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO143" t="s" s="2">
-        <v>607</v>
       </c>
     </row>
     <row r="144">
@@ -19667,7 +19668,7 @@
         <v>636</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -19690,13 +19691,13 @@
         <v>92</v>
       </c>
       <c r="K144" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="L144" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="L144" t="s" s="2">
+      <c r="M144" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="M144" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
@@ -19747,7 +19748,7 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>80</v>
@@ -19765,16 +19766,16 @@
         <v>82</v>
       </c>
       <c r="AL144" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AM144" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AN144" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="AM144" t="s" s="2">
+      <c r="AO144" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="AN144" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="AO144" t="s" s="2">
-        <v>616</v>
       </c>
     </row>
     <row r="145">
@@ -24773,7 +24774,7 @@
         <v>812</v>
       </c>
       <c r="AM187" t="s" s="2">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AN187" t="s" s="2">
         <v>813</v>
@@ -25120,7 +25121,7 @@
         <v>82</v>
       </c>
       <c r="AM190" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AN190" t="s" s="2">
         <v>82</v>
@@ -25232,7 +25233,7 @@
         <v>834</v>
       </c>
       <c r="AL191" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AM191" t="s" s="2">
         <v>835</v>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:26:13+00:00</t>
+    <t>2025-10-07T14:58:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -237,7 +237,7 @@
     <t>Constraint(s)</t>
   </si>
   <si>
-    <t>Mapping: Évènement</t>
+    <t>Mapping: Modèle de contenu DUI</t>
   </si>
   <si>
     <t>Mapping: Workflow Pattern</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7095" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7095" uniqueCount="846">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T14:58:06+00:00</t>
+    <t>2025-10-08T14:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -833,7 +833,11 @@
     <t>Commentaires sur le déroulé de l'évènement.</t>
   </si>
   <si>
-    <t>Commentaire relatif au séjour et aux évènements.</t>
+    <t xml:space="preserve">
+- **Séjour** : commentaire relatif au séjour.
+- **Événement** : commentaires sur le déroulé de l’évènement.
+- **Évaluation** : commentaire libre sur le contenu ou le résultat de l’évaluation.
+- **Champ évalué** : commentaire spécifique à un item ou sous-item évalué.</t>
   </si>
   <si>
     <t>commentaireEvenement</t>
@@ -1067,7 +1071,7 @@
     <t>Encounter.identifier.value</t>
   </si>
   <si>
-    <t>The value that is unique</t>
+    <t>Format d'identifiant à respecter : 3+FINESS/identifiantLocalUsagerESSMS-EVN-numEvenement.</t>
   </si>
   <si>
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
@@ -2328,6 +2332,9 @@
   </si>
   <si>
     <t>Encounter.hospitalization.preAdmissionIdentifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
   </si>
   <si>
     <t>Encounter.hospitalization.preAdmissionIdentifier.period</t>
@@ -22960,7 +22967,7 @@
         <v>105</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>337</v>
+        <v>745</v>
       </c>
       <c r="M172" t="s" s="2">
         <v>338</v>
@@ -23048,10 +23055,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -23163,10 +23170,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23280,10 +23287,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -23306,13 +23313,13 @@
         <v>82</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="N175" s="2"/>
       <c r="O175" s="2"/>
@@ -23363,7 +23370,7 @@
         <v>82</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>80</v>
@@ -23384,7 +23391,7 @@
         <v>82</v>
       </c>
       <c r="AM175" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="AN175" t="s" s="2">
         <v>82</v>
@@ -23395,10 +23402,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -23424,10 +23431,10 @@
         <v>226</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
@@ -23457,10 +23464,10 @@
         <v>172</v>
       </c>
       <c r="Y176" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="Z176" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AA176" t="s" s="2">
         <v>82</v>
@@ -23478,7 +23485,7 @@
         <v>82</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>80</v>
@@ -23499,21 +23506,21 @@
         <v>82</v>
       </c>
       <c r="AM176" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="AN176" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO176" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -23539,10 +23546,10 @@
         <v>226</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
@@ -23572,10 +23579,10 @@
         <v>158</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="Z177" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AA177" t="s" s="2">
         <v>82</v>
@@ -23593,7 +23600,7 @@
         <v>82</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>80</v>
@@ -23620,15 +23627,15 @@
         <v>82</v>
       </c>
       <c r="AO177" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -23654,16 +23661,16 @@
         <v>226</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="O178" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>82</v>
@@ -23691,10 +23698,10 @@
         <v>158</v>
       </c>
       <c r="Y178" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="Z178" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AA178" t="s" s="2">
         <v>82</v>
@@ -23712,7 +23719,7 @@
         <v>82</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>80</v>
@@ -23733,21 +23740,21 @@
         <v>82</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AN178" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO178" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -23773,10 +23780,10 @@
         <v>226</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="N179" s="2"/>
       <c r="O179" s="2"/>
@@ -23806,10 +23813,10 @@
         <v>172</v>
       </c>
       <c r="Y179" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="Z179" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="AA179" t="s" s="2">
         <v>82</v>
@@ -23827,7 +23834,7 @@
         <v>82</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>80</v>
@@ -23848,21 +23855,21 @@
         <v>82</v>
       </c>
       <c r="AM179" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="AN179" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO179" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -23888,10 +23895,10 @@
         <v>226</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" s="2"/>
@@ -23921,10 +23928,10 @@
         <v>172</v>
       </c>
       <c r="Y180" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="Z180" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AA180" t="s" s="2">
         <v>82</v>
@@ -23942,7 +23949,7 @@
         <v>82</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>80</v>
@@ -23963,21 +23970,21 @@
         <v>82</v>
       </c>
       <c r="AM180" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="AN180" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO180" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -24000,13 +24007,13 @@
         <v>82</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="N181" s="2"/>
       <c r="O181" s="2"/>
@@ -24057,7 +24064,7 @@
         <v>82</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>80</v>
@@ -24078,21 +24085,21 @@
         <v>82</v>
       </c>
       <c r="AM181" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="AN181" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO181" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -24118,10 +24125,10 @@
         <v>226</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
@@ -24152,7 +24159,7 @@
       </c>
       <c r="Y182" s="2"/>
       <c r="Z182" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="AA182" t="s" s="2">
         <v>82</v>
@@ -24170,7 +24177,7 @@
         <v>82</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>80</v>
@@ -24191,21 +24198,21 @@
         <v>82</v>
       </c>
       <c r="AM182" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="AN182" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO182" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -24231,13 +24238,13 @@
         <v>384</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="O183" s="2"/>
       <c r="P183" t="s" s="2">
@@ -24287,7 +24294,7 @@
         <v>82</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>80</v>
@@ -24302,13 +24309,13 @@
         <v>103</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="AL183" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM183" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="AN183" t="s" s="2">
         <v>82</v>
@@ -24319,10 +24326,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -24434,10 +24441,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -24551,10 +24558,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -24670,10 +24677,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -24696,13 +24703,13 @@
         <v>82</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
@@ -24753,7 +24760,7 @@
         <v>82</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>91</v>
@@ -24771,24 +24778,24 @@
         <v>82</v>
       </c>
       <c r="AL187" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="AM187" t="s" s="2">
         <v>612</v>
       </c>
       <c r="AN187" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="AO187" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -24814,13 +24821,13 @@
         <v>168</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="O188" s="2"/>
       <c r="P188" t="s" s="2">
@@ -24849,10 +24856,10 @@
         <v>229</v>
       </c>
       <c r="Y188" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="Z188" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="AA188" t="s" s="2">
         <v>82</v>
@@ -24870,7 +24877,7 @@
         <v>82</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="AG188" t="s" s="2">
         <v>80</v>
@@ -24891,7 +24898,7 @@
         <v>82</v>
       </c>
       <c r="AM188" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="AN188" t="s" s="2">
         <v>82</v>
@@ -24902,10 +24909,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -24931,13 +24938,13 @@
         <v>226</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="N189" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="O189" s="2"/>
       <c r="P189" t="s" s="2">
@@ -24967,7 +24974,7 @@
       </c>
       <c r="Y189" s="2"/>
       <c r="Z189" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="AA189" t="s" s="2">
         <v>82</v>
@@ -24985,7 +24992,7 @@
         <v>82</v>
       </c>
       <c r="AF189" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="AG189" t="s" s="2">
         <v>80</v>
@@ -25017,10 +25024,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -25046,10 +25053,10 @@
         <v>345</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="N190" s="2"/>
       <c r="O190" s="2"/>
@@ -25100,7 +25107,7 @@
         <v>82</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>80</v>
@@ -25132,10 +25139,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -25158,13 +25165,13 @@
         <v>82</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="N191" s="2"/>
       <c r="O191" s="2"/>
@@ -25215,7 +25222,7 @@
         <v>82</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>80</v>
@@ -25230,27 +25237,27 @@
         <v>103</v>
       </c>
       <c r="AK191" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="AL191" t="s" s="2">
         <v>611</v>
       </c>
       <c r="AM191" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="AN191" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO191" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -25273,16 +25280,16 @@
         <v>82</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="O192" s="2"/>
       <c r="P192" t="s" s="2">
@@ -25332,7 +25339,7 @@
         <v>82</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>80</v>
@@ -25347,13 +25354,13 @@
         <v>103</v>
       </c>
       <c r="AK192" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="AL192" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="AM192" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="AN192" t="s" s="2">
         <v>82</v>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7095" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7095" uniqueCount="847">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T14:59:36+00:00</t>
+    <t>2025-10-10T14:52:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -870,6 +870,9 @@
   </si>
   <si>
     <t>Pièces jointes liées à l’événement.</t>
+  </si>
+  <si>
+    <t>Pièces jointes liées à l’événement et à l'évaluation. L'extension référence le profil PDSm_SimplifiedPublish.</t>
   </si>
   <si>
     <t>pieceJointeEvenement</t>
@@ -7802,7 +7805,7 @@
         <v>272</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7868,7 +7871,7 @@
         <v>120</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>82</v>
@@ -7885,13 +7888,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>82</v>
@@ -7913,13 +7916,13 @@
         <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7985,7 +7988,7 @@
         <v>120</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>82</v>
@@ -8002,13 +8005,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>82</v>
@@ -8030,13 +8033,13 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -8102,7 +8105,7 @@
         <v>120</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>82</v>
@@ -8119,13 +8122,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>82</v>
@@ -8147,13 +8150,13 @@
         <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -8219,7 +8222,7 @@
         <v>120</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>82</v>
@@ -8236,13 +8239,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>82</v>
@@ -8264,13 +8267,13 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -8336,7 +8339,7 @@
         <v>120</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>82</v>
@@ -8353,10 +8356,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8382,16 +8385,16 @@
         <v>112</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -8440,7 +8443,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -8472,10 +8475,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8498,13 +8501,13 @@
         <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -8555,7 +8558,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8570,27 +8573,27 @@
         <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8702,10 +8705,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8819,10 +8822,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8848,16 +8851,16 @@
         <v>168</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8885,10 +8888,10 @@
         <v>229</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -8906,7 +8909,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8927,7 +8930,7 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>82</v>
@@ -8938,10 +8941,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8967,16 +8970,16 @@
         <v>226</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -9005,7 +9008,7 @@
       </c>
       <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -9023,7 +9026,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -9044,21 +9047,21 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -9084,16 +9087,16 @@
         <v>134</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -9106,7 +9109,7 @@
         <v>82</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>82</v>
@@ -9142,7 +9145,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -9163,21 +9166,21 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9203,13 +9206,13 @@
         <v>105</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -9223,7 +9226,7 @@
         <v>82</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>82</v>
@@ -9259,7 +9262,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -9280,21 +9283,21 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9317,13 +9320,13 @@
         <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -9374,7 +9377,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -9395,21 +9398,21 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9432,16 +9435,16 @@
         <v>92</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9491,7 +9494,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9512,21 +9515,21 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9552,13 +9555,13 @@
         <v>168</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9587,10 +9590,10 @@
         <v>229</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>82</v>
@@ -9608,7 +9611,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>91</v>
@@ -9623,27 +9626,27 @@
         <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9669,10 +9672,10 @@
         <v>105</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9755,10 +9758,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9868,13 +9871,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="B60" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="B60" t="s" s="2">
-        <v>373</v>
-      </c>
       <c r="C60" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>82</v>
@@ -9896,13 +9899,13 @@
         <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9968,7 +9971,7 @@
         <v>120</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>82</v>
@@ -9985,10 +9988,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -10014,10 +10017,10 @@
         <v>105</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -10068,7 +10071,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -10100,10 +10103,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10126,16 +10129,16 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -10185,7 +10188,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -10217,10 +10220,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10332,10 +10335,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10449,14 +10452,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -10478,16 +10481,16 @@
         <v>112</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -10536,7 +10539,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10568,10 +10571,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10597,10 +10600,10 @@
         <v>168</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10630,10 +10633,10 @@
         <v>229</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>82</v>
@@ -10651,7 +10654,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>91</v>
@@ -10683,10 +10686,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10709,13 +10712,13 @@
         <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10766,7 +10769,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>91</v>
@@ -10798,10 +10801,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10827,10 +10830,10 @@
         <v>146</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10860,10 +10863,10 @@
         <v>150</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>82</v>
@@ -10881,7 +10884,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>91</v>
@@ -10902,21 +10905,21 @@
         <v>82</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -11028,10 +11031,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11145,10 +11148,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11174,16 +11177,16 @@
         <v>134</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -11232,7 +11235,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -11253,21 +11256,21 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11293,13 +11296,13 @@
         <v>105</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11349,7 +11352,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11370,21 +11373,21 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11410,14 +11413,14 @@
         <v>168</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11466,7 +11469,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11487,21 +11490,21 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11527,14 +11530,14 @@
         <v>105</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11583,7 +11586,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11604,21 +11607,21 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11641,19 +11644,19 @@
         <v>92</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11702,7 +11705,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11723,21 +11726,21 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11760,13 +11763,13 @@
         <v>82</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11817,7 +11820,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11849,10 +11852,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11964,10 +11967,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12081,14 +12084,14 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -12110,16 +12113,16 @@
         <v>112</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N79" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -12168,7 +12171,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -12200,10 +12203,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12229,10 +12232,10 @@
         <v>146</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -12262,10 +12265,10 @@
         <v>150</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>82</v>
@@ -12283,7 +12286,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>91</v>
@@ -12315,10 +12318,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12341,13 +12344,13 @@
         <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -12398,7 +12401,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>91</v>
@@ -12430,10 +12433,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12459,13 +12462,13 @@
         <v>226</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -12495,13 +12498,13 @@
       </c>
       <c r="Y82" s="2"/>
       <c r="Z82" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AC82" s="2"/>
       <c r="AD82" t="s" s="2">
@@ -12511,7 +12514,7 @@
         <v>118</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12526,30 +12529,30 @@
         <v>103</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>82</v>
@@ -12574,13 +12577,13 @@
         <v>226</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12609,10 +12612,10 @@
         <v>158</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>82</v>
@@ -12630,7 +12633,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12648,24 +12651,24 @@
         <v>82</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12777,10 +12780,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12894,10 +12897,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12923,16 +12926,16 @@
         <v>146</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12981,7 +12984,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -13002,21 +13005,21 @@
         <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13128,10 +13131,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13245,10 +13248,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13274,16 +13277,16 @@
         <v>134</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>82</v>
@@ -13293,7 +13296,7 @@
         <v>82</v>
       </c>
       <c r="S89" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="T89" t="s" s="2">
         <v>82</v>
@@ -13332,7 +13335,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -13353,21 +13356,21 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13393,13 +13396,13 @@
         <v>105</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -13449,7 +13452,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13470,21 +13473,21 @@
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13510,14 +13513,14 @@
         <v>168</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13546,7 +13549,7 @@
       </c>
       <c r="Y91" s="2"/>
       <c r="Z91" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>82</v>
@@ -13564,7 +13567,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13585,21 +13588,21 @@
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13625,14 +13628,14 @@
         <v>105</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13681,7 +13684,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13702,21 +13705,21 @@
         <v>82</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13739,19 +13742,19 @@
         <v>92</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>82</v>
@@ -13800,7 +13803,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13821,21 +13824,21 @@
         <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13861,16 +13864,16 @@
         <v>105</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
@@ -13919,7 +13922,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13940,24 +13943,24 @@
         <v>82</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>82</v>
@@ -13982,13 +13985,13 @@
         <v>226</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -14017,10 +14020,10 @@
         <v>158</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>82</v>
@@ -14038,7 +14041,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -14056,24 +14059,24 @@
         <v>82</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14185,10 +14188,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14302,10 +14305,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14331,16 +14334,16 @@
         <v>146</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14389,7 +14392,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14410,21 +14413,21 @@
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14536,10 +14539,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14653,10 +14656,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14682,16 +14685,16 @@
         <v>134</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>82</v>
@@ -14701,7 +14704,7 @@
         <v>82</v>
       </c>
       <c r="S101" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="T101" t="s" s="2">
         <v>82</v>
@@ -14740,7 +14743,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14761,21 +14764,21 @@
         <v>82</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14801,13 +14804,13 @@
         <v>105</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14857,7 +14860,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14878,21 +14881,21 @@
         <v>82</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14918,14 +14921,14 @@
         <v>168</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -14954,7 +14957,7 @@
       </c>
       <c r="Y103" s="2"/>
       <c r="Z103" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>82</v>
@@ -14972,7 +14975,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14993,21 +14996,21 @@
         <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15033,14 +15036,14 @@
         <v>105</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>82</v>
@@ -15089,7 +15092,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -15110,21 +15113,21 @@
         <v>82</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15147,19 +15150,19 @@
         <v>92</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>82</v>
@@ -15208,7 +15211,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15229,21 +15232,21 @@
         <v>82</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO105" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15269,16 +15272,16 @@
         <v>105</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -15327,7 +15330,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15348,24 +15351,24 @@
         <v>82</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO106" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D107" t="s" s="2">
         <v>82</v>
@@ -15390,13 +15393,13 @@
         <v>226</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -15425,10 +15428,10 @@
         <v>158</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>82</v>
@@ -15446,7 +15449,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15464,24 +15467,24 @@
         <v>82</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO107" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15593,10 +15596,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15710,10 +15713,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15739,16 +15742,16 @@
         <v>146</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -15797,7 +15800,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15818,21 +15821,21 @@
         <v>82</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15944,10 +15947,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16061,10 +16064,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16090,16 +16093,16 @@
         <v>134</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
@@ -16109,7 +16112,7 @@
         <v>82</v>
       </c>
       <c r="S113" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="T113" t="s" s="2">
         <v>82</v>
@@ -16148,7 +16151,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16169,21 +16172,21 @@
         <v>82</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16209,13 +16212,13 @@
         <v>105</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -16265,7 +16268,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16286,21 +16289,21 @@
         <v>82</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16326,14 +16329,14 @@
         <v>168</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
@@ -16343,7 +16346,7 @@
         <v>82</v>
       </c>
       <c r="S115" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="T115" t="s" s="2">
         <v>82</v>
@@ -16382,7 +16385,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16403,21 +16406,21 @@
         <v>82</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16443,14 +16446,14 @@
         <v>105</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
@@ -16460,7 +16463,7 @@
         <v>82</v>
       </c>
       <c r="S116" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="T116" t="s" s="2">
         <v>82</v>
@@ -16499,7 +16502,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16520,21 +16523,21 @@
         <v>82</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO116" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16557,19 +16560,19 @@
         <v>92</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16618,7 +16621,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16639,21 +16642,21 @@
         <v>82</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO117" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16679,16 +16682,16 @@
         <v>105</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>82</v>
@@ -16737,7 +16740,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16758,21 +16761,21 @@
         <v>82</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO118" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16798,10 +16801,10 @@
         <v>226</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -16831,10 +16834,10 @@
         <v>158</v>
       </c>
       <c r="Y119" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="Z119" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AA119" t="s" s="2">
         <v>82</v>
@@ -16852,7 +16855,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -16870,7 +16873,7 @@
         <v>82</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>109</v>
@@ -16879,15 +16882,15 @@
         <v>82</v>
       </c>
       <c r="AO119" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16913,10 +16916,10 @@
         <v>226</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -16946,10 +16949,10 @@
         <v>158</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>82</v>
@@ -16967,7 +16970,7 @@
         <v>82</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -16988,25 +16991,25 @@
         <v>82</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AO120" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
@@ -17025,16 +17028,16 @@
         <v>92</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
@@ -17084,7 +17087,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -17099,27 +17102,27 @@
         <v>103</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AO121" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17142,13 +17145,13 @@
         <v>92</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -17199,7 +17202,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -17217,28 +17220,28 @@
         <v>82</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AO122" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
@@ -17257,13 +17260,13 @@
         <v>82</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -17314,7 +17317,7 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -17332,10 +17335,10 @@
         <v>82</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>82</v>
@@ -17346,10 +17349,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17372,13 +17375,13 @@
         <v>92</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -17417,7 +17420,7 @@
         <v>82</v>
       </c>
       <c r="AB124" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AC124" s="2"/>
       <c r="AD124" t="s" s="2">
@@ -17427,7 +17430,7 @@
         <v>118</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
@@ -17445,24 +17448,24 @@
         <v>82</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO124" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17574,10 +17577,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17691,14 +17694,14 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
@@ -17720,16 +17723,16 @@
         <v>112</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N127" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>82</v>
@@ -17778,7 +17781,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -17810,10 +17813,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17839,13 +17842,13 @@
         <v>226</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
@@ -17874,10 +17877,10 @@
         <v>150</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Z128" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AA128" t="s" s="2">
         <v>82</v>
@@ -17895,7 +17898,7 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -17913,24 +17916,24 @@
         <v>82</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO128" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17953,13 +17956,13 @@
         <v>82</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -18010,7 +18013,7 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -18031,21 +18034,21 @@
         <v>82</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO129" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18068,13 +18071,13 @@
         <v>92</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -18125,7 +18128,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18143,27 +18146,27 @@
         <v>82</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AO130" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D131" t="s" s="2">
         <v>82</v>
@@ -18185,13 +18188,13 @@
         <v>92</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -18242,7 +18245,7 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
@@ -18257,27 +18260,27 @@
         <v>103</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO131" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18389,10 +18392,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18506,14 +18509,14 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s" s="2">
@@ -18535,16 +18538,16 @@
         <v>112</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N134" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>82</v>
@@ -18593,7 +18596,7 @@
         <v>82</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
@@ -18625,10 +18628,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18654,13 +18657,13 @@
         <v>226</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" t="s" s="2">
@@ -18671,7 +18674,7 @@
         <v>82</v>
       </c>
       <c r="S135" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="T135" t="s" s="2">
         <v>82</v>
@@ -18689,10 +18692,10 @@
         <v>150</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Z135" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AA135" t="s" s="2">
         <v>82</v>
@@ -18710,7 +18713,7 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -18728,24 +18731,24 @@
         <v>82</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO135" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18768,13 +18771,13 @@
         <v>82</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
@@ -18825,7 +18828,7 @@
         <v>82</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
@@ -18846,21 +18849,21 @@
         <v>82</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AN136" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO136" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18883,13 +18886,13 @@
         <v>92</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -18940,7 +18943,7 @@
         <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -18958,27 +18961,27 @@
         <v>82</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AN137" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AO137" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D138" t="s" s="2">
         <v>82</v>
@@ -19000,13 +19003,13 @@
         <v>92</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" s="2"/>
@@ -19057,7 +19060,7 @@
         <v>82</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -19072,27 +19075,27 @@
         <v>103</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AN138" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19204,10 +19207,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19321,14 +19324,14 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
@@ -19350,16 +19353,16 @@
         <v>112</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N141" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O141" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>82</v>
@@ -19408,7 +19411,7 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
@@ -19440,10 +19443,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19469,13 +19472,13 @@
         <v>226</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" t="s" s="2">
@@ -19486,7 +19489,7 @@
         <v>82</v>
       </c>
       <c r="S142" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="T142" t="s" s="2">
         <v>82</v>
@@ -19504,10 +19507,10 @@
         <v>150</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Z142" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AA142" t="s" s="2">
         <v>82</v>
@@ -19525,7 +19528,7 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -19543,24 +19546,24 @@
         <v>82</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AN142" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO142" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -19583,13 +19586,13 @@
         <v>82</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
@@ -19640,7 +19643,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -19661,21 +19664,21 @@
         <v>82</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AN143" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO143" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -19698,13 +19701,13 @@
         <v>92</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
@@ -19755,7 +19758,7 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>80</v>
@@ -19773,24 +19776,24 @@
         <v>82</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AN144" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AO144" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -19813,13 +19816,13 @@
         <v>92</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
@@ -19870,7 +19873,7 @@
         <v>82</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
@@ -19888,24 +19891,24 @@
         <v>82</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AM145" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AN145" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO145" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -19928,16 +19931,16 @@
         <v>82</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="O146" s="2"/>
       <c r="P146" t="s" s="2">
@@ -19987,7 +19990,7 @@
         <v>82</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
@@ -20005,24 +20008,24 @@
         <v>82</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AN146" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AO146" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20134,10 +20137,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20251,10 +20254,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20277,16 +20280,16 @@
         <v>92</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="O149" s="2"/>
       <c r="P149" t="s" s="2">
@@ -20336,7 +20339,7 @@
         <v>82</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
@@ -20345,33 +20348,33 @@
         <v>91</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AL149" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AN149" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO149" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20394,23 +20397,23 @@
         <v>92</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="O150" s="2"/>
       <c r="P150" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q150" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="R150" t="s" s="2">
         <v>82</v>
@@ -20455,7 +20458,7 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -20464,33 +20467,33 @@
         <v>91</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AL150" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO150" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -20513,16 +20516,16 @@
         <v>82</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="O151" s="2"/>
       <c r="P151" t="s" s="2">
@@ -20572,7 +20575,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>80</v>
@@ -20590,28 +20593,28 @@
         <v>82</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" t="s" s="2">
@@ -20633,13 +20636,13 @@
         <v>226</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" t="s" s="2">
@@ -20668,10 +20671,10 @@
         <v>172</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="Z152" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AA152" t="s" s="2">
         <v>82</v>
@@ -20689,7 +20692,7 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -20707,28 +20710,28 @@
         <v>82</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AN152" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AO152" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" t="s" s="2">
@@ -20747,16 +20750,16 @@
         <v>92</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" t="s" s="2">
@@ -20806,7 +20809,7 @@
         <v>82</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
@@ -20824,24 +20827,24 @@
         <v>82</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AN153" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AO153" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -20864,13 +20867,13 @@
         <v>92</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -20921,7 +20924,7 @@
         <v>82</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>80</v>
@@ -20942,7 +20945,7 @@
         <v>82</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AN154" t="s" s="2">
         <v>82</v>
@@ -20953,10 +20956,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21068,10 +21071,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21185,14 +21188,14 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" t="s" s="2">
@@ -21214,16 +21217,16 @@
         <v>112</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N157" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O157" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P157" t="s" s="2">
         <v>82</v>
@@ -21272,7 +21275,7 @@
         <v>82</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>80</v>
@@ -21304,14 +21307,14 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
@@ -21330,16 +21333,16 @@
         <v>92</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="O158" s="2"/>
       <c r="P158" t="s" s="2">
@@ -21389,7 +21392,7 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>91</v>
@@ -21407,24 +21410,24 @@
         <v>82</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AN158" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AO158" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21450,10 +21453,10 @@
         <v>226</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
@@ -21483,10 +21486,10 @@
         <v>172</v>
       </c>
       <c r="Y159" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="Z159" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AA159" t="s" s="2">
         <v>82</v>
@@ -21504,7 +21507,7 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>80</v>
@@ -21536,10 +21539,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -21562,13 +21565,13 @@
         <v>82</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
@@ -21619,7 +21622,7 @@
         <v>82</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>80</v>
@@ -21640,7 +21643,7 @@
         <v>82</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>82</v>
@@ -21651,10 +21654,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -21677,16 +21680,16 @@
         <v>82</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="O161" s="2"/>
       <c r="P161" t="s" s="2">
@@ -21736,7 +21739,7 @@
         <v>82</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
@@ -21757,7 +21760,7 @@
         <v>82</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>82</v>
@@ -21768,10 +21771,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -21794,16 +21797,16 @@
         <v>82</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="O162" s="2"/>
       <c r="P162" t="s" s="2">
@@ -21853,7 +21856,7 @@
         <v>82</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>80</v>
@@ -21874,7 +21877,7 @@
         <v>82</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="AN162" t="s" s="2">
         <v>82</v>
@@ -21885,10 +21888,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22000,10 +22003,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22117,14 +22120,14 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E165" s="2"/>
       <c r="F165" t="s" s="2">
@@ -22146,16 +22149,16 @@
         <v>112</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N165" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O165" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P165" t="s" s="2">
         <v>82</v>
@@ -22204,7 +22207,7 @@
         <v>82</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>80</v>
@@ -22236,10 +22239,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -22262,13 +22265,13 @@
         <v>82</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="N166" s="2"/>
       <c r="O166" s="2"/>
@@ -22319,7 +22322,7 @@
         <v>82</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>80</v>
@@ -22340,21 +22343,21 @@
         <v>82</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO166" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -22466,10 +22469,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -22583,10 +22586,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -22612,16 +22615,16 @@
         <v>168</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O169" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P169" t="s" s="2">
         <v>82</v>
@@ -22649,10 +22652,10 @@
         <v>229</v>
       </c>
       <c r="Y169" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Z169" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AA169" t="s" s="2">
         <v>82</v>
@@ -22670,7 +22673,7 @@
         <v>82</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>80</v>
@@ -22691,7 +22694,7 @@
         <v>82</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN169" t="s" s="2">
         <v>82</v>
@@ -22702,10 +22705,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -22731,16 +22734,16 @@
         <v>226</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O170" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P170" t="s" s="2">
         <v>82</v>
@@ -22769,7 +22772,7 @@
       </c>
       <c r="Y170" s="2"/>
       <c r="Z170" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AA170" t="s" s="2">
         <v>82</v>
@@ -22787,7 +22790,7 @@
         <v>82</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>80</v>
@@ -22808,21 +22811,21 @@
         <v>82</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN170" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO170" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -22848,29 +22851,29 @@
         <v>134</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O171" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P171" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q171" s="2"/>
       <c r="R171" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="S171" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T171" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="U171" t="s" s="2">
         <v>82</v>
@@ -22906,7 +22909,7 @@
         <v>82</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>80</v>
@@ -22927,21 +22930,21 @@
         <v>82</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AN171" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO171" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -22967,13 +22970,13 @@
         <v>105</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O172" s="2"/>
       <c r="P172" t="s" s="2">
@@ -22987,7 +22990,7 @@
         <v>82</v>
       </c>
       <c r="T172" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="U172" t="s" s="2">
         <v>82</v>
@@ -23023,7 +23026,7 @@
         <v>82</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>80</v>
@@ -23044,21 +23047,21 @@
         <v>82</v>
       </c>
       <c r="AM172" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AN172" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO172" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -23081,13 +23084,13 @@
         <v>92</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" s="2"/>
@@ -23138,7 +23141,7 @@
         <v>82</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>80</v>
@@ -23159,21 +23162,21 @@
         <v>82</v>
       </c>
       <c r="AM173" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AN173" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO173" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23196,16 +23199,16 @@
         <v>92</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O174" s="2"/>
       <c r="P174" t="s" s="2">
@@ -23255,7 +23258,7 @@
         <v>82</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>80</v>
@@ -23276,21 +23279,21 @@
         <v>82</v>
       </c>
       <c r="AM174" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AN174" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO174" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -23313,13 +23316,13 @@
         <v>82</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="N175" s="2"/>
       <c r="O175" s="2"/>
@@ -23370,7 +23373,7 @@
         <v>82</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>80</v>
@@ -23391,7 +23394,7 @@
         <v>82</v>
       </c>
       <c r="AM175" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="AN175" t="s" s="2">
         <v>82</v>
@@ -23402,10 +23405,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -23431,10 +23434,10 @@
         <v>226</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
@@ -23464,10 +23467,10 @@
         <v>172</v>
       </c>
       <c r="Y176" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="Z176" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="AA176" t="s" s="2">
         <v>82</v>
@@ -23485,7 +23488,7 @@
         <v>82</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>80</v>
@@ -23506,21 +23509,21 @@
         <v>82</v>
       </c>
       <c r="AM176" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="AN176" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO176" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -23546,10 +23549,10 @@
         <v>226</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
@@ -23579,10 +23582,10 @@
         <v>158</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="Z177" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="AA177" t="s" s="2">
         <v>82</v>
@@ -23600,7 +23603,7 @@
         <v>82</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>80</v>
@@ -23627,15 +23630,15 @@
         <v>82</v>
       </c>
       <c r="AO177" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -23661,16 +23664,16 @@
         <v>226</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="O178" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>82</v>
@@ -23698,10 +23701,10 @@
         <v>158</v>
       </c>
       <c r="Y178" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="Z178" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AA178" t="s" s="2">
         <v>82</v>
@@ -23719,7 +23722,7 @@
         <v>82</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>80</v>
@@ -23740,21 +23743,21 @@
         <v>82</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="AN178" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO178" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -23780,10 +23783,10 @@
         <v>226</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="N179" s="2"/>
       <c r="O179" s="2"/>
@@ -23813,10 +23816,10 @@
         <v>172</v>
       </c>
       <c r="Y179" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="Z179" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="AA179" t="s" s="2">
         <v>82</v>
@@ -23834,7 +23837,7 @@
         <v>82</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>80</v>
@@ -23855,21 +23858,21 @@
         <v>82</v>
       </c>
       <c r="AM179" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AN179" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO179" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -23895,10 +23898,10 @@
         <v>226</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" s="2"/>
@@ -23928,10 +23931,10 @@
         <v>172</v>
       </c>
       <c r="Y180" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="Z180" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="AA180" t="s" s="2">
         <v>82</v>
@@ -23949,7 +23952,7 @@
         <v>82</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>80</v>
@@ -23970,21 +23973,21 @@
         <v>82</v>
       </c>
       <c r="AM180" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="AN180" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO180" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -24007,13 +24010,13 @@
         <v>82</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="N181" s="2"/>
       <c r="O181" s="2"/>
@@ -24064,7 +24067,7 @@
         <v>82</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>80</v>
@@ -24085,21 +24088,21 @@
         <v>82</v>
       </c>
       <c r="AM181" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="AN181" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO181" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -24125,10 +24128,10 @@
         <v>226</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
@@ -24159,7 +24162,7 @@
       </c>
       <c r="Y182" s="2"/>
       <c r="Z182" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="AA182" t="s" s="2">
         <v>82</v>
@@ -24177,7 +24180,7 @@
         <v>82</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>80</v>
@@ -24198,21 +24201,21 @@
         <v>82</v>
       </c>
       <c r="AM182" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="AN182" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO182" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -24235,16 +24238,16 @@
         <v>82</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="O183" s="2"/>
       <c r="P183" t="s" s="2">
@@ -24294,7 +24297,7 @@
         <v>82</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>80</v>
@@ -24309,13 +24312,13 @@
         <v>103</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="AL183" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM183" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="AN183" t="s" s="2">
         <v>82</v>
@@ -24326,10 +24329,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -24441,10 +24444,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -24558,14 +24561,14 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E186" s="2"/>
       <c r="F186" t="s" s="2">
@@ -24587,16 +24590,16 @@
         <v>112</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N186" t="s" s="2">
         <v>115</v>
       </c>
       <c r="O186" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P186" t="s" s="2">
         <v>82</v>
@@ -24645,7 +24648,7 @@
         <v>82</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>80</v>
@@ -24677,10 +24680,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -24703,13 +24706,13 @@
         <v>82</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
@@ -24760,7 +24763,7 @@
         <v>82</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>91</v>
@@ -24778,24 +24781,24 @@
         <v>82</v>
       </c>
       <c r="AL187" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="AM187" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AN187" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="AO187" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -24821,13 +24824,13 @@
         <v>168</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="O188" s="2"/>
       <c r="P188" t="s" s="2">
@@ -24856,10 +24859,10 @@
         <v>229</v>
       </c>
       <c r="Y188" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="Z188" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="AA188" t="s" s="2">
         <v>82</v>
@@ -24877,7 +24880,7 @@
         <v>82</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="AG188" t="s" s="2">
         <v>80</v>
@@ -24898,7 +24901,7 @@
         <v>82</v>
       </c>
       <c r="AM188" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="AN188" t="s" s="2">
         <v>82</v>
@@ -24909,10 +24912,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -24938,13 +24941,13 @@
         <v>226</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="N189" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="O189" s="2"/>
       <c r="P189" t="s" s="2">
@@ -24974,7 +24977,7 @@
       </c>
       <c r="Y189" s="2"/>
       <c r="Z189" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="AA189" t="s" s="2">
         <v>82</v>
@@ -24992,7 +24995,7 @@
         <v>82</v>
       </c>
       <c r="AF189" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AG189" t="s" s="2">
         <v>80</v>
@@ -25024,10 +25027,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -25050,13 +25053,13 @@
         <v>82</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="N190" s="2"/>
       <c r="O190" s="2"/>
@@ -25107,7 +25110,7 @@
         <v>82</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>80</v>
@@ -25128,7 +25131,7 @@
         <v>82</v>
       </c>
       <c r="AM190" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AN190" t="s" s="2">
         <v>82</v>
@@ -25139,10 +25142,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -25165,13 +25168,13 @@
         <v>82</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="N191" s="2"/>
       <c r="O191" s="2"/>
@@ -25222,7 +25225,7 @@
         <v>82</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>80</v>
@@ -25237,27 +25240,27 @@
         <v>103</v>
       </c>
       <c r="AK191" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="AL191" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AM191" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="AN191" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO191" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -25280,16 +25283,16 @@
         <v>82</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="O192" s="2"/>
       <c r="P192" t="s" s="2">
@@ -25339,7 +25342,7 @@
         <v>82</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>80</v>
@@ -25354,13 +25357,13 @@
         <v>103</v>
       </c>
       <c r="AK192" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="AL192" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="AM192" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="AN192" t="s" s="2">
         <v>82</v>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-10T14:52:44+00:00</t>
+    <t>2025-10-14T09:28:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-14T09:28:59+00:00</t>
+    <t>2025-10-15T10:12:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
